--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="27300" windowHeight="19580" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="5260" yWindow="940" windowWidth="27020" windowHeight="19580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -110,13 +110,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="875">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -126,7 +126,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -136,44 +136,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -183,7 +183,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -196,14 +196,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -213,54 +213,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -270,47 +270,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -320,87 +320,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -416,58 +416,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -477,59 +477,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -539,157 +539,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -708,7 +708,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -730,7 +730,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -746,7 +746,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -762,7 +762,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -796,67 +796,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -893,7 +893,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -903,7 +903,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -925,21 +925,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -949,7 +949,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -968,11 +968,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -997,385 +997,385 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>文档反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>文档分析</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>数值反馈</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>客户端开发</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>客户端缩减后</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>客户端分工</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>服务器开发</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>服务器缩减后</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>服务器分工</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>开发备注</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>策划配置缩减后</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>配置bug修复</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>用例</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>测试分工</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>QA备注</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物基础架构</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-AI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-UI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-换宠</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
   </si>
   <si>
     <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-道具使用</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>目前看来被抓宠封妖完全包括了</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>只包含抓宠的道具使用</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>抓宠、封妖</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>对局，技能动画表现</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>技能-大招操作*6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>副本基础逻辑</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>非同步pve</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>副本-照妖镜</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>副本结算功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落表现</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -1385,565 +1385,565 @@
   </si>
   <si>
     <t>副本星级评价</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>副本托管</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ts，雷神</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>任务系统功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>村落</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>村落功能（UI表现）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>不确定服务器什么功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宠物阵型</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面（包括上阵宠物选择）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物升星</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>0..25</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成（炼妖）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物繁殖（交互）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>角色界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物是否有额外服务器功能？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>称号系统--vip，竞技场</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>道具-宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>玩家装备套装系统</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>是否和装备功能重合？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>不包含套装配置测试</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>不包含装备内容配置测试</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备进阶</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备宝石</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备洗炼</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>不包括支付、渠道等</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>NPC商店</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>VIP</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>月卡</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>拍卖行</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>邮箱-主要用于系统发信</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>好友</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础管理，任务（放在任务界面），商店</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>创建角色</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>账号，登录，注册，切换账号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>我们内部测试帐号，不包括各个渠道</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>断线处理</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>服务器选择，服务器分流，公告</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>指引界面-活动</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>版本检测，更新功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>loading界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>消息推送功能（百度推送？）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>通知--家园、大冒险、邮箱</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>敏感词、屏蔽词</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>抽卡</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>活动功能框架</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>答题</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>BossRush</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>稀有探索玩法</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>狩猎场</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>擂台</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>公会战</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>公会副本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>缺少副本内容条目，时间估算在这里</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>家园</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>世界boss</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>同步玩法重新写</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>地藏宫殿</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>基于同步玩法</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>激活码-邀请福利等运营相关活动</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>支付功能（各SDK接入）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>zz，文生</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>不是太清楚，接入量未知</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>测试时间不可预估</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
     <t>运营工具</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>是否是gm工具？</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>美术资源需求模板</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>程序开发规范和约定</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>发布流程</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>关卡编辑器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>也许可以不用测试</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>导表工具</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>几种表格未知</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>版本自动打包、发布工具</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>测试工具</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>兼容性测试，性能测试</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1959,7 +1959,7 @@
       </rPr>
       <t>（角色、宠物）</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1984,11 +1984,11 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>雷神，ts</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2013,71 +2013,71 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>AI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>10套（勤奋5+倾向5）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>物攻*6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>法攻*15</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>buff or debuff*14</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>大招*23 （操作表现几套？）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>其他*2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>队长+友情*36</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>boss技能*16</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>被动技能*30（怪物倾向性设计）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>CP技能（待设计第一期不强需求）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2102,7 +2102,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2127,7 +2127,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2152,233 +2152,233 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>公会任务*20个</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>特殊进化任务32个</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Avatar</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宠物表现、技能、数值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>村落配置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>装备内容包括属性（进化等）100-200件</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>角色装备10套以下</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>高阶人型*15（3D、动作、特效）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>普通兽型*30（3D、动作、特效）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>纯材料*3（3D、动作、特效）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>boss*8（3D、动作、特效）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>boss进化*3（3D、动作、特效）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>高阶兽型*7（3D、动作、特效）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进化配方设计*8（3D、动作、特效）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NPC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>妲己</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>男身体</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>男头（免费）*3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>男头（付费）*3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>女身体</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>女头（免费）*3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>女头（付费）*3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个（8个建筑物）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>宠物-100-200件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色10套以下</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>策划时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减前</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减后</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>美术原画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>美术外包</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
@@ -2394,7 +2394,7 @@
   </si>
   <si>
     <t>总人天</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
@@ -2419,23 +2419,23 @@
   </si>
   <si>
     <t>纯材料</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>角色*2性别</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>角色套装4套*2性别</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>角色-头6*2性别</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>角色-NPC-妲己</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
@@ -2448,102 +2448,102 @@
   </si>
   <si>
     <t>图标-技能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>图标-道具120-160</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>怪物头像</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>活动*1个</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>所有内容</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">任务配置、数据结构 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>统计数据&amp;任务目标映射</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务交付</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">每日任务刷新 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>副本相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">活动、商城相关数据统计&amp;任务更新 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其他待拆</t>
@@ -2556,31 +2556,31 @@
     <rPh sb="3" eb="4">
       <t>chai</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-676</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-677</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-678</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务初始化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务更新框架</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>原预期时间</t>
@@ -2596,7 +2596,7 @@
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2606,7 +2606,7 @@
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2622,7 +2622,7 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2635,179 +2635,179 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>6月1日</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月6日</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>6月30日</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局表现</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>相机运动</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>动画范围-新增mesh、光照变化</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>另外，策划需要0.2天测试光照</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>转向</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>轴锁定、Attach</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-血条动画</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-掉血弹数字动画</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff图标替代规则修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-ui挂特效-如大招</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-集火UI能挂在弱点上</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff去掉图标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-ui增加能量条</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-换怪特效</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点受击特效</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点死亡表现</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-进程动画具体设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-开战动画</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-胜利失败动画</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局动画- 前置动画删除了</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-取消集火逻辑</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-加速</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-服务器客户端上阵宠物数据同步</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-切换条件判定、对局成功失败条件判定</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-副本对局配置拆大表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>副本对局配置拆大表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>5月27日</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1. 对局-集火敌人ui提示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2. 集火弱点功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>3. Boss进程调整</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>4. 换宠ui</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
@@ -2817,29 +2817,29 @@
     <rPh sb="2" eb="3">
       <t>cha</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'cha</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jain'cha</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>速度计算调整</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>多个怪物同时死亡的死亡表现</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>法术大招升格时机调整 与ZZ联调</t>
@@ -2849,19 +2849,19 @@
   </si>
   <si>
     <t>照妖镜基本操作修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜提示信息方式及内容修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>战后回血</t>
@@ -2874,7 +2874,7 @@
     <rPh sb="3" eb="4">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>暴击动画调整</t>
@@ -2887,7 +2887,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜特效层级修改（待确认需求)</t>
@@ -2900,11 +2900,11 @@
     <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点加入是否可打断（待确认需求)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>物理大招添加combo</t>
@@ -2914,31 +2914,31 @@
     <rPh sb="2" eb="3">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-726</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升格动画加入到动画配置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-727</t>
@@ -2957,23 +2957,23 @@
   </si>
   <si>
     <t>MG-733</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>区分物理大招、法术大招聚气、爆气，修改为事件动画</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">区分物理大招、法术大招幕布 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-734</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大招统计数据UI修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-735</t>
@@ -2989,89 +2989,89 @@
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对局战后回血特效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>集火UI、开战动画改为英文版“Fight”、托管和手动的UI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>被动换怪（怪物死亡）的怪物消失特效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2、3、4、6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>5、7</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物理大招聚气与爆气</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物理大招，法术大招幕布</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>法术大招特写释放特效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物理大招特写释放特效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物理大招combo提示</t>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>5,6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>法术，物理大招特写特效配置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务 对应程序任务</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对局-弱点碰撞组功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-783</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月21日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
@@ -3081,7 +3081,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>buff并存、替代规则</t>
@@ -3094,7 +3094,7 @@
     <rPh sb="9" eb="10">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>区分对局一开始释放一次被动，换上阵不释放</t>
@@ -3125,7 +3125,7 @@
     <rPh sb="17" eb="18">
       <t>bu'shi'fang</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>换上也生效类处理或换下或者死亡移除（光环类）</t>
@@ -3165,7 +3165,7 @@
     <rPh sb="20" eb="21">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>驱散功能</t>
@@ -3175,7 +3175,7 @@
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>行动累积</t>
@@ -3185,14 +3185,14 @@
     <rPh sb="2" eb="3">
       <t>lei'ji</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽</t>
     <rPh sb="0" eb="1">
       <t>chao'feng</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>减伤护盾</t>
@@ -3202,7 +3202,7 @@
     <rPh sb="2" eb="3">
       <t>hu'dun</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>击晕，打断，表现</t>
@@ -3215,7 +3215,7 @@
     <rPh sb="6" eb="7">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>触发条件配置表</t>
@@ -3228,7 +3228,7 @@
     <rPh sb="4" eb="5">
       <t>pei'zhi'biao</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>血量置数</t>
@@ -3244,27 +3244,27 @@
     <rPh sb="8" eb="9">
       <t>biao'xianxue'liangzhishu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-806</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>技能配置表，buff配置表修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>增加buff伤害反应，技能释放反应，死亡反应，致死反应</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">先置技能ui显示 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>被动技能的反应会导致当前行动的时间被延长</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>被动技能开场释放</t>
@@ -3274,18 +3274,18 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>新增buff可提升的属性</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-846</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-847</t>
@@ -3352,38 +3352,38 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>配置表读取</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UI音效组件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>背景音乐，音效播放</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>伤害公式，3D受击表现</t>
@@ -3399,23 +3399,23 @@
     <rPh sb="9" eb="10">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>吸收护盾UI表现</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-862</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效管理器</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-915</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-913</t>
@@ -3434,30 +3434,30 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>13、14、15、16、17</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-703</t>
   </si>
   <si>
     <t>MG-703</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>MG-730</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -3467,93 +3467,93 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-704</t>
   </si>
   <si>
     <t>MG-704</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-455</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-457</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-456</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-476</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-517</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-396</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-397</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-408</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-304 MG-453 MG-514</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MG-303 </t>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-effect增加命中关联</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-反伤</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-触发一个行动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-917</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-918</t>
@@ -3563,11 +3563,11 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等待验收&amp;测试</t>
@@ -3580,21 +3580,21 @@
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-967</t>
   </si>
   <si>
     <t>MG-967</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>大招美术需求</t>
@@ -3607,11 +3607,11 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-410</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
@@ -3627,37 +3627,37 @@
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">看信+收取+全部收取 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月10日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-972</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MG-971</t>
@@ -3688,32 +3688,519 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
     <rPh sb="0" eb="1">
       <t>yagn'xue</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月21日</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1050</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗AI调整</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击动作（触发条件，触发事件）</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tiao'jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chu'fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-987</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'fei</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月15日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能tips，被动技能tips</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei'dong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1016</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月20日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月26日</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招、换怪冲突</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1055</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年08月26日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotIcon封装</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">装备弹出UI封装 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>非装备道具Tips（ 包含位置自动调整）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1058</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1056</t>
+  </si>
+  <si>
+    <t>MG-1057</t>
+  </si>
+  <si>
+    <t>宠物装备信息、装备列表</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备属性界面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备列表ui</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步客户端装备信息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1098</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1097</t>
+  </si>
+  <si>
+    <t>MG-1099</t>
+  </si>
+  <si>
+    <t>宠物详情界面、装备列表、装备详情界面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1100</t>
+  </si>
+  <si>
+    <t>宠物装备强化、宝石</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiang'hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bao'shi</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化进阶界面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔和镶嵌界面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1145</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1146</t>
+  </si>
+  <si>
+    <t>MG-1147</t>
+  </si>
+  <si>
+    <t>MG-1144</t>
+  </si>
+  <si>
+    <t>宝石属性及合成表，接口部分</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石选择列表界面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备强化进阶、宝石镶嵌、宝石列表界面</t>
+  </si>
+  <si>
+    <t>MG-1160</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ui </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框超出像左移动,最多输入限制</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家发言间隔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换聊天频道</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天频道划分</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hd'uuan</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月16日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器-IM-公共频道，公会频道</t>
+  </si>
+  <si>
+    <t>MG-1022</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>点玩家名弹出界面</t>
+    <rPh sb="0" eb="1">
+      <t>dian'wan'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tan'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1176</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1177</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1178</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽功能</t>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月16日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">商店物品购买和刷新  </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">商城                  </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">月卡和钻石兑换金币      </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM翻译功能（新版API变复杂了）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端http库的升级与扩展，IM翻译功能 -网络功能</t>
+    <rPh sb="25" eb="26">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Im功能补充 -增加公告、走马灯等系统消息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家发消息,显示服务器消息解析</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店配置和数据格式设计</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1180</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1181</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1182</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天信息显示排版</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多可查看50行消息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指滑动聊天框一系列功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>走马灯,系统公告,提示信息</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1183</t>
+  </si>
+  <si>
+    <t>MG-1184</t>
+  </si>
+  <si>
+    <t>MG-1185</t>
+  </si>
+  <si>
+    <t>MG-1186</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1187</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1122</t>
+  </si>
+  <si>
+    <t>MG-1188</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1189</t>
+  </si>
+  <si>
+    <t>MG-1113</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1190</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1191</t>
+  </si>
+  <si>
+    <t>MG-1192</t>
+  </si>
+  <si>
+    <t>MG-1193</t>
+  </si>
+  <si>
+    <t>商店任务拆分</t>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>服务器</t>
+    <rPh sb="0" eb="1">
+      <t>f'w'q</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <rPh sb="0" eb="1">
+      <t>k'h'd</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1217</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1218</t>
+  </si>
+  <si>
+    <t>MG-1219</t>
+  </si>
+  <si>
+    <t>MG-1220</t>
+  </si>
+  <si>
+    <t>MG-1221</t>
+  </si>
+  <si>
+    <t>商店商城与服务器联调</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城UI与数据</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店弹出框开发</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店UI与逻辑开发</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">商店数据封装 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM界面、玩家菜单、走马灯、系统提示、系统公告UI制作美术需求</t>
+  </si>
+  <si>
+    <t>MG-1239</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店（普通、公会）+商城UI制作美术需求</t>
+  </si>
+  <si>
+    <t>MG-1238</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3723,7 +4210,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3731,6 +4218,62 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4122,473 +4665,496 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="46" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="18">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -4597,6 +5163,8 @@
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="64">
     <dxf>
@@ -5418,13 +5986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -7203,36 +7771,118 @@
       <c r="A103" s="125"/>
       <c r="B103" s="126"/>
       <c r="C103" s="162"/>
-      <c r="D103" s="127"/>
-      <c r="E103" s="127"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E104" s="121"/>
-      <c r="K104" s="116">
-        <f>SUM(K3:K103)</f>
-        <v>-29.800000000000004</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="104"/>
-      <c r="E105" s="121"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="102"/>
+    </row>
+    <row r="104" spans="1:11" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="125"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="158"/>
+      <c r="D104" s="184"/>
+      <c r="E104" s="104"/>
+      <c r="F104" s="104"/>
+      <c r="G104" s="184"/>
+      <c r="H104" s="184"/>
+    </row>
+    <row r="105" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="106"/>
+      <c r="C105" s="159"/>
+      <c r="D105" s="185" t="s">
+        <v>770</v>
+      </c>
+      <c r="E105" s="124"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="104"/>
+      <c r="B106" s="104">
+        <v>1</v>
+      </c>
+      <c r="D106" s="184" t="s">
+        <v>772</v>
+      </c>
+      <c r="E106" s="104">
+        <v>3</v>
+      </c>
+      <c r="F106" s="104">
+        <v>1</v>
+      </c>
+      <c r="G106" s="184" t="s">
+        <v>60</v>
+      </c>
+      <c r="H106" s="184" t="s">
+        <v>771</v>
+      </c>
+      <c r="K106" s="104">
+        <v>-3</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B107" s="104"/>
-      <c r="E107" s="121"/>
-    </row>
-    <row r="133" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="D107" s="184"/>
+      <c r="G107" s="184"/>
+      <c r="H107" s="184"/>
+    </row>
+    <row r="108" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="106"/>
+      <c r="C108" s="159"/>
+      <c r="D108" s="187" t="s">
+        <v>780</v>
+      </c>
+      <c r="G108" s="185"/>
+      <c r="H108" s="185"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="104">
+        <v>1</v>
+      </c>
+      <c r="D109" s="186" t="s">
+        <v>781</v>
+      </c>
+      <c r="E109" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F109" s="104">
+        <v>1</v>
+      </c>
+      <c r="G109" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" s="186" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="104"/>
+      <c r="D110" s="184"/>
+      <c r="G110" s="184"/>
+      <c r="H110" s="184"/>
+    </row>
+    <row r="111" spans="1:11" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="125"/>
+      <c r="B111" s="126"/>
+      <c r="C111" s="162"/>
+      <c r="D111" s="127"/>
+      <c r="E111" s="127"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E112" s="121"/>
+      <c r="K112" s="116">
+        <f>SUM(K3:K111)</f>
+        <v>-32.800000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="104"/>
+      <c r="E113" s="121"/>
+    </row>
+    <row r="139" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="E1:H1 G133:J133 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
+  <phoneticPr fontId="22" type="noConversion"/>
+  <conditionalFormatting sqref="E1:H1 G139:J139 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
     <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -8089,7 +8739,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="B2:H8">
     <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"未完成"</formula>
@@ -8116,13 +8766,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -8509,13 +9159,163 @@
       <c r="I18" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
+        <v>790</v>
+      </c>
       <c r="K20" s="116">
         <f>SUM(K2:K19)</f>
         <v>-9</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="188" t="s">
+        <v>791</v>
+      </c>
+      <c r="E21" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="188" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="188" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="188" t="s">
+        <v>792</v>
+      </c>
+      <c r="E22" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="188" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="188" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="188" t="s">
+        <v>755</v>
+      </c>
+      <c r="D23" s="188" t="s">
+        <v>793</v>
+      </c>
+      <c r="E23" s="104">
+        <v>1</v>
+      </c>
+      <c r="G23" s="188" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="188" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="188" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="189" t="s">
+        <v>797</v>
+      </c>
+      <c r="E24" s="189">
+        <v>4</v>
+      </c>
+      <c r="F24" s="189"/>
+      <c r="G24" s="188" t="s">
+        <v>798</v>
+      </c>
+      <c r="H24" s="104" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="102" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="190" t="s">
+        <v>801</v>
+      </c>
+      <c r="E27" s="104">
+        <v>1</v>
+      </c>
+      <c r="G27" s="188" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="191" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="190" t="s">
+        <v>802</v>
+      </c>
+      <c r="E28" s="104">
+        <v>2</v>
+      </c>
+      <c r="G28" s="188" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="191" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="191" t="s">
+        <v>807</v>
+      </c>
+      <c r="E29" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="G29" s="188" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="191" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="191" t="s">
+        <v>808</v>
+      </c>
+      <c r="E30" s="104">
+        <v>1</v>
+      </c>
+      <c r="G30" s="188" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="191" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="190" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="104" t="s">
+        <v>809</v>
+      </c>
+      <c r="E31" s="104">
+        <v>3</v>
+      </c>
+      <c r="G31" s="190" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="191" t="s">
+        <v>810</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="B2:I3 B4:G4 I4:I5 B13:I18 D12:H12 D6:I11 D5:G5 B5:C12">
     <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"未完成"</formula>
@@ -9045,7 +9845,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 J2:J5 B2:I28">
     <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"未完成"</formula>
@@ -9062,13 +9862,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -9397,38 +10197,230 @@
         <v>14</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="170"/>
+    </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="116">
-        <f>SUM(K2:K20)</f>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D23" s="170"/>
+    </row>
+    <row r="25" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="159"/>
+      <c r="D25" s="106" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="186" t="s">
+        <v>784</v>
+      </c>
+      <c r="E26" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="186" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="186" t="s">
+        <v>785</v>
+      </c>
+      <c r="E27" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="186" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="186" t="s">
+        <v>786</v>
+      </c>
+      <c r="E28" s="104">
+        <v>1</v>
+      </c>
+      <c r="H28" s="186" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="116">
+        <f>SUM(K2:K29)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D22" s="170"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D25" s="170"/>
+    <row r="32" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="159"/>
+      <c r="D32" s="106" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="195" t="s">
+        <v>858</v>
+      </c>
+      <c r="D33" s="193" t="s">
+        <v>835</v>
+      </c>
+      <c r="E33" s="104">
+        <v>1</v>
+      </c>
+      <c r="G33" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="195" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="193" t="s">
+        <v>827</v>
+      </c>
+      <c r="E34" s="104">
+        <v>2</v>
+      </c>
+      <c r="G34" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="195" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="193" t="s">
+        <v>828</v>
+      </c>
+      <c r="E35" s="104">
+        <v>3</v>
+      </c>
+      <c r="G35" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="195" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="193" t="s">
+        <v>829</v>
+      </c>
+      <c r="E36" s="104">
+        <v>1</v>
+      </c>
+      <c r="G36" s="193" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="195" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="104">
+        <f>SUM(E33:E36)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="195" t="s">
+        <v>859</v>
+      </c>
+      <c r="D38" s="104" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="195" t="s">
+        <v>869</v>
+      </c>
+      <c r="E39" s="104">
+        <v>1</v>
+      </c>
+      <c r="H39" s="195" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="195" t="s">
+        <v>868</v>
+      </c>
+      <c r="E40" s="104">
+        <v>2</v>
+      </c>
+      <c r="H40" s="195" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="195" t="s">
+        <v>867</v>
+      </c>
+      <c r="E41" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="195" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="104" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="195" t="s">
+        <v>866</v>
+      </c>
+      <c r="E43" s="104">
+        <v>1</v>
+      </c>
+      <c r="H43" s="195" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="195" t="s">
+        <v>865</v>
+      </c>
+      <c r="E44" s="104">
+        <v>1</v>
+      </c>
+      <c r="H44" s="195" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="196" t="s">
+        <v>745</v>
+      </c>
+      <c r="D46" s="104" t="s">
+        <v>873</v>
+      </c>
+      <c r="E46" s="104">
+        <v>4</v>
+      </c>
+      <c r="H46" s="196" t="s">
+        <v>874</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
+  <conditionalFormatting sqref="B20:B23">
     <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -9439,13 +10431,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -10457,7 +11449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="136"/>
       <c r="C65" s="158"/>
       <c r="D65" s="1" t="s">
@@ -10473,7 +11465,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="136"/>
       <c r="C66" s="158"/>
       <c r="D66" s="1" t="s">
@@ -10489,7 +11481,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="136"/>
       <c r="C67" s="158"/>
       <c r="D67" s="1" t="s">
@@ -10505,44 +11497,107 @@
         <v>739</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="136"/>
       <c r="C68" s="158"/>
       <c r="D68" s="138"/>
     </row>
-    <row r="69" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="136"/>
       <c r="C69" s="158"/>
       <c r="D69" s="138"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E70" s="104">
         <f>SUM(E45:E64)</f>
         <v>24.5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="140"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="140"/>
-    </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="K81" s="116">
-        <f>SUM(K2:K80)</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="82" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
+    <row r="72" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="106"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="159"/>
+      <c r="D72" s="185" t="s">
+        <v>776</v>
+      </c>
+      <c r="E72" s="106"/>
+    </row>
+    <row r="73" spans="1:11" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="125"/>
+      <c r="B73" s="104">
+        <v>1</v>
+      </c>
+      <c r="C73" s="158"/>
+      <c r="D73" s="184" t="s">
+        <v>773</v>
+      </c>
+      <c r="E73" s="104">
+        <v>1</v>
+      </c>
+      <c r="F73" s="104">
+        <v>1</v>
+      </c>
+      <c r="G73" s="184" t="s">
+        <v>775</v>
+      </c>
+      <c r="H73" s="184" t="s">
+        <v>774</v>
+      </c>
+      <c r="K73" s="128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D74" s="140"/>
+    </row>
+    <row r="75" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="106"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="159"/>
+      <c r="D75" s="185" t="s">
+        <v>779</v>
+      </c>
+      <c r="E75" s="106"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="104">
+        <v>1</v>
+      </c>
+      <c r="D76" s="184" t="s">
+        <v>777</v>
+      </c>
+      <c r="E76" s="104">
+        <v>1</v>
+      </c>
+      <c r="F76" s="104">
+        <v>1</v>
+      </c>
+      <c r="G76" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="184" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="140"/>
+    </row>
+    <row r="83" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="K83" s="116">
+        <f>SUM(K2:K82)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="84" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="E1:H2">
     <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -10559,17 +11614,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="146"/>
     <col min="2" max="2" width="15.1640625" style="176" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="146" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" style="146" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="146"/>
   </cols>
   <sheetData>
@@ -10796,7 +11852,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="146" t="s">
         <v>745</v>
       </c>
@@ -10810,7 +11866,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="146" t="s">
         <v>766</v>
       </c>
@@ -10824,8 +11880,276 @@
         <v>768</v>
       </c>
     </row>
+    <row r="23" spans="1:7" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="179" t="s">
+        <v>830</v>
+      </c>
+      <c r="B23" s="192"/>
+      <c r="C23" s="179" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="146" t="s">
+        <v>816</v>
+      </c>
+      <c r="C24" s="146" t="s">
+        <v>811</v>
+      </c>
+      <c r="D24" s="146">
+        <v>1</v>
+      </c>
+      <c r="F24" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G24" s="194" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="146" t="s">
+        <v>812</v>
+      </c>
+      <c r="D25" s="146">
+        <v>1</v>
+      </c>
+      <c r="F25" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G25" s="194" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="146" t="s">
+        <v>813</v>
+      </c>
+      <c r="D26" s="146">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G26" s="194" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="146" t="s">
+        <v>814</v>
+      </c>
+      <c r="D27" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G27" s="194" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="146" t="s">
+        <v>839</v>
+      </c>
+      <c r="D28" s="146">
+        <v>1</v>
+      </c>
+      <c r="F28" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G28" s="194" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="146" t="s">
+        <v>840</v>
+      </c>
+      <c r="D29" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G29" s="194" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="146" t="s">
+        <v>841</v>
+      </c>
+      <c r="D30" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G30" s="194" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="146" t="s">
+        <v>815</v>
+      </c>
+      <c r="D31" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G31" s="194" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="146" t="s">
+        <v>842</v>
+      </c>
+      <c r="D32" s="146">
+        <v>2</v>
+      </c>
+      <c r="F32" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G32" s="194" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="146" t="s">
+        <v>834</v>
+      </c>
+      <c r="D33" s="146">
+        <v>2.5</v>
+      </c>
+      <c r="F33" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G33" s="146" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="146" t="s">
+        <v>821</v>
+      </c>
+      <c r="D34" s="146">
+        <v>1</v>
+      </c>
+      <c r="F34" s="146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G34" s="146" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="146">
+        <f>SUM(D24:D34)</f>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="146" t="s">
+        <v>817</v>
+      </c>
+      <c r="C37" s="146" t="s">
+        <v>819</v>
+      </c>
+      <c r="D37" s="146">
+        <v>4</v>
+      </c>
+      <c r="F37" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="146" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="146" t="s">
+        <v>832</v>
+      </c>
+      <c r="D38" s="146">
+        <v>3</v>
+      </c>
+      <c r="F38" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="146" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="146" t="s">
+        <v>833</v>
+      </c>
+      <c r="D39" s="146">
+        <v>1</v>
+      </c>
+      <c r="F39" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="146" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="146" t="s">
+        <v>825</v>
+      </c>
+      <c r="D40" s="146">
+        <v>1</v>
+      </c>
+      <c r="F40" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="146" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="146" t="s">
+        <v>831</v>
+      </c>
+      <c r="D41" s="146">
+        <v>3</v>
+      </c>
+      <c r="F41" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="146" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="146">
+        <f>SUM(D37:D41)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="146" t="s">
+        <v>745</v>
+      </c>
+      <c r="C44" s="146" t="s">
+        <v>870</v>
+      </c>
+      <c r="D44" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="146" t="s">
+        <v>872</v>
+      </c>
+      <c r="G44" s="146" t="s">
+        <v>871</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22080,7 +23404,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AH189"/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="AB4:AH18 B102:C104 D103:G104 B101:AH101 B133:G133 C134:G137 H88:H93 D102:AH102 I87:N93 P90:AB94 B94:N94 B124:I132 P4:Y18 B105:G114 B134:B139 C138:I139 H103:AH114 B183:C183 E183:AH183 E185:AH185 B185:C185 J184:AH184 J186:AH186 B187:C187 B145:C145 E187:AH187 H145:AH145 J158:AH158 J161:AH161 J164:AH164 J167:AH167 J170:AH170 J177:AH182 B157:AH157 B159:C160 E159:AH160 B162:C163 E162:AH163 B165:C166 E165:AH166 B168:C169 E168:AH169 J172:AH172 B171:C171 E171:AH171 B173:C173 J174:AH174 E173:AH173 B175:C176 E175:AH176 H133:I137 B122:AH123 J155:AH156 J25:AH25 B19:AH22 O71 AB71:AH84 B70:AH70 E154:AH154 B154:C154 B87:G93 AC86:AH94 AB86:AB89 P86:Y89 B86:N86 B98:N100 P98:AH100 AB51:AH64 J150:AH153 J115:AH121 J96:AH96 B36 I26:AH26 C26:G26 E65:E69 B4:N18 B65:B69 P71:Y84 B39:AH50 B35:AH35 B71:N84 B51:Y64 C27:AH34 C23:AH24 B23:B34 J124:AH144 N146 A3:AH3">
     <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"TBD"</formula>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41460" yWindow="680" windowWidth="27020" windowHeight="19580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3220" yWindow="460" windowWidth="27020" windowHeight="19580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="其他" sheetId="8" r:id="rId7"/>
     <sheet name="工作表6" sheetId="7" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">工作表6!$A$3:$AH$189</definedName>
   </definedNames>
@@ -113,13 +110,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1008">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -129,7 +126,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -139,44 +136,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -186,7 +183,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -199,14 +196,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -216,54 +213,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -273,47 +270,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -323,87 +320,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -419,58 +416,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -480,59 +477,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -542,157 +539,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -711,7 +708,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -733,7 +730,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -749,7 +746,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -765,7 +762,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -799,67 +796,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -896,7 +893,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -906,7 +903,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -928,21 +925,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -952,7 +949,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -971,11 +968,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -1000,385 +997,385 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>文档反馈</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>文档分析</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>数值反馈</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端开发</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>客户端缩减后</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端分工</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器开发</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器缩减后</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器分工</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>开发备注</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>策划配置缩减后</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>配置bug修复</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>用例</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>测试分工</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>QA备注</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物基础架构</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-AI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-UI</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-换宠</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
   </si>
   <si>
     <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-道具使用</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>目前看来被抓宠封妖完全包括了</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>只包含抓宠的道具使用</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>抓宠、封妖</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对局，技能动画表现</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>技能-大招操作*6</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>副本基础逻辑</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>非同步pve</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本-照妖镜</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本结算功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落表现</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -1388,565 +1385,565 @@
   </si>
   <si>
     <t>副本星级评价</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>副本托管</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ts，雷神</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>任务系统功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>村落</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>村落功能（UI表现）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>不确定服务器什么功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物阵型</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面（包括上阵宠物选择）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物升星</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>0..25</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成（炼妖）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物繁殖（交互）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物是否有额外服务器功能？</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>称号系统--vip，竞技场</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>道具-宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>玩家装备套装系统</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>是否和装备功能重合？</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>不包含套装配置测试</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>不包含装备内容配置测试</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备进阶</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备宝石</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备洗炼</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>不包括支付、渠道等</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>NPC商店</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>VIP</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>月卡</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>拍卖行</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>邮箱-主要用于系统发信</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>好友</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础管理，任务（放在任务界面），商店</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>创建角色</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>账号，登录，注册，切换账号</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>我们内部测试帐号，不包括各个渠道</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>断线处理</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器选择，服务器分流，公告</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>指引界面-活动</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>版本检测，更新功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>loading界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>消息推送功能（百度推送？）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>通知--家园、大冒险、邮箱</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>敏感词、屏蔽词</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>抽卡</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>活动功能框架</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>答题</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>BossRush</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>稀有探索玩法</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>狩猎场</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>擂台</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>公会战</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>公会副本</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>缺少副本内容条目，时间估算在这里</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>家园</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>世界boss</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>同步玩法重新写</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>地藏宫殿</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>基于同步玩法</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>激活码-邀请福利等运营相关活动</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>支付功能（各SDK接入）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz，文生</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>不是太清楚，接入量未知</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>测试时间不可预估</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
     <t>运营工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>是否是gm工具？</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术资源需求模板</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>程序开发规范和约定</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>发布流程</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>关卡编辑器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>也许可以不用测试</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>导表工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>几种表格未知</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>版本自动打包、发布工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>测试工具</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>兼容性测试，性能测试</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1962,7 +1959,7 @@
       </rPr>
       <t>（角色、宠物）</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1987,11 +1984,11 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>雷神，ts</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2016,71 +2013,71 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>AI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>10套（勤奋5+倾向5）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>物攻*6</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>法攻*15</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>buff or debuff*14</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>大招*23 （操作表现几套？）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>其他*2</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>队长+友情*36</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>boss技能*16</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>被动技能*30（怪物倾向性设计）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>CP技能（待设计第一期不强需求）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2105,7 +2102,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2130,7 +2127,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2155,233 +2152,233 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>公会任务*20个</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>特殊进化任务32个</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>Avatar</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物表现、技能、数值</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>村落配置</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装备内容包括属性（进化等）100-200件</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色装备10套以下</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>高阶人型*15（3D、动作、特效）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>普通兽型*30（3D、动作、特效）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>纯材料*3（3D、动作、特效）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>boss*8（3D、动作、特效）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>boss进化*3（3D、动作、特效）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>高阶兽型*7（3D、动作、特效）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>进化配方设计*8（3D、动作、特效）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>NPC</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>妲己</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>男身体</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>男头（免费）*3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>男头（付费）*3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>女身体</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>女头（免费）*3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>女头（付费）*3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个（8个建筑物）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物-100-200件</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>角色10套以下</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>策划时间</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减前</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减后</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术原画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术外包</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
@@ -2397,7 +2394,7 @@
   </si>
   <si>
     <t>总人天</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
@@ -2422,23 +2419,23 @@
   </si>
   <si>
     <t>纯材料</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色*2性别</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色套装4套*2性别</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色-头6*2性别</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色-NPC-妲己</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
@@ -2451,98 +2448,98 @@
   </si>
   <si>
     <t>图标-技能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>图标-道具120-160</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>怪物头像</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>活动*1个</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">任务配置、数据结构 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>统计数据&amp;任务目标映射</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务交付</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">每日任务刷新 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">活动、商城相关数据统计&amp;任务更新 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>其他待拆</t>
@@ -2555,31 +2552,31 @@
     <rPh sb="3" eb="4">
       <t>chai</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-676</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-677</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-678</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务初始化</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务更新框架</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>原预期时间</t>
@@ -2595,7 +2592,7 @@
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2605,7 +2602,7 @@
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2621,7 +2618,7 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2634,179 +2631,179 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>6月1日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月6日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>6月30日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局表现</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>相机运动</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>动画范围-新增mesh、光照变化</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>另外，策划需要0.2天测试光照</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>转向</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>轴锁定、Attach</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-血条动画</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-掉血弹数字动画</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff图标替代规则修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-ui挂特效-如大招</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-集火UI能挂在弱点上</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff去掉图标</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-ui增加能量条</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-换怪特效</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点受击特效</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点死亡表现</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-进程动画具体设计</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-开战动画</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-胜利失败动画</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局动画- 前置动画删除了</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-取消集火逻辑</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-加速</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-服务器客户端上阵宠物数据同步</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-切换条件判定、对局成功失败条件判定</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-副本对局配置拆大表</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>副本对局配置拆大表</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>5月27日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>1. 对局-集火敌人ui提示</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2. 集火弱点功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>3. Boss进程调整</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>4. 换宠ui</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
@@ -2816,29 +2813,29 @@
     <rPh sb="2" eb="3">
       <t>cha</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'cha</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jain'cha</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>速度计算调整</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>多个怪物同时死亡的死亡表现</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>法术大招升格时机调整 与ZZ联调</t>
@@ -2848,19 +2845,19 @@
   </si>
   <si>
     <t>照妖镜基本操作修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜提示信息方式及内容修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>战后回血</t>
@@ -2873,7 +2870,7 @@
     <rPh sb="3" eb="4">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>暴击动画调整</t>
@@ -2886,7 +2883,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜特效层级修改（待确认需求)</t>
@@ -2899,11 +2896,11 @@
     <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>弱点加入是否可打断（待确认需求)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>物理大招添加combo</t>
@@ -2913,31 +2910,31 @@
     <rPh sb="2" eb="3">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-726</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>升格动画加入到动画配置</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-727</t>
@@ -2956,23 +2953,23 @@
   </si>
   <si>
     <t>MG-733</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>区分物理大招、法术大招聚气、爆气，修改为事件动画</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">区分物理大招、法术大招幕布 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-734</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>大招统计数据UI修改</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-735</t>
@@ -2988,89 +2985,89 @@
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>对局战后回血特效</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>集火UI、开战动画改为英文版“Fight”、托管和手动的UI</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>被动换怪（怪物死亡）的怪物消失特效</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2、3、4、6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>5、7</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>物理大招聚气与爆气</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>物理大招，法术大招幕布</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>法术大招特写释放特效</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>物理大招特写释放特效</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>物理大招combo提示</t>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>5,6</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>法术，物理大招特写特效配置</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务 对应程序任务</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>对局-弱点碰撞组功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-783</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月21日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
@@ -3080,7 +3077,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>buff并存、替代规则</t>
@@ -3093,7 +3090,7 @@
     <rPh sb="9" eb="10">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>区分对局一开始释放一次被动，换上阵不释放</t>
@@ -3124,7 +3121,7 @@
     <rPh sb="17" eb="18">
       <t>bu'shi'fang</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>换上也生效类处理或换下或者死亡移除（光环类）</t>
@@ -3164,7 +3161,7 @@
     <rPh sb="20" eb="21">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>驱散功能</t>
@@ -3174,7 +3171,7 @@
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>行动累积</t>
@@ -3184,14 +3181,14 @@
     <rPh sb="2" eb="3">
       <t>lei'ji</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽</t>
     <rPh sb="0" eb="1">
       <t>chao'feng</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>减伤护盾</t>
@@ -3201,7 +3198,7 @@
     <rPh sb="2" eb="3">
       <t>hu'dun</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>击晕，打断，表现</t>
@@ -3214,7 +3211,7 @@
     <rPh sb="6" eb="7">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>触发条件配置表</t>
@@ -3227,7 +3224,7 @@
     <rPh sb="4" eb="5">
       <t>pei'zhi'biao</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>血量置数</t>
@@ -3243,27 +3240,27 @@
     <rPh sb="8" eb="9">
       <t>biao'xianxue'liangzhishu</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-806</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>技能配置表，buff配置表修改</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>增加buff伤害反应，技能释放反应，死亡反应，致死反应</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">先置技能ui显示 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>被动技能的反应会导致当前行动的时间被延长</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>被动技能开场释放</t>
@@ -3273,18 +3270,18 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>新增buff可提升的属性</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-846</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-847</t>
@@ -3351,38 +3348,38 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>配置表读取</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>UI音效组件</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>背景音乐，音效播放</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>伤害公式，3D受击表现</t>
@@ -3398,23 +3395,23 @@
     <rPh sb="9" eb="10">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>吸收护盾UI表现</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-862</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效管理器</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-915</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-913</t>
@@ -3433,30 +3430,30 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>13、14、15、16、17</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-703</t>
   </si>
   <si>
     <t>MG-703</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-730</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -3466,93 +3463,93 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-704</t>
   </si>
   <si>
     <t>MG-704</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-455</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-457</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-456</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-476</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-517</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-396</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-397</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-408</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-304 MG-453 MG-514</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MG-303 </t>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-effect增加命中关联</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-反伤</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-触发一个行动</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-917</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-918</t>
@@ -3562,11 +3559,11 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>等待验收&amp;测试</t>
@@ -3579,21 +3576,21 @@
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-967</t>
   </si>
   <si>
     <t>MG-967</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>大招美术需求</t>
@@ -3606,11 +3603,11 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-410</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
@@ -3626,37 +3623,37 @@
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">看信+收取+全部收取 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月10日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-972</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-971</t>
@@ -3687,40 +3684,40 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
     <rPh sb="0" eb="1">
       <t>yagn'xue</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月21日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1050</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI调整</t>
@@ -3730,7 +3727,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>受击动作（触发条件，触发事件）</t>
@@ -3752,22 +3749,22 @@
     <rPh sb="12" eb="13">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-987</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月15日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，被动技能tips</t>
@@ -3780,47 +3777,47 @@
     <rPh sb="9" eb="10">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1016</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月20日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1055</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>slotIcon封装</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">装备弹出UI封装 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>非装备道具Tips（ 包含位置自动调整）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1058</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1056</t>
@@ -3845,23 +3842,23 @@
     <rPh sb="9" eb="10">
       <t>lie'b</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>装备属性界面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>装备列表ui</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>同步客户端装备信息</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1098</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1097</t>
@@ -3871,11 +3868,11 @@
   </si>
   <si>
     <t>宠物详情界面、装备列表、装备详情界面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1100</t>
@@ -3894,19 +3891,19 @@
     <rPh sb="7" eb="8">
       <t>bao'shi</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>强化进阶界面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>开孔和镶嵌界面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1145</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1146</t>
@@ -3919,153 +3916,153 @@
   </si>
   <si>
     <t>宝石属性及合成表，接口部分</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>宝石选择列表界面</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化进阶、宝石镶嵌、宝石列表界面</t>
   </si>
   <si>
     <t>MG-1160</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ui </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>输入框超出像左移动,最多输入限制</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>玩家发言间隔</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>切换聊天频道</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>聊天频道划分</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hd'uuan</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'wu'qi</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>服务器-IM-公共频道，公会频道</t>
   </si>
   <si>
     <t>MG-1022</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1176</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1177</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1178</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽功能</t>
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店物品购买和刷新  </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商城                  </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">月卡和钻石兑换金币      </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>IM翻译功能（新版API变复杂了）</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>服务端http库的升级与扩展，IM翻译功能 -网络功能</t>
     <rPh sb="25" eb="26">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>Im功能补充 -增加公告、走马灯等系统消息</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>玩家发消息,显示服务器消息解析</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>商店配置和数据格式设计</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1180</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1181</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1182</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示排版</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>最多可查看50行消息</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>手指滑动聊天框一系列功能</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>走马灯,系统公告,提示信息</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1183</t>
@@ -4078,29 +4075,29 @@
   </si>
   <si>
     <t>MG-1186</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1187</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1122</t>
   </si>
   <si>
     <t>MG-1188</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1189</t>
   </si>
   <si>
     <t>MG-1113</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1190</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1191</t>
@@ -4113,27 +4110,24 @@
   </si>
   <si>
     <t>商店任务拆分</t>
-  </si>
-  <si>
-    <t>商城</t>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'h'd</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1217</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1218</t>
@@ -4149,53 +4143,53 @@
   </si>
   <si>
     <t>商店商城与服务器联调</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>商城UI与数据</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>商店弹出框开发</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>商店UI与逻辑开发</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店数据封装 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>IM界面、玩家菜单、走马灯、系统提示、系统公告UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1239</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>商店（普通、公会）+商城UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1238</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1246</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1247</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>商城-支付服务器</t>
@@ -4208,7 +4202,7 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>点玩家名弹出界面</t>
@@ -4224,46 +4218,46 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1243</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>副本结算，复活</t>
   </si>
   <si>
     <t>2015年09月23日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">结算，复活ui </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>怪物走出来功能</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>复活逻辑</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶材料修改，UI修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表项，装备显示（无，已装备）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表，技能图标</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表-描述超长换行</t>
@@ -4276,7 +4270,7 @@
     <rPh sb="11" eb="12">
       <t>huan'hang</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面UI替换</t>
@@ -4289,15 +4283,15 @@
     <rPh sb="6" eb="7">
       <t>ti'huan</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1194</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1259</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1260</t>
@@ -4310,7 +4304,7 @@
   </si>
   <si>
     <t>MG-1287</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1288</t>
@@ -4320,19 +4314,19 @@
   </si>
   <si>
     <t>掉落修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>结算修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>复活</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1295</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1296</t>
@@ -4357,11 +4351,11 @@
   </si>
   <si>
     <t>2015年09月30日</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑（一些流程修改）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>宠物升级功能</t>
@@ -4374,36 +4368,36 @@
     <rPh sb="4" eb="5">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1331</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1332</t>
   </si>
   <si>
     <t>结算联调</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>zz 小珍</t>
     <rPh sb="3" eb="4">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1294</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>MG-1333</t>
   </si>
   <si>
     <t>MG-1334</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>MG-1335</t>
@@ -4413,7 +4407,399 @@
   </si>
   <si>
     <t>MG-1342</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <rPh sb="0" eb="1">
+      <t>bei'b</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月10日</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包主UI开发</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>开宝箱</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品使用（双倍经验，三倍经验，疲劳药）</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售功能</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器联调</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量开宝箱</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量卖</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍、三倍经验</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <rPh sb="0" eb="1">
+      <t>shuai'sh</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1369</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1367</t>
+  </si>
+  <si>
+    <t>MG-1368</t>
+  </si>
+  <si>
+    <t>MG-1370</t>
+  </si>
+  <si>
+    <t>MG-1371</t>
+  </si>
+  <si>
+    <t>MG-1372</t>
+  </si>
+  <si>
+    <t>MG-1373</t>
+  </si>
+  <si>
+    <t>MG-1374</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <rPh sb="0" eb="1">
+      <t>s'f</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1375</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月23日</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具合成分解</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen'jie</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <rPh sb="0" eb="1">
+      <t>ke'h'duan</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合成界面UI  </t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合成结果UI  </t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解界面UI</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分解的筛选方式   </t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合成分解服务器联调   </t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1480</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1481</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1482</t>
+  </si>
+  <si>
+    <t>MG-1483</t>
+  </si>
+  <si>
+    <t>MG-1484</t>
+  </si>
+  <si>
+    <t>MG-1485</t>
+  </si>
+  <si>
+    <t>服务器-合成</t>
+    <rPh sb="0" eb="1">
+      <t>f'w'q</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器-分解</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器-连调</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1489</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1487</t>
+  </si>
+  <si>
+    <t>MG-1488</t>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月28日</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择大地图（选择章节）</t>
+  </si>
+  <si>
+    <t>满星奖励</t>
+  </si>
+  <si>
+    <t>小珍</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'zheng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhen</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯2D画的方式</t>
+  </si>
+  <si>
+    <t>方案2</t>
+  </si>
+  <si>
+    <t>2转3</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>修图</t>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+  </si>
+  <si>
+    <t>验收</t>
+    <rPh sb="0" eb="1">
+      <t>yan'shou</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <rPh sb="0" eb="1">
+      <t>pang'zi</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面，村落，角色升级</t>
+    <rPh sb="0" eb="1">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cun'luo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sheng'ji</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主界面UI </t>
+  </si>
+  <si>
+    <t>升级信息提示封装</t>
+  </si>
+  <si>
+    <t>客户端</t>
+    <rPh sb="0" eb="1">
+      <t>ke'h'dua</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头调整</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景编辑，选中效果</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置+验收</t>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落场景添加到流程</t>
+    <rPh sb="0" eb="1">
+      <t>cun'luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'jing</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案1</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节选择</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'jie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置修改</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1503</t>
+  </si>
+  <si>
+    <t>MG-1504</t>
+  </si>
+  <si>
+    <t>MG-1505</t>
+  </si>
+  <si>
+    <t>MG-1506</t>
+  </si>
+  <si>
+    <t>副本选择（选择副本）</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1498</t>
+  </si>
+  <si>
+    <t>MG-1499</t>
+  </si>
+  <si>
+    <t>MG-1500</t>
+  </si>
+  <si>
+    <t>MG-1501</t>
+  </si>
+  <si>
+    <t>MG-1502</t>
+  </si>
+  <si>
+    <t>MG-1496</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1495</t>
+  </si>
+  <si>
+    <t>MG-1495</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4423,7 +4809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4431,6 +4817,48 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4915,506 +5343,518 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="58" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="50" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="56" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -5436,27 +5876,7 @@
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <fill>
         <patternFill>
@@ -5805,6 +6225,17 @@
     </dxf>
     <dxf>
       <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -6103,6 +6534,27 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -6111,31 +6563,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="20150916"/>
-      <sheetName val="20150923"/>
-      <sheetName val="20150930"/>
-      <sheetName val="20151014"/>
-      <sheetName val="20151021"/>
-      <sheetName val="模板"/>
-      <sheetName val="附录"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8296,7 +8723,7 @@
       <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 G139:J139 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
     <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
       <formula>"未完成"</formula>
@@ -8338,13 +8765,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -9155,11 +9582,11 @@
     </row>
     <row r="39" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="106" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C39" s="159"/>
       <c r="D39" s="106" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -9167,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="201" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E40" s="104">
         <v>1</v>
@@ -9179,12 +9606,12 @@
         <v>615</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D41" s="201" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E41" s="104">
         <v>1.5</v>
@@ -9196,12 +9623,12 @@
         <v>615</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D42" s="201" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E42" s="104">
         <v>1</v>
@@ -9213,12 +9640,12 @@
         <v>615</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D43" s="201" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E43" s="104">
         <v>2</v>
@@ -9230,12 +9657,12 @@
         <v>615</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E44" s="104">
         <v>1.5</v>
@@ -9247,12 +9674,12 @@
         <v>696</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D45" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E45" s="104">
         <v>1</v>
@@ -9264,24 +9691,24 @@
         <v>696</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E46" s="104">
+        <v>1</v>
+      </c>
+      <c r="F46" s="104">
+        <v>1</v>
+      </c>
+      <c r="G46" s="207" t="s">
         <v>914</v>
       </c>
-      <c r="E46" s="104">
-        <v>1</v>
-      </c>
-      <c r="F46" s="104">
-        <v>1</v>
-      </c>
-      <c r="G46" s="207" t="s">
+      <c r="H46" s="207" t="s">
         <v>915</v>
-      </c>
-      <c r="H46" s="207" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -9289,10 +9716,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="201" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E48" s="104">
         <v>0.5</v>
@@ -9304,12 +9731,12 @@
         <v>9</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E49" s="104">
         <v>0.5</v>
@@ -9321,12 +9748,12 @@
         <v>9</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E50" s="104">
         <v>0.5</v>
@@ -9338,11 +9765,234 @@
         <v>9</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>902</v>
-      </c>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="106" t="s">
+        <v>964</v>
+      </c>
+      <c r="C52" s="159"/>
+      <c r="D52" s="106" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="213" t="s">
+        <v>815</v>
+      </c>
+      <c r="D53" s="104" t="s">
+        <v>966</v>
+      </c>
+      <c r="E53" s="104">
+        <v>3</v>
+      </c>
+      <c r="F53" s="104">
+        <v>1</v>
+      </c>
+      <c r="G53" s="213" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="104" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="216" t="s">
+        <v>999</v>
+      </c>
+      <c r="E54" s="104">
+        <v>2</v>
+      </c>
+      <c r="F54" s="104">
+        <v>1</v>
+      </c>
+      <c r="G54" s="213" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="104" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="213" t="s">
+        <v>855</v>
+      </c>
+      <c r="D56" s="213" t="s">
+        <v>994</v>
+      </c>
+      <c r="E56" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="104">
+        <v>1</v>
+      </c>
+      <c r="G56" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="104" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="104" t="s">
+        <v>967</v>
+      </c>
+      <c r="E57" s="104">
+        <v>1</v>
+      </c>
+      <c r="F57" s="104">
+        <v>1</v>
+      </c>
+      <c r="G57" s="213" t="s">
+        <v>968</v>
+      </c>
+      <c r="H57" s="104" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="213" t="s">
+        <v>990</v>
+      </c>
+      <c r="C59" s="213" t="s">
+        <v>989</v>
+      </c>
+      <c r="D59" s="103" t="s">
+        <v>969</v>
+      </c>
+      <c r="E59" s="104">
+        <f>2*9</f>
+        <v>18</v>
+      </c>
+      <c r="F59" s="104">
+        <v>1</v>
+      </c>
+      <c r="G59" s="213" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="104" t="s">
+        <v>970</v>
+      </c>
+      <c r="D61" s="214" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="E62" s="104">
+        <v>4</v>
+      </c>
+      <c r="F62" s="104">
+        <v>1</v>
+      </c>
+      <c r="G62" s="213" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="104" t="s">
+        <v>972</v>
+      </c>
+      <c r="E63" s="104">
+        <v>5</v>
+      </c>
+      <c r="F63" s="104">
+        <v>1</v>
+      </c>
+      <c r="G63" s="213" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="104" t="s">
+        <v>973</v>
+      </c>
+      <c r="E64" s="104">
+        <v>3</v>
+      </c>
+      <c r="F64" s="104">
+        <v>1</v>
+      </c>
+      <c r="G64" s="213" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="213"/>
+      <c r="J65" s="213"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="213" t="s">
+        <v>991</v>
+      </c>
+      <c r="C66" s="215"/>
+      <c r="D66" s="213" t="s">
+        <v>992</v>
+      </c>
+      <c r="E66" s="104">
+        <v>2</v>
+      </c>
+      <c r="F66" s="104">
+        <v>1</v>
+      </c>
+      <c r="G66" s="213" t="s">
+        <v>993</v>
+      </c>
+      <c r="H66" s="216" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J66" s="213"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="213"/>
+      <c r="C67" s="215"/>
+      <c r="D67" s="213"/>
+      <c r="G67" s="213"/>
+      <c r="J67" s="213"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="213" t="s">
+        <v>765</v>
+      </c>
+      <c r="D68" s="213" t="s">
+        <v>976</v>
+      </c>
+      <c r="E68" s="104">
+        <v>1</v>
+      </c>
+      <c r="F68" s="104">
+        <v>1</v>
+      </c>
+      <c r="G68" s="213" t="s">
+        <v>977</v>
+      </c>
+      <c r="J68" s="213"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J69" s="213"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="213"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="213"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J72" s="213"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="213"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="B2:H8">
     <cfRule type="cellIs" dxfId="68" priority="10" operator="equal">
       <formula>"未完成"</formula>
@@ -9394,6 +10044,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9954,7 +10605,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E33" s="203">
         <v>1</v>
@@ -9963,12 +10614,12 @@
         <v>127</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E34" s="203">
         <v>0.3</v>
@@ -9977,12 +10628,12 @@
         <v>127</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E35" s="203">
         <v>0.2</v>
@@ -9991,12 +10642,12 @@
         <v>127</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E36" s="203">
         <v>1</v>
@@ -10005,12 +10656,12 @@
         <v>127</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37" s="202" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E37" s="104">
         <v>4</v>
@@ -10019,77 +10670,77 @@
         <v>127</v>
       </c>
       <c r="H37" s="204" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="159"/>
       <c r="D39" s="106" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="102" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" s="206" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E41" s="104">
         <v>0.5</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="206" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E42" s="104">
         <v>1</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="206" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E43" s="104">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D44" s="206" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E44" s="104">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D46" s="206" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E46" s="104">
         <v>0.5</v>
       </c>
       <c r="H46" s="208" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="B2:I3 B4:G4 I4:I5 B13:I18 D12:H12 D6:I11 D5:G5 B5:C12">
     <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>"未完成"</formula>
@@ -10121,7 +10772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H44">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10562,7 +11213,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="157"/>
       <c r="D23" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -10570,7 +11221,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="196" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -10641,14 +11292,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 J2:J5 B2:I28">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J8">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10658,13 +11309,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -11057,14 +11708,17 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="106" t="s">
+        <v>921</v>
+      </c>
       <c r="C32" s="159"/>
       <c r="D32" s="106" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="194" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D33" s="192" t="s">
         <v>833</v>
@@ -11072,6 +11726,9 @@
       <c r="E33" s="104">
         <v>1</v>
       </c>
+      <c r="F33" s="104">
+        <v>1</v>
+      </c>
       <c r="G33" s="192" t="s">
         <v>43</v>
       </c>
@@ -11079,13 +11736,16 @@
         <v>850</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" s="192" t="s">
         <v>825</v>
       </c>
       <c r="E34" s="104">
         <v>2</v>
       </c>
+      <c r="F34" s="104">
+        <v>1</v>
+      </c>
       <c r="G34" s="192" t="s">
         <v>43</v>
       </c>
@@ -11093,13 +11753,16 @@
         <v>851</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="192" t="s">
         <v>826</v>
       </c>
       <c r="E35" s="104">
         <v>3</v>
       </c>
+      <c r="F35" s="104">
+        <v>1</v>
+      </c>
       <c r="G35" s="192" t="s">
         <v>43</v>
       </c>
@@ -11107,13 +11770,16 @@
         <v>852</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="192" t="s">
         <v>827</v>
       </c>
       <c r="E36" s="104">
         <v>1</v>
       </c>
+      <c r="F36" s="104">
+        <v>1</v>
+      </c>
       <c r="G36" s="192" t="s">
         <v>43</v>
       </c>
@@ -11121,134 +11787,494 @@
         <v>853</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37" s="199" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E37" s="200">
         <v>5</v>
       </c>
-      <c r="F37" s="199"/>
+      <c r="F37" s="104">
+        <v>1</v>
+      </c>
       <c r="G37" s="192" t="s">
         <v>43</v>
       </c>
       <c r="H37" s="199" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E38" s="104">
         <f>SUM(E33:E37)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="194" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D39" s="104" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D40" s="194" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E40" s="104">
         <v>1</v>
       </c>
+      <c r="F40" s="104">
+        <v>1</v>
+      </c>
+      <c r="G40" s="209" t="s">
+        <v>8</v>
+      </c>
       <c r="H40" s="194" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" s="194" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E41" s="104">
         <v>2</v>
       </c>
+      <c r="F41" s="104">
+        <v>1</v>
+      </c>
+      <c r="G41" s="209" t="s">
+        <v>8</v>
+      </c>
       <c r="H41" s="194" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="194" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E42" s="104">
         <v>0.5</v>
       </c>
+      <c r="F42" s="104">
+        <v>1</v>
+      </c>
+      <c r="G42" s="209" t="s">
+        <v>8</v>
+      </c>
       <c r="H42" s="194" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="194" t="s">
+        <v>863</v>
+      </c>
+      <c r="E43" s="104">
+        <v>1</v>
+      </c>
+      <c r="F43" s="104">
+        <v>1</v>
+      </c>
+      <c r="G43" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="194" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="104" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D44" s="194" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E44" s="104">
         <v>1</v>
+      </c>
+      <c r="F44" s="104">
+        <v>1</v>
+      </c>
+      <c r="G44" s="209" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="194" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="194" t="s">
-        <v>863</v>
-      </c>
-      <c r="E45" s="104">
-        <v>1</v>
-      </c>
-      <c r="H45" s="194" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="195" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="195" t="s">
         <v>744</v>
       </c>
-      <c r="D47" s="104" t="s">
+      <c r="D46" s="104" t="s">
+        <v>870</v>
+      </c>
+      <c r="E46" s="104">
+        <v>4</v>
+      </c>
+      <c r="F46" s="104">
+        <v>1</v>
+      </c>
+      <c r="G46" s="209" t="s">
+        <v>942</v>
+      </c>
+      <c r="H46" s="195" t="s">
         <v>871</v>
       </c>
-      <c r="E47" s="104">
-        <v>4</v>
-      </c>
-      <c r="H47" s="195" t="s">
-        <v>872</v>
+    </row>
+    <row r="48" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="106" t="s">
+        <v>922</v>
+      </c>
+      <c r="C48" s="154"/>
+      <c r="D48" s="106" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="194" t="s">
+        <v>856</v>
+      </c>
+      <c r="D49" s="209" t="s">
+        <v>924</v>
+      </c>
+      <c r="E49" s="104">
+        <v>3</v>
+      </c>
+      <c r="F49" s="104">
+        <v>1</v>
+      </c>
+      <c r="G49" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="209" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="209" t="s">
+        <v>925</v>
+      </c>
+      <c r="E50" s="104">
+        <v>1</v>
+      </c>
+      <c r="F50" s="104">
+        <v>1</v>
+      </c>
+      <c r="G50" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="209" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="209" t="s">
+        <v>926</v>
+      </c>
+      <c r="E51" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="104">
+        <v>1</v>
+      </c>
+      <c r="G51" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="209" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="209" t="s">
+        <v>927</v>
+      </c>
+      <c r="E52" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="104">
+        <v>1</v>
+      </c>
+      <c r="G52" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="209" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="209" t="s">
+        <v>928</v>
+      </c>
+      <c r="E53" s="104">
+        <v>1</v>
+      </c>
+      <c r="F53" s="104">
+        <v>1</v>
+      </c>
+      <c r="G53" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="209" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="194" t="s">
+        <v>855</v>
+      </c>
+      <c r="D55" s="209" t="s">
+        <v>929</v>
+      </c>
+      <c r="E55" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="104">
+        <v>1</v>
+      </c>
+      <c r="G55" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="209" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="209" t="s">
+        <v>930</v>
+      </c>
+      <c r="E56" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="104">
+        <v>1</v>
+      </c>
+      <c r="G56" s="209" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="209" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="209" t="s">
+        <v>931</v>
+      </c>
+      <c r="E57" s="104">
+        <v>1</v>
+      </c>
+      <c r="F57" s="104">
+        <v>1</v>
+      </c>
+      <c r="G57" s="209" t="s">
+        <v>932</v>
+      </c>
+      <c r="H57" s="209" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="195" t="s">
+        <v>744</v>
+      </c>
+      <c r="D59" s="209" t="s">
+        <v>941</v>
+      </c>
+      <c r="E59" s="104">
+        <v>2.5</v>
+      </c>
+      <c r="F59" s="104">
+        <v>1</v>
+      </c>
+      <c r="G59" s="209" t="s">
+        <v>768</v>
+      </c>
+      <c r="H59" s="210" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="106" t="s">
+        <v>945</v>
+      </c>
+      <c r="C61" s="159"/>
+      <c r="D61" s="106" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="211" t="s">
+        <v>946</v>
+      </c>
+      <c r="D62" s="211" t="s">
+        <v>947</v>
+      </c>
+      <c r="E62" s="104">
+        <v>2</v>
+      </c>
+      <c r="F62" s="104">
+        <v>1</v>
+      </c>
+      <c r="G62" s="211" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="211" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="211" t="s">
+        <v>948</v>
+      </c>
+      <c r="E63" s="104">
+        <v>1</v>
+      </c>
+      <c r="F63" s="104">
+        <v>1</v>
+      </c>
+      <c r="G63" s="211" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="211" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="211" t="s">
+        <v>949</v>
+      </c>
+      <c r="E64" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="F64" s="104">
+        <v>1</v>
+      </c>
+      <c r="G64" s="211" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="211" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D65" s="211" t="s">
+        <v>950</v>
+      </c>
+      <c r="E65" s="104">
+        <v>1</v>
+      </c>
+      <c r="F65" s="104">
+        <v>1</v>
+      </c>
+      <c r="G65" s="211" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="211" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D66" s="211" t="s">
+        <v>951</v>
+      </c>
+      <c r="E66" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="F66" s="104">
+        <v>1</v>
+      </c>
+      <c r="G66" s="211" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="211" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="211" t="s">
+        <v>855</v>
+      </c>
+      <c r="D68" s="212" t="s">
+        <v>958</v>
+      </c>
+      <c r="E68" s="104">
+        <v>1</v>
+      </c>
+      <c r="F68" s="104">
+        <v>1</v>
+      </c>
+      <c r="G68" s="212" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="212" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D69" s="212" t="s">
+        <v>959</v>
+      </c>
+      <c r="E69" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F69" s="104">
+        <v>1</v>
+      </c>
+      <c r="G69" s="212" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="212" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D70" s="212" t="s">
+        <v>960</v>
+      </c>
+      <c r="E70" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F70" s="104">
+        <v>1</v>
+      </c>
+      <c r="G70" s="212" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="212" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="195" t="s">
+        <v>744</v>
+      </c>
+      <c r="D72" s="209" t="s">
+        <v>941</v>
+      </c>
+      <c r="F72" s="104">
+        <v>1</v>
+      </c>
+      <c r="G72" s="209" t="s">
+        <v>768</v>
+      </c>
+      <c r="H72" s="211" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]附录!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F37</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12420,14 +13446,14 @@
       <c r="M84" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="E1:H2">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:D67">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12437,11 +13463,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -12689,7 +13715,7 @@
         <v>768</v>
       </c>
       <c r="G18" s="146" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12860,7 +13886,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D34" s="146">
         <v>1</v>
@@ -12962,22 +13988,197 @@
         <v>744</v>
       </c>
       <c r="C44" s="146" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D44" s="146">
         <v>1.5</v>
       </c>
       <c r="F44" s="146" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G44" s="146" t="s">
-        <v>869</v>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="178" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="178" t="s">
+        <v>965</v>
+      </c>
+      <c r="B46" s="179"/>
+      <c r="C46" s="178" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="146" t="s">
+        <v>981</v>
+      </c>
+      <c r="C47" s="146" t="s">
+        <v>982</v>
+      </c>
+      <c r="D47" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="146">
+        <v>1</v>
+      </c>
+      <c r="F47" s="146" t="s">
+        <v>986</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="146" t="s">
+        <v>983</v>
+      </c>
+      <c r="D48" s="146">
+        <v>1</v>
+      </c>
+      <c r="E48" s="146">
+        <v>1</v>
+      </c>
+      <c r="F48" s="146" t="s">
+        <v>615</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="146" t="s">
+        <v>988</v>
+      </c>
+      <c r="D49" s="146">
+        <v>1</v>
+      </c>
+      <c r="E49" s="146">
+        <v>1</v>
+      </c>
+      <c r="F49" s="146" t="s">
+        <v>987</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="146" t="s">
+        <v>979</v>
+      </c>
+      <c r="D50" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="E50" s="146">
+        <v>1</v>
+      </c>
+      <c r="F50" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="146" t="s">
+        <v>980</v>
+      </c>
+      <c r="D51" s="146">
+        <v>1</v>
+      </c>
+      <c r="E51" s="146">
+        <v>1</v>
+      </c>
+      <c r="F51" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="175" t="s">
+        <v>502</v>
+      </c>
+      <c r="D53" s="146">
+        <v>7</v>
+      </c>
+      <c r="E53" s="146">
+        <v>1</v>
+      </c>
+      <c r="F53" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="146" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="175" t="s">
+        <v>972</v>
+      </c>
+      <c r="D54" s="146">
+        <v>10</v>
+      </c>
+      <c r="E54" s="146">
+        <v>1</v>
+      </c>
+      <c r="F54" s="146" t="s">
+        <v>985</v>
+      </c>
+      <c r="G54" s="146" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="175" t="s">
+        <v>512</v>
+      </c>
+      <c r="D55" s="146">
+        <v>2</v>
+      </c>
+      <c r="E55" s="146">
+        <v>1</v>
+      </c>
+      <c r="F55" s="146" t="s">
+        <v>985</v>
+      </c>
+      <c r="G55" s="146" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="146" t="s">
+        <v>975</v>
+      </c>
+      <c r="C57" s="175" t="s">
+        <v>984</v>
+      </c>
+      <c r="D57" s="146">
+        <v>1</v>
+      </c>
+      <c r="E57" s="146">
+        <v>1</v>
+      </c>
+      <c r="F57" s="146" t="s">
+        <v>977</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G51">
+    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24235,218 +25436,218 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AH189"/>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="AB4:AH18 B102:C104 D103:G104 B101:AH101 B133:G133 C134:G137 H88:H93 D102:AH102 I87:N93 P90:AB94 B94:N94 B124:I132 P4:Y18 B105:G114 B134:B139 C138:I139 H103:AH114 B183:C183 E183:AH183 E185:AH185 B185:C185 J184:AH184 J186:AH186 B187:C187 B145:C145 E187:AH187 H145:AH145 J158:AH158 J161:AH161 J164:AH164 J167:AH167 J170:AH170 J177:AH182 B157:AH157 B159:C160 E159:AH160 B162:C163 E162:AH163 B165:C166 E165:AH166 B168:C169 E168:AH169 J172:AH172 B171:C171 E171:AH171 B173:C173 J174:AH174 E173:AH173 B175:C176 E175:AH176 H133:I137 B122:AH123 J155:AH156 J25:AH25 B19:AH22 O71 AB71:AH84 B70:AH70 E154:AH154 B154:C154 B87:G93 AC86:AH94 AB86:AB89 P86:Y89 B86:N86 B98:N100 P98:AH100 AB51:AH64 J150:AH153 J115:AH121 J96:AH96 B36 I26:AH26 C26:G26 E65:E69 B4:N18 B65:B69 P71:Y84 B39:AH50 B35:AH35 B71:N84 B51:Y64 C27:AH34 C23:AH24 B23:B34 J124:AH144 N146 A3:AH3">
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:I34 X54:X64 L52 T53 T157 AG160 AG166 AG163 AG122:AG139 AG71:AG84 X71:X84 E70:G70 I32 I70:N70 P70:AG70 AG51:AG64 X51:X52 AG86:AG94 AG98:AG114 E21:G23 I21:N23 P21:AG23 E35:G35 E26:G32 I35 J32:N35 I26:N31 P26:AG35">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:I34 X54:X64 L52 T53 T157 AG71:AG84 X71:X84 E70:G70 I32 I70:N70 P70:AG70 AG51:AG64 X51:X52 AG86:AG94 AG150:AG187 AG98:AG145 AG96 E21:G23 I21:N23 P21:AF23 AG3:AG25 E35:G35 E26:G32 I35 J32:N35 I26:N31 P26:AG35">
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118 B190:G193 C121 F189:G189 F155:F156 B177:I181 B182:C182 E182:I182 D183 B184:I184 B144:C144 B186:I186 B158:I158 B161:I161 B164:I164 B167:I167 B170:I170 B172:I172 B174:I174 C25:I25 H155:I156 B155:D156 B189:D189 H140:I144 H150:I153 J188:AH189 I188:I193 I148:AH149 B147:C149 B188:H188 D144:G149 C119:D120 E118:H118 B118:B121 B96 B115:I117 I118:I121 D96:I96 H147:AH147 H146:M146 O146:AH146 F119:H121">
-    <cfRule type="cellIs" dxfId="41" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="44" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AA18">
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z71:AA84 Z51:AA64 Z86:AA89">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O18">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:O84 O86:O94 O98:O100">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:D143 B150:D153">
-    <cfRule type="cellIs" dxfId="35" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148:H149">
-    <cfRule type="cellIs" dxfId="34" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:G143 G150:G153">
-    <cfRule type="cellIs" dxfId="33" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G155:G156">
-    <cfRule type="cellIs" dxfId="32" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:C146">
-    <cfRule type="cellIs" dxfId="31" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D182">
-    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D185">
-    <cfRule type="cellIs" dxfId="29" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D187">
-    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="cellIs" dxfId="27" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D159">
-    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D160">
-    <cfRule type="cellIs" dxfId="25" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="23" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D166">
-    <cfRule type="cellIs" dxfId="22" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D165">
-    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="20" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D171">
-    <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D173">
-    <cfRule type="cellIs" dxfId="17" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="16" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:C95 E95:F95 H95:I95 K95:L95 N95:O95 R95:T95 V95:W95 Y95:Z95 AB95:AC95 AE95:AF95 AH95 AH97 AE97:AF97 AB97:AC97 Y97:Z97 V97:W97 R97:T97 N97:O97 K97:L97 H97:I97 E97:F97 B97:C97">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:D69 O65:O69 F65:M69">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P65:AB69">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC65:AH69">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:AH38 C36:AH36">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65:N69">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",N40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:S40">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",R40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40:S40">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="27020" windowHeight="19580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40080" yWindow="820" windowWidth="27020" windowHeight="19580" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1022">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
@@ -4799,6 +4799,58 @@
   </si>
   <si>
     <t>MG-1495</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月02日</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值</t>
+    <rPh sb="0" eb="1">
+      <t>huo'li'zhi</t>
+    </rPh>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值自动恢复 0.5d</t>
+  </si>
+  <si>
+    <t>等级活力值上限和升级奖励 0.7d</t>
+  </si>
+  <si>
+    <t>副本消耗活力值 0.3d</t>
+  </si>
+  <si>
+    <t>物品使用次数上限 1d</t>
+  </si>
+  <si>
+    <t>活力值系统开发与联调</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1550</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1547</t>
+  </si>
+  <si>
+    <t>MG-1548</t>
+  </si>
+  <si>
+    <t>MG-1549</t>
+  </si>
+  <si>
+    <t>MG-1546</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -5876,7 +5928,7 @@
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill>
@@ -6544,17 +6596,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -8767,8 +8808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
@@ -13463,11 +13504,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -14168,6 +14209,101 @@
       </c>
       <c r="F57" s="146" t="s">
         <v>977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="178" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="178" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B59" s="179"/>
+      <c r="C59" s="178" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="146" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C60" s="146" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D60" s="146">
+        <v>2</v>
+      </c>
+      <c r="F60" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="146" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="146" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C62" s="146" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D62" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="146" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="146" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D63" s="146">
+        <v>0.7</v>
+      </c>
+      <c r="F63" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="146" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="146" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D64" s="146">
+        <v>0.3</v>
+      </c>
+      <c r="F64" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="146" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="146" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D65" s="146">
+        <v>0.1</v>
+      </c>
+      <c r="F65" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="146" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="146" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="146" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="740" windowWidth="27020" windowHeight="19580" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="4400" yWindow="460" windowWidth="31440" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="道具" sheetId="5" r:id="rId5"/>
     <sheet name="技能" sheetId="6" r:id="rId6"/>
     <sheet name="其他" sheetId="8" r:id="rId7"/>
-    <sheet name="工作表6" sheetId="7" r:id="rId8"/>
+    <sheet name="玩法" sheetId="9" r:id="rId8"/>
+    <sheet name="工作表6" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">工作表6!$A$3:$AH$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">工作表6!$A$3:$AH$189</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -110,13 +111,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1124">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -126,7 +127,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -136,44 +137,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -183,7 +184,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -196,14 +197,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -213,54 +214,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -270,47 +271,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -320,87 +321,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -416,58 +417,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -477,59 +478,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -539,157 +540,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -708,7 +709,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -730,7 +731,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -746,7 +747,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -762,7 +763,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -796,67 +797,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -893,7 +894,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -903,7 +904,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -925,21 +926,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -949,7 +950,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -968,11 +969,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -997,953 +998,953 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>分类</t>
+    <t>任务名称</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>模块</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务名称</t>
+    <t>策划分工</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档反馈</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档分析</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值反馈</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端开发</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>优先级</t>
+    <t>客户端缩减后</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端分工</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器开发</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器缩减后</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器分工</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发备注</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
+    <t>策划配置缩减后</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置bug修复</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试分工</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA备注</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音效</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
     <t>状态</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑完成度</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
+    <t>宠物基础架构</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角属性，账号基础数据</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-伤害公式计算</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含补充开发内容和添加log</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗流程（进程，战斗）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-AI</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-UI</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-换宠</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+  </si>
+  <si>
+    <t>核心战斗-照妖镜</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-道具使用</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪姬</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前看来被抓宠封妖完全包括了</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>只包含抓宠的道具使用</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器时间算在结算了</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局，技能动画表现</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例和测试放到每个本和怪身上具体测试</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统（服务器计算？对局内操作？）</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照xw说的非常简单的技能逻辑</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-大招操作*6</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档分析和用例只考虑了文档修改部分</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本基础逻辑</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>非同步pve</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-照妖镜</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算功能</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落表现</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>胖子</t>
+  </si>
+  <si>
+    <t>副本星级评价</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本托管</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts，雷神</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统功能</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落功能（UI表现）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定服务器什么功能</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物阵型</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面（包括上阵宠物选择）</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物图鉴</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物升星</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进化</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物技能升级</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>0..25</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成（炼妖）</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物繁殖（交互）</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色界面</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色、宠物是否有额外服务器功能？</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>称号系统--vip，竞技场</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>小星</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统-基础框架，包括装备，包括货币</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具-宝箱，钥匙，体力，双倍</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家装备套装系统</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否和装备功能重合？</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含套装配置测试</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含装备内容配置测试</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备强化</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备进阶</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备宝石</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备洗炼</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包括支付、渠道等</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC商店</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值返利</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖行</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱-主要用于系统发信</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会-基础管理，任务（放在任务界面），商店</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流程</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流程</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号，登录，注册，切换账号</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们内部测试帐号，不包括各个渠道</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流程</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>断线处理</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器选择，服务器分流，公告</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>指引界面-活动</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本检测，更新功能</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading界面</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送功能（百度推送？）</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知--家园、大冒险、邮箱</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感词、屏蔽词</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动功能框架</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>答题</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossRush</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有探索玩法</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎场</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>擂台</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>文生</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会战</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会副本</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少副本内容条目，时间估算在这里</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界boss</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步玩法重新写</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏宫殿</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于同步玩法</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活码-邀请福利等运营相关活动</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付功能（各SDK接入）</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz，文生</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是太清楚，接入量未知</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间不可预估</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能项</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>运营工具</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是gm工具？</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档规范</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源需求模板</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档规范</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发规范和约定</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
     <t>文档</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划分工</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>文档反馈</t>
+    <t>其他</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布流程</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>文档分析</t>
+    <t>开发工具</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡编辑器</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许可以不用测试</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>导表工具</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>几种表格未知</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本自动打包、发布工具</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工具</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性测试，性能测试</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
     <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值反馈</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端开发</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端缩减后</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端分工</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器开发</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器缩减后</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器分工</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发备注</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划配置缩减后</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置bug修复</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试分工</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA备注</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐音效</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>里程碑完成度</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物基础架构</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-  </si>
-  <si>
-    <t>zz</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>小珍</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>文生</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>帅帅</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>文生</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心战斗-AI</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心战斗-UI</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>文生</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心战斗-换宠</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪姬</t>
-  </si>
-  <si>
-    <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心战斗-道具使用</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪姬</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前看来被抓宠封妖完全包括了</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>只包含抓宠的道具使用</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓宠、封妖</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局，技能动画表现</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能-大招操作*6</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本基础逻辑</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>小珍</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>非同步pve</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本-照妖镜</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本结算功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局掉落表现</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本选择</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>胖子</t>
-  </si>
-  <si>
-    <t>副本星级评价</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本托管</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts，雷神</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖子</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落功能（UI表现）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖子</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>帅帅</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>不确定服务器什么功能</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物阵型</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面（包括上阵宠物选择）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物图鉴</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物升星</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进化</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物技能升级</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>0..25</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物合成（炼妖）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物繁殖（交互）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>帅帅</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色界面</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色、宠物是否有额外服务器功能？</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>称号系统--vip，竞技场</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>小星</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具系统-基础框架，包括装备，包括货币</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具-宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家装备套装系统</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否和装备功能重合？</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>不包含套装配置测试</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>不包含装备内容配置测试</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备强化</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备进阶</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备宝石</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备洗炼</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>不包括支付、渠道等</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC商店</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值返利</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>月卡</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍卖行</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>IM</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱-主要用于系统发信</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会-基础管理，任务（放在任务界面），商店</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流程</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建角色</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>文生</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>帅帅</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流程</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号，登录，注册，切换账号</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们内部测试帐号，不包括各个渠道</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>主流程</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>断线处理</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器选择，服务器分流，公告</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw</t>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>指引界面-活动</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手引导</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本检测，更新功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading界面</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送功能（百度推送？）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知--家园、大冒险、邮箱</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏感词、屏蔽词</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>文生</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>帅帅</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动功能框架</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>答题</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossRush</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有探索玩法</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>狩猎场</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>擂台</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>文生</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>小珍</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会战</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会副本</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少副本内容条目，时间估算在这里</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>家园</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界boss</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步玩法重新写</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>地藏宫殿</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于同步玩法</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活码-邀请福利等运营相关活动</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付功能（各SDK接入）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz，文生</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是太清楚，接入量未知</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试时间不可预估</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能项</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>运营工具</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是gm工具？</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档规范</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源需求模板</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档规范</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序开发规范和约定</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布流程</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡编辑器</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>也许可以不用测试</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发工具</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>导表工具</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>几种表格未知</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本自动打包、发布工具</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试工具</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼容性测试，性能测试</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1959,7 +1960,7 @@
       </rPr>
       <t>（角色、宠物）</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1984,11 +1985,11 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>雷神，ts</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2013,71 +2014,71 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>AI</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>10套（勤奋5+倾向5）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻*6</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>10套（勤奋5+倾向5）</t>
+    <t>法攻*15</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>雷神</t>
+    <t>buff or debuff*14</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
+    <t>大招*23 （操作表现几套？）</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他*2</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>队长+友情*36</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
     <t>技能</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能*16</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>物攻*6</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>法攻*15</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff or debuff*14</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招*23 （操作表现几套？）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他*2</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>队长+友情*36</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
+    <t>被动技能*30（怪物倾向性设计）</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>boss技能*16</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能*30（怪物倾向性设计）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>CP技能（待设计第一期不强需求）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2102,7 +2103,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2127,7 +2128,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2152,22 +2153,62 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会任务*20个</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>特殊进化任务32个</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>Avatar</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物表现、技能、数值</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落配置</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱，钥匙，体力，双倍</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备内容包括属性（进化等）100-200件</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色装备10套以下</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
@@ -2175,371 +2216,331 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>宠物表现、技能、数值</t>
+    <t>高阶人型*15（3D、动作、特效）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>村落配置</t>
+    <t>宠物</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>宝箱，钥匙，体力，双倍</t>
+    <t>普通兽型*30（3D、动作、特效）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
     <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯材料*3（3D、动作、特效）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>xw</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss*8（3D、动作、特效）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss进化*3（3D、动作、特效）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶兽型*7（3D、动作、特效）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化配方设计*8（3D、动作、特效）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>妲己</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>男身体</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>男头（免费）*3</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>男头（付费）*3</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>女身体</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>女头（免费）*3</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>女头（付费）*3</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本*6组</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局*10个</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落*1个（8个建筑物）</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>装备内容包括属性（进化等）100-200件</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色装备10套以下</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>高阶人型*15（3D、动作、特效）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通兽型*30（3D、动作、特效）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯材料*3（3D、动作、特效）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>xw</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss*8（3D、动作、特效）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss进化*3（3D、动作、特效）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>高阶兽型*7（3D、动作、特效）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>进化配方设计*8（3D、动作、特效）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>妲己</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>男身体</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>男头（免费）*3</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>男头（付费）*3</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>女身体</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>女头（免费）*3</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>女头（付费）*3</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本*6组</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局*10个</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落*1个（8个建筑物）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物-100-200件</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>角色10套以下</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划时间</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序时间-缩减前</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序时间-缩减后</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术原画</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术外包</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>细分</t>
+  </si>
+  <si>
+    <t>人天</t>
+  </si>
+  <si>
+    <t>量</t>
+  </si>
+  <si>
+    <t>总人天</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>boss 和人形</t>
+  </si>
+  <si>
+    <t>原画</t>
+  </si>
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>小怪</t>
+  </si>
+  <si>
+    <t>纯材料</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色*2性别</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色套装4套*2性别</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色-头6*2性别</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色-NPC-妲己</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>风格</t>
+  </si>
+  <si>
+    <t>单个板子</t>
+  </si>
+  <si>
+    <t>图标-技能</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标-道具120-160</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物头像</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>副本*6组</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局*10个</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动*1个</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落*1个</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>音效</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>策划时间</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序时间-缩减前</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序时间-缩减后</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试时间</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术原画</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术外包</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>细分</t>
-  </si>
-  <si>
-    <t>人天</t>
-  </si>
-  <si>
-    <t>量</t>
-  </si>
-  <si>
-    <t>总人天</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>boss 和人形</t>
-  </si>
-  <si>
-    <t>原画</t>
-  </si>
-  <si>
-    <t>模型</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>小怪</t>
-  </si>
-  <si>
-    <t>纯材料</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色*2性别</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色套装4套*2性别</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色-头6*2性别</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色-NPC-妲己</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>风格</t>
-  </si>
-  <si>
-    <t>单个板子</t>
-  </si>
-  <si>
-    <t>图标-技能</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标-道具120-160</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t>美术</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物头像</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>原画</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>副本*6组</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局*10个</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动*1个</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落*1个</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>音乐</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="39" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">任务配置、数据结构 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>统计数据&amp;任务目标映射</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务交付</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">每日任务刷新 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">活动、商城相关数据统计&amp;任务更新 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>其他待拆</t>
@@ -2552,31 +2553,31 @@
     <rPh sb="3" eb="4">
       <t>chai</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-676</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-677</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-678</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务初始化</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务更新框架</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>原预期时间</t>
@@ -2592,7 +2593,7 @@
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2602,7 +2603,7 @@
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2618,7 +2619,7 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2631,179 +2632,179 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>6月1日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月6日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>6月30日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局表现</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>相机运动</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>动画范围-新增mesh、光照变化</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>另外，策划需要0.2天测试光照</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>转向</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>轴锁定、Attach</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-血条动画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-掉血弹数字动画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff图标替代规则修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-ui挂特效-如大招</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-集火UI能挂在弱点上</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff去掉图标</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-ui增加能量条</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-换怪特效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点受击特效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点死亡表现</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-进程动画具体设计</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-开战动画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-胜利失败动画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局动画- 前置动画删除了</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-取消集火逻辑</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-加速</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-服务器客户端上阵宠物数据同步</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-切换条件判定、对局成功失败条件判定</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-副本对局配置拆大表</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>副本对局配置拆大表</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>5月27日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>1. 对局-集火敌人ui提示</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2. 集火弱点功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>3. Boss进程调整</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>4. 换宠ui</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
@@ -2813,29 +2814,29 @@
     <rPh sb="2" eb="3">
       <t>cha</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'cha</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jain'cha</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>速度计算调整</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>多个怪物同时死亡的死亡表现</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>法术大招升格时机调整 与ZZ联调</t>
@@ -2845,19 +2846,19 @@
   </si>
   <si>
     <t>照妖镜基本操作修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜提示信息方式及内容修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>战后回血</t>
@@ -2870,7 +2871,7 @@
     <rPh sb="3" eb="4">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>暴击动画调整</t>
@@ -2883,7 +2884,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜特效层级修改（待确认需求)</t>
@@ -2896,11 +2897,11 @@
     <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>弱点加入是否可打断（待确认需求)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>物理大招添加combo</t>
@@ -2910,31 +2911,31 @@
     <rPh sb="2" eb="3">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-726</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>升格动画加入到动画配置</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-727</t>
@@ -2953,23 +2954,23 @@
   </si>
   <si>
     <t>MG-733</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>区分物理大招、法术大招聚气、爆气，修改为事件动画</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">区分物理大招、法术大招幕布 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-734</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>大招统计数据UI修改</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-735</t>
@@ -2985,89 +2986,89 @@
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>对局战后回血特效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>集火UI、开战动画改为英文版“Fight”、托管和手动的UI</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>被动换怪（怪物死亡）的怪物消失特效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2、3、4、6</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>5、7</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>物理大招聚气与爆气</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>物理大招，法术大招幕布</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>法术大招特写释放特效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>物理大招特写释放特效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>物理大招combo提示</t>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>5,6</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>法术，物理大招特写特效配置</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务 对应程序任务</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>对局-弱点碰撞组功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-783</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月21日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
@@ -3077,7 +3078,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>buff并存、替代规则</t>
@@ -3090,7 +3091,7 @@
     <rPh sb="9" eb="10">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>区分对局一开始释放一次被动，换上阵不释放</t>
@@ -3121,7 +3122,7 @@
     <rPh sb="17" eb="18">
       <t>bu'shi'fang</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>换上也生效类处理或换下或者死亡移除（光环类）</t>
@@ -3161,7 +3162,7 @@
     <rPh sb="20" eb="21">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>驱散功能</t>
@@ -3171,7 +3172,7 @@
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>行动累积</t>
@@ -3181,14 +3182,14 @@
     <rPh sb="2" eb="3">
       <t>lei'ji</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽</t>
     <rPh sb="0" eb="1">
       <t>chao'feng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>减伤护盾</t>
@@ -3198,7 +3199,7 @@
     <rPh sb="2" eb="3">
       <t>hu'dun</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>击晕，打断，表现</t>
@@ -3211,7 +3212,7 @@
     <rPh sb="6" eb="7">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>触发条件配置表</t>
@@ -3224,7 +3225,7 @@
     <rPh sb="4" eb="5">
       <t>pei'zhi'biao</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>血量置数</t>
@@ -3240,27 +3241,27 @@
     <rPh sb="8" eb="9">
       <t>biao'xianxue'liangzhishu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-806</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>技能配置表，buff配置表修改</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>增加buff伤害反应，技能释放反应，死亡反应，致死反应</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">先置技能ui显示 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>被动技能的反应会导致当前行动的时间被延长</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>被动技能开场释放</t>
@@ -3270,18 +3271,18 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>新增buff可提升的属性</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-846</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-847</t>
@@ -3348,38 +3349,38 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>配置表读取</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>UI音效组件</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>背景音乐，音效播放</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>伤害公式，3D受击表现</t>
@@ -3395,23 +3396,23 @@
     <rPh sb="9" eb="10">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>吸收护盾UI表现</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-862</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效管理器</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-915</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-913</t>
@@ -3430,30 +3431,30 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>13、14、15、16、17</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-703</t>
   </si>
   <si>
     <t>MG-703</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-730</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -3463,93 +3464,93 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-704</t>
   </si>
   <si>
     <t>MG-704</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-455</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-457</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-456</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-476</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-517</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-396</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-397</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-408</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-304 MG-453 MG-514</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MG-303 </t>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-effect增加命中关联</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-反伤</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-触发一个行动</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-917</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-918</t>
@@ -3559,11 +3560,11 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>等待验收&amp;测试</t>
@@ -3576,21 +3577,21 @@
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-967</t>
   </si>
   <si>
     <t>MG-967</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>大招美术需求</t>
@@ -3603,11 +3604,11 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-410</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
@@ -3623,37 +3624,37 @@
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">看信+收取+全部收取 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月10日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-972</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-971</t>
@@ -3684,40 +3685,40 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
     <rPh sb="0" eb="1">
       <t>yagn'xue</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月21日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1050</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI调整</t>
@@ -3727,7 +3728,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>受击动作（触发条件，触发事件）</t>
@@ -3749,22 +3750,22 @@
     <rPh sb="12" eb="13">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-987</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月15日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，被动技能tips</t>
@@ -3777,47 +3778,47 @@
     <rPh sb="9" eb="10">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1016</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月20日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1055</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>slotIcon封装</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">装备弹出UI封装 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>非装备道具Tips（ 包含位置自动调整）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1058</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1056</t>
@@ -3842,23 +3843,23 @@
     <rPh sb="9" eb="10">
       <t>lie'b</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>装备属性界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>装备列表ui</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>同步客户端装备信息</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1098</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1097</t>
@@ -3868,11 +3869,11 @@
   </si>
   <si>
     <t>宠物详情界面、装备列表、装备详情界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1100</t>
@@ -3891,19 +3892,19 @@
     <rPh sb="7" eb="8">
       <t>bao'shi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>强化进阶界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>开孔和镶嵌界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1145</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1146</t>
@@ -3916,153 +3917,153 @@
   </si>
   <si>
     <t>宝石属性及合成表，接口部分</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宝石选择列表界面</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化进阶、宝石镶嵌、宝石列表界面</t>
   </si>
   <si>
     <t>MG-1160</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ui </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>输入框超出像左移动,最多输入限制</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>玩家发言间隔</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>切换聊天频道</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>聊天频道划分</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hd'uuan</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'wu'qi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务器-IM-公共频道，公会频道</t>
   </si>
   <si>
     <t>MG-1022</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1176</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1177</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1178</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽功能</t>
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店物品购买和刷新  </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商城                  </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">月卡和钻石兑换金币      </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>IM翻译功能（新版API变复杂了）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务端http库的升级与扩展，IM翻译功能 -网络功能</t>
     <rPh sb="25" eb="26">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>Im功能补充 -增加公告、走马灯等系统消息</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>玩家发消息,显示服务器消息解析</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>商店配置和数据格式设计</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1180</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1181</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1182</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示排版</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>最多可查看50行消息</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>手指滑动聊天框一系列功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>走马灯,系统公告,提示信息</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1183</t>
@@ -4075,29 +4076,29 @@
   </si>
   <si>
     <t>MG-1186</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1187</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1122</t>
   </si>
   <si>
     <t>MG-1188</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1189</t>
   </si>
   <si>
     <t>MG-1113</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1190</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1191</t>
@@ -4116,18 +4117,18 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'h'd</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1217</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1218</t>
@@ -4143,53 +4144,53 @@
   </si>
   <si>
     <t>商店商城与服务器联调</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>商城UI与数据</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>商店弹出框开发</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>商店UI与逻辑开发</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店数据封装 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>IM界面、玩家菜单、走马灯、系统提示、系统公告UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1239</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>商店（普通、公会）+商城UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1238</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1246</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1247</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>商城-支付服务器</t>
@@ -4202,7 +4203,7 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>点玩家名弹出界面</t>
@@ -4218,46 +4219,46 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1243</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本结算，复活</t>
   </si>
   <si>
     <t>2015年09月23日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">结算，复活ui </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>怪物走出来功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>复活逻辑</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶材料修改，UI修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表项，装备显示（无，已装备）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表，技能图标</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表-描述超长换行</t>
@@ -4270,7 +4271,7 @@
     <rPh sb="11" eb="12">
       <t>huan'hang</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面UI替换</t>
@@ -4283,15 +4284,15 @@
     <rPh sb="6" eb="7">
       <t>ti'huan</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1194</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1259</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1260</t>
@@ -4304,7 +4305,7 @@
   </si>
   <si>
     <t>MG-1287</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1288</t>
@@ -4314,19 +4315,19 @@
   </si>
   <si>
     <t>掉落修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>结算修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>复活</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1295</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1296</t>
@@ -4351,11 +4352,11 @@
   </si>
   <si>
     <t>2015年09月30日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑（一些流程修改）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>宠物升级功能</t>
@@ -4368,36 +4369,36 @@
     <rPh sb="4" eb="5">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1331</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1332</t>
   </si>
   <si>
     <t>结算联调</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>zz 小珍</t>
     <rPh sb="3" eb="4">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1294</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1333</t>
   </si>
   <si>
     <t>MG-1334</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1335</t>
@@ -4407,68 +4408,68 @@
   </si>
   <si>
     <t>MG-1342</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
     <rPh sb="0" eb="1">
       <t>shang'dian</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
       <t>bei'b</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月10日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>背包主UI开发</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>开宝箱</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>消耗品使用（双倍经验，三倍经验，疲劳药）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>出售功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>与服务器联调</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>批量开宝箱</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>批量卖</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>双倍、三倍经验</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'sh</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1369</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1367</t>
@@ -4493,22 +4494,22 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>s'f</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1375</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月23日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>道具合成分解</t>
@@ -4521,42 +4522,42 @@
     <rPh sb="4" eb="5">
       <t>fen'jie</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'h'duan</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成界面UI  </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成结果UI  </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>分解界面UI</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">分解的筛选方式   </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成分解服务器联调   </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1480</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1481</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1482</t>
@@ -4575,19 +4576,19 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务器-分解</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务器-连调</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1489</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1487</t>
@@ -4600,11 +4601,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月28日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本选择大地图（选择章节）</t>
@@ -4620,7 +4621,7 @@
     <rPh sb="1" eb="2">
       <t>zhen</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>纯2D画的方式</t>
@@ -4639,7 +4640,7 @@
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
@@ -4649,14 +4650,14 @@
     <rPh sb="0" eb="1">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>主界面，村落，角色升级</t>
@@ -4675,7 +4676,7 @@
     <rPh sb="9" eb="10">
       <t>sheng'ji</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
@@ -4688,30 +4689,30 @@
     <rPh sb="0" eb="1">
       <t>ke'h'dua</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>镜头调整</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>场景编辑，选中效果</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>村落场景添加到流程</t>
@@ -4721,11 +4722,11 @@
     <rPh sb="2" eb="3">
       <t>chang'jing</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>方案1</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>章节选择</t>
@@ -4735,7 +4736,7 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
@@ -4745,19 +4746,19 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>配置修改</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1503</t>
@@ -4773,7 +4774,7 @@
   </si>
   <si>
     <t>副本选择（选择副本）</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1498</t>
@@ -4792,25 +4793,25 @@
   </si>
   <si>
     <t>MG-1496</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1495</t>
   </si>
   <si>
     <t>MG-1495</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月02日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>活力值</t>
     <rPh sb="0" eb="1">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>活力值自动恢复 0.5d</t>
@@ -4826,19 +4827,19 @@
   </si>
   <si>
     <t>活力值系统开发与联调</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1550</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1547</t>
@@ -4851,22 +4852,22 @@
   </si>
   <si>
     <t>MG-1546</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>UI-活力值</t>
     <rPh sb="3" eb="4">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1551</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
@@ -4876,7 +4877,7 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>客户端宠物图鉴UI</t>
@@ -4889,11 +4890,11 @@
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务器联调 </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
@@ -4903,7 +4904,7 @@
     <rPh sb="2" eb="3">
       <t>he'cheng</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
@@ -4916,7 +4917,7 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴-UI</t>
@@ -4926,18 +4927,18 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>新需求</t>
     <rPh sb="0" eb="1">
       <t>xin'xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>场地buff添加</t>
@@ -4950,7 +4951,7 @@
     <rPh sb="6" eb="7">
       <t>tian'jia</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>buff消失事件触发</t>
@@ -4963,7 +4964,7 @@
     <rPh sb="8" eb="9">
       <t>chu'fa</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>攻击为0的情况处理</t>
@@ -4982,7 +4983,7 @@
     <rPh sb="7" eb="8">
       <t>chu'li</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>物理免疫法术免疫</t>
@@ -4998,34 +4999,34 @@
     <rPh sb="6" eb="7">
       <t>mian'yi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">无法回复buff </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>switch添加检测目标功能</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>宝石属性配置修改，添加到技能，伤害公式修改</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1618</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1596</t>
@@ -5038,21 +5039,21 @@
   </si>
   <si>
     <t>MG-1599</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1595</t>
   </si>
   <si>
     <t>MG-1621</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>MG-1620</t>
   </si>
   <si>
     <t>MG-1587</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>MG-1588</t>
@@ -5074,6 +5075,360 @@
   </si>
   <si>
     <t>MG-1594</t>
+  </si>
+  <si>
+    <t>2015年11月13日</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-配置数据结构添加</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-村落切特写镜头</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-通天塔特写镜头ui提示</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-流程添加 结算</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-通天塔(经验,金币)+通天塔BOSS UI</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-通天塔刷新</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-开启时间+奖励展示</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通天塔-通天塔(经验,金币)入口+难度选择 </t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-阶段奖励 + 副本状态</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-通天塔界面动画</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <rPh sb="0" eb="1">
+      <t>k'hu'd</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-服务器-配置</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>f'w'q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-服务器-两种入口</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>f'w'q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liang'zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ru'kou</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-服务器-刷新</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>f'w'q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shua'xin</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1669</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1666</t>
+  </si>
+  <si>
+    <t>MG-1667</t>
+  </si>
+  <si>
+    <t>MG-1668</t>
+  </si>
+  <si>
+    <t>MG-1670</t>
+  </si>
+  <si>
+    <t>MG-1671</t>
+  </si>
+  <si>
+    <t>MG-1672</t>
+  </si>
+  <si>
+    <t>MG-1673</t>
+  </si>
+  <si>
+    <t>MG-1674</t>
+  </si>
+  <si>
+    <t>MG-1675</t>
+  </si>
+  <si>
+    <t>MG-1676</t>
+  </si>
+  <si>
+    <t>MG-1677</t>
+  </si>
+  <si>
+    <t>MG-1678</t>
+  </si>
+  <si>
+    <t>队伍选择</t>
+    <rPh sb="0" eb="1">
+      <t>dui'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月14日</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍选择调整</t>
+    <rPh sb="0" eb="1">
+      <t>dui'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>师叔</t>
+    <rPh sb="0" eb="1">
+      <t>shi'sh</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍选择调整-服务器</t>
+    <rPh sb="0" eb="1">
+      <t>dui'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fu'w'q</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-659</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-656</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍选择-UI</t>
+    <rPh sb="0" eb="1">
+      <t>dui'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan'ze</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <rPh sb="0" eb="1">
+      <t>sun'f</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1679</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔-UI</t>
+    <rPh sb="0" eb="1">
+      <t>tong'tian'ta</t>
+    </rPh>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月18日</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-照妖镜</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhao'yao'jing</t>
+    </rPh>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>集火逻辑修改</t>
+  </si>
+  <si>
+    <t>Ai对boss弱点选择修改</t>
+  </si>
+  <si>
+    <t>小怪本体弱点增加 已鉴定效果</t>
+  </si>
+  <si>
+    <t>照妖镜效果的修改</t>
+  </si>
+  <si>
+    <t>照妖镜能量的恢复与消耗</t>
+  </si>
+  <si>
+    <t>弱点tips</t>
+  </si>
+  <si>
+    <t>照妖镜 鉴定弱点过程修改（鉴定表现，完成表现，ui选择表现）</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点配置结果修改</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它：</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1683</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1684</t>
+  </si>
+  <si>
+    <t>MG-1685</t>
+  </si>
+  <si>
+    <t>MG-1686</t>
+  </si>
+  <si>
+    <t>弱点对应UI的显示（根据弱点状态）</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <rPh sb="0" eb="1">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <rPh sb="0" eb="1">
+      <t>sun'fan</t>
+    </rPh>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1681</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5083,7 +5438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5091,6 +5446,27 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5522,6 +5898,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5631,399 +6014,408 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6035,113 +6427,111 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="61" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="58" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -6165,7 +6555,7 @@
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="77">
     <dxf>
       <fill>
         <patternFill>
@@ -6509,6 +6899,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7108,11 +7508,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -8904,13 +9304,11 @@
       <c r="G104" s="182"/>
       <c r="H104" s="182"/>
     </row>
-    <row r="105" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="106"/>
-      <c r="C105" s="158"/>
-      <c r="D105" s="183" t="s">
+    <row r="105" spans="1:11" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="153"/>
+      <c r="D105" s="106" t="s">
         <v>769</v>
       </c>
-      <c r="E105" s="124"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" s="104">
@@ -8941,20 +9339,17 @@
       <c r="G107" s="182"/>
       <c r="H107" s="182"/>
     </row>
-    <row r="108" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="106"/>
-      <c r="C108" s="158"/>
-      <c r="D108" s="185" t="s">
+    <row r="108" spans="1:11" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="153"/>
+      <c r="D108" s="106" t="s">
         <v>779</v>
       </c>
-      <c r="G108" s="183"/>
-      <c r="H108" s="183"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" s="104">
         <v>1</v>
       </c>
-      <c r="D109" s="184" t="s">
+      <c r="D109" s="183" t="s">
         <v>780</v>
       </c>
       <c r="E109" s="104">
@@ -8963,10 +9358,10 @@
       <c r="F109" s="104">
         <v>1</v>
       </c>
-      <c r="G109" s="184" t="s">
+      <c r="G109" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="H109" s="184" t="s">
+      <c r="H109" s="183" t="s">
         <v>781</v>
       </c>
     </row>
@@ -8990,9 +9385,145 @@
         <v>-32.800000000000004</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="104"/>
-      <c r="E113" s="121"/>
+    <row r="113" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="106" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C113" s="153"/>
+      <c r="D113" s="106" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" s="220" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E114" s="104">
+        <v>1</v>
+      </c>
+      <c r="F114" s="104">
+        <v>1</v>
+      </c>
+      <c r="G114" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="H114" s="220" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D115" s="220" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E115" s="104">
+        <v>2</v>
+      </c>
+      <c r="F115" s="104">
+        <v>1</v>
+      </c>
+      <c r="G115" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="H115" s="220" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D116" s="220" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E116" s="104">
+        <v>1</v>
+      </c>
+      <c r="F116" s="104">
+        <v>1</v>
+      </c>
+      <c r="G116" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="H116" s="220" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D117" s="220" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E117" s="104">
+        <v>1</v>
+      </c>
+      <c r="F117" s="104">
+        <v>1</v>
+      </c>
+      <c r="G117" s="220" t="s">
+        <v>60</v>
+      </c>
+      <c r="H117" s="220" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D118" s="104" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D119" s="104" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D120" s="104" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D121" s="104" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D122" s="104" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D123" s="104" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="102" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D125" s="220" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D126" s="220" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E126" s="104">
+        <v>2</v>
+      </c>
+      <c r="G126" s="220" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H126" s="220" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E127" s="104">
+        <v>4</v>
+      </c>
+      <c r="G127" s="220" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G139" s="1"/>
@@ -9001,39 +9532,39 @@
       <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 G139:J139 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G97:I99">
-    <cfRule type="cellIs" dxfId="74" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:C72 B65:H65 B66:E66 G66:H66 F66:F67 F72:H72">
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:K35 A41:K43 A36:B40 D36:K40">
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:J8 B32:J34 B9:B31 D9:J31">
-    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:J7">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E6">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9043,13 +9574,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -9386,19 +9917,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="156"/>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="218">
         <v>1.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="218">
         <v>2</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="218" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="1"/>
@@ -9409,17 +9940,17 @@
         <v>6</v>
       </c>
       <c r="C17" s="156"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="218" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+      <c r="E17" s="218"/>
+      <c r="F17" s="218">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="218" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="1"/>
@@ -9430,17 +9961,17 @@
         <v>7</v>
       </c>
       <c r="C18" s="156"/>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="E18" s="218"/>
+      <c r="F18" s="218">
         <v>2</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="218" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="1"/>
@@ -9451,17 +9982,17 @@
         <v>8</v>
       </c>
       <c r="C19" s="156"/>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
+      <c r="E19" s="218"/>
+      <c r="F19" s="218">
         <v>2</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="218" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="1"/>
@@ -9868,10 +10399,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="200" t="s">
+      <c r="A40" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="200" t="s">
+      <c r="D40" s="198" t="s">
         <v>880</v>
       </c>
       <c r="E40" s="104">
@@ -9880,7 +10411,7 @@
       <c r="F40" s="104">
         <v>1</v>
       </c>
-      <c r="G40" s="200" t="s">
+      <c r="G40" s="198" t="s">
         <v>615</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -9888,7 +10419,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="200" t="s">
+      <c r="D41" s="198" t="s">
         <v>881</v>
       </c>
       <c r="E41" s="104">
@@ -9897,7 +10428,7 @@
       <c r="F41" s="104">
         <v>1</v>
       </c>
-      <c r="G41" s="200" t="s">
+      <c r="G41" s="198" t="s">
         <v>615</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -9905,7 +10436,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="200" t="s">
+      <c r="D42" s="198" t="s">
         <v>882</v>
       </c>
       <c r="E42" s="104">
@@ -9914,7 +10445,7 @@
       <c r="F42" s="104">
         <v>1</v>
       </c>
-      <c r="G42" s="200" t="s">
+      <c r="G42" s="198" t="s">
         <v>615</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -9922,7 +10453,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="200" t="s">
+      <c r="D43" s="198" t="s">
         <v>883</v>
       </c>
       <c r="E43" s="104">
@@ -9931,7 +10462,7 @@
       <c r="F43" s="104">
         <v>1</v>
       </c>
-      <c r="G43" s="200" t="s">
+      <c r="G43" s="198" t="s">
         <v>615</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -9948,7 +10479,7 @@
       <c r="F44" s="104">
         <v>1</v>
       </c>
-      <c r="G44" s="206" t="s">
+      <c r="G44" s="204" t="s">
         <v>696</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -9965,7 +10496,7 @@
       <c r="F45" s="104">
         <v>1</v>
       </c>
-      <c r="G45" s="206" t="s">
+      <c r="G45" s="204" t="s">
         <v>696</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -9982,10 +10513,10 @@
       <c r="F46" s="104">
         <v>1</v>
       </c>
-      <c r="G46" s="206" t="s">
+      <c r="G46" s="204" t="s">
         <v>914</v>
       </c>
-      <c r="H46" s="206" t="s">
+      <c r="H46" s="204" t="s">
         <v>915</v>
       </c>
     </row>
@@ -9993,7 +10524,7 @@
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="200" t="s">
+      <c r="A48" s="198" t="s">
         <v>855</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -10005,7 +10536,7 @@
       <c r="F48" s="104">
         <v>1</v>
       </c>
-      <c r="G48" s="204" t="s">
+      <c r="G48" s="202" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -10022,7 +10553,7 @@
       <c r="F49" s="104">
         <v>1</v>
       </c>
-      <c r="G49" s="204" t="s">
+      <c r="G49" s="202" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -10039,7 +10570,7 @@
       <c r="F50" s="104">
         <v>1</v>
       </c>
-      <c r="G50" s="204" t="s">
+      <c r="G50" s="202" t="s">
         <v>9</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -10056,7 +10587,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="212" t="s">
+      <c r="A53" s="210" t="s">
         <v>815</v>
       </c>
       <c r="D53" s="104" t="s">
@@ -10068,7 +10599,7 @@
       <c r="F53" s="104">
         <v>1</v>
       </c>
-      <c r="G53" s="212" t="s">
+      <c r="G53" s="210" t="s">
         <v>8</v>
       </c>
       <c r="H53" s="104" t="s">
@@ -10076,7 +10607,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="215" t="s">
+      <c r="D54" s="213" t="s">
         <v>999</v>
       </c>
       <c r="E54" s="104">
@@ -10085,7 +10616,7 @@
       <c r="F54" s="104">
         <v>1</v>
       </c>
-      <c r="G54" s="212" t="s">
+      <c r="G54" s="210" t="s">
         <v>8</v>
       </c>
       <c r="H54" s="104" t="s">
@@ -10093,10 +10624,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="212" t="s">
+      <c r="A56" s="210" t="s">
         <v>855</v>
       </c>
-      <c r="D56" s="212" t="s">
+      <c r="D56" s="210" t="s">
         <v>994</v>
       </c>
       <c r="E56" s="104">
@@ -10105,7 +10636,7 @@
       <c r="F56" s="104">
         <v>1</v>
       </c>
-      <c r="G56" s="212" t="s">
+      <c r="G56" s="210" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="104" t="s">
@@ -10122,7 +10653,7 @@
       <c r="F57" s="104">
         <v>1</v>
       </c>
-      <c r="G57" s="212" t="s">
+      <c r="G57" s="210" t="s">
         <v>968</v>
       </c>
       <c r="H57" s="104" t="s">
@@ -10133,10 +10664,10 @@
       <c r="A59" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="212" t="s">
+      <c r="B59" s="210" t="s">
         <v>990</v>
       </c>
-      <c r="C59" s="212" t="s">
+      <c r="C59" s="210" t="s">
         <v>989</v>
       </c>
       <c r="D59" s="103" t="s">
@@ -10149,7 +10680,7 @@
       <c r="F59" s="104">
         <v>1</v>
       </c>
-      <c r="G59" s="212" t="s">
+      <c r="G59" s="210" t="s">
         <v>974</v>
       </c>
     </row>
@@ -10157,7 +10688,7 @@
       <c r="C61" s="104" t="s">
         <v>970</v>
       </c>
-      <c r="D61" s="213" t="s">
+      <c r="D61" s="211" t="s">
         <v>971</v>
       </c>
     </row>
@@ -10171,7 +10702,7 @@
       <c r="F62" s="104">
         <v>1</v>
       </c>
-      <c r="G62" s="212" t="s">
+      <c r="G62" s="210" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10185,7 +10716,7 @@
       <c r="F63" s="104">
         <v>1</v>
       </c>
-      <c r="G63" s="212" t="s">
+      <c r="G63" s="210" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10199,20 +10730,20 @@
       <c r="F64" s="104">
         <v>1</v>
       </c>
-      <c r="G64" s="212" t="s">
+      <c r="G64" s="210" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G65" s="212"/>
-      <c r="J65" s="212"/>
+      <c r="G65" s="210"/>
+      <c r="J65" s="210"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="212" t="s">
+      <c r="B66" s="210" t="s">
         <v>991</v>
       </c>
-      <c r="C66" s="214"/>
-      <c r="D66" s="212" t="s">
+      <c r="C66" s="212"/>
+      <c r="D66" s="210" t="s">
         <v>992</v>
       </c>
       <c r="E66" s="104">
@@ -10221,26 +10752,26 @@
       <c r="F66" s="104">
         <v>1</v>
       </c>
-      <c r="G66" s="212" t="s">
+      <c r="G66" s="210" t="s">
         <v>993</v>
       </c>
-      <c r="H66" s="215" t="s">
+      <c r="H66" s="213" t="s">
         <v>1007</v>
       </c>
-      <c r="J66" s="212"/>
+      <c r="J66" s="210"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="212"/>
-      <c r="C67" s="214"/>
-      <c r="D67" s="212"/>
-      <c r="G67" s="212"/>
-      <c r="J67" s="212"/>
+      <c r="B67" s="210"/>
+      <c r="C67" s="212"/>
+      <c r="D67" s="210"/>
+      <c r="G67" s="210"/>
+      <c r="J67" s="210"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="212" t="s">
+      <c r="A68" s="210" t="s">
         <v>765</v>
       </c>
-      <c r="D68" s="212" t="s">
+      <c r="D68" s="210" t="s">
         <v>976</v>
       </c>
       <c r="E68" s="104">
@@ -10249,75 +10780,134 @@
       <c r="F68" s="104">
         <v>1</v>
       </c>
-      <c r="G68" s="212" t="s">
+      <c r="G68" s="210" t="s">
         <v>977</v>
       </c>
-      <c r="J68" s="212"/>
+      <c r="J68" s="210"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J69" s="212"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J70" s="212"/>
+      <c r="J69" s="210"/>
+    </row>
+    <row r="70" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="106" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C70" s="153"/>
+      <c r="D70" s="106" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J71" s="212"/>
+      <c r="A71" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="219" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E71" s="104">
+        <v>3</v>
+      </c>
+      <c r="F71" s="104">
+        <v>1</v>
+      </c>
+      <c r="G71" s="219" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H71" s="219" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J71" s="210"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J72" s="212"/>
+      <c r="J72" s="210"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J73" s="212"/>
+      <c r="A73" s="219" t="s">
+        <v>855</v>
+      </c>
+      <c r="D73" s="219" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E73" s="104">
+        <v>2</v>
+      </c>
+      <c r="F73" s="104">
+        <v>1</v>
+      </c>
+      <c r="G73" s="219" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="219" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J73" s="210"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="219" t="s">
+        <v>744</v>
+      </c>
+      <c r="D75" s="219" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E75" s="104">
+        <v>3.5</v>
+      </c>
+      <c r="F75" s="104">
+        <v>1</v>
+      </c>
+      <c r="G75" s="219" t="s">
+        <v>1100</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="B2:H8">
-    <cfRule type="cellIs" dxfId="68" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:H20 B11:I19 B21:I37">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:H1">
-    <cfRule type="cellIs" dxfId="66" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H43">
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D50">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:H50">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D45">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H45">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D47">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10730,65 +11320,65 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="186" t="s">
+      <c r="B21" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="186" t="s">
+      <c r="D21" s="184" t="s">
         <v>790</v>
       </c>
       <c r="E21" s="104">
         <v>1.5</v>
       </c>
-      <c r="G21" s="186" t="s">
+      <c r="G21" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="186" t="s">
+      <c r="H21" s="184" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="186" t="s">
+      <c r="D22" s="184" t="s">
         <v>791</v>
       </c>
       <c r="E22" s="104">
         <v>1.5</v>
       </c>
-      <c r="G22" s="186" t="s">
+      <c r="G22" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="186" t="s">
+      <c r="H22" s="184" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="186" t="s">
+      <c r="B23" s="184" t="s">
         <v>754</v>
       </c>
-      <c r="D23" s="186" t="s">
+      <c r="D23" s="184" t="s">
         <v>792</v>
       </c>
       <c r="E23" s="104">
         <v>1</v>
       </c>
-      <c r="G23" s="186" t="s">
+      <c r="G23" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="186" t="s">
+      <c r="H23" s="184" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="186" t="s">
+      <c r="B24" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="185" t="s">
         <v>796</v>
       </c>
-      <c r="E24" s="187">
+      <c r="E24" s="185">
         <v>4</v>
       </c>
-      <c r="F24" s="187"/>
-      <c r="G24" s="186" t="s">
+      <c r="F24" s="185"/>
+      <c r="G24" s="184" t="s">
         <v>797</v>
       </c>
       <c r="H24" s="104" t="s">
@@ -10801,66 +11391,66 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="188" t="s">
+      <c r="D27" s="186" t="s">
         <v>800</v>
       </c>
       <c r="E27" s="104">
         <v>1</v>
       </c>
-      <c r="G27" s="186" t="s">
+      <c r="G27" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="189" t="s">
+      <c r="H27" s="187" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="186" t="s">
         <v>801</v>
       </c>
       <c r="E28" s="104">
         <v>2</v>
       </c>
-      <c r="G28" s="186" t="s">
+      <c r="G28" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="189" t="s">
+      <c r="H28" s="187" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="189" t="s">
+      <c r="D29" s="187" t="s">
         <v>806</v>
       </c>
       <c r="E29" s="104">
         <v>1.5</v>
       </c>
-      <c r="G29" s="186" t="s">
+      <c r="G29" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="189" t="s">
+      <c r="H29" s="187" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="189" t="s">
+      <c r="D30" s="187" t="s">
         <v>807</v>
       </c>
       <c r="E30" s="104">
         <v>1</v>
       </c>
-      <c r="G30" s="186" t="s">
+      <c r="G30" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="189" t="s">
+      <c r="H30" s="187" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="188" t="s">
+      <c r="B31" s="186" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="104" t="s">
@@ -10869,15 +11459,15 @@
       <c r="E31" s="104">
         <v>3</v>
       </c>
-      <c r="G31" s="188" t="s">
+      <c r="G31" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="189" t="s">
+      <c r="H31" s="187" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="186" t="s">
         <v>0</v>
       </c>
     </row>
@@ -10885,10 +11475,10 @@
       <c r="D33" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E33" s="202">
-        <v>1</v>
-      </c>
-      <c r="G33" s="186" t="s">
+      <c r="E33" s="200">
+        <v>1</v>
+      </c>
+      <c r="G33" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -10899,10 +11489,10 @@
       <c r="D34" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="E34" s="202">
+      <c r="E34" s="200">
         <v>0.3</v>
       </c>
-      <c r="G34" s="186" t="s">
+      <c r="G34" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -10913,10 +11503,10 @@
       <c r="D35" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E35" s="202">
+      <c r="E35" s="200">
         <v>0.2</v>
       </c>
-      <c r="G35" s="186" t="s">
+      <c r="G35" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -10927,10 +11517,10 @@
       <c r="D36" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="E36" s="202">
-        <v>1</v>
-      </c>
-      <c r="G36" s="186" t="s">
+      <c r="E36" s="200">
+        <v>1</v>
+      </c>
+      <c r="G36" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -10938,16 +11528,16 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="201" t="s">
+      <c r="D37" s="199" t="s">
         <v>888</v>
       </c>
       <c r="E37" s="104">
         <v>4</v>
       </c>
-      <c r="G37" s="186" t="s">
+      <c r="G37" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="203" t="s">
+      <c r="H37" s="201" t="s">
         <v>889</v>
       </c>
     </row>
@@ -10963,13 +11553,13 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="205" t="s">
+      <c r="D41" s="203" t="s">
         <v>902</v>
       </c>
       <c r="E41" s="104">
         <v>0.5</v>
       </c>
-      <c r="G41" s="186" t="s">
+      <c r="G41" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -10977,13 +11567,13 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="205" t="s">
+      <c r="D42" s="203" t="s">
         <v>903</v>
       </c>
       <c r="E42" s="104">
         <v>1</v>
       </c>
-      <c r="G42" s="186" t="s">
+      <c r="G42" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -10991,13 +11581,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="205" t="s">
+      <c r="D43" s="203" t="s">
         <v>904</v>
       </c>
       <c r="E43" s="104">
         <v>1</v>
       </c>
-      <c r="G43" s="186" t="s">
+      <c r="G43" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -11005,13 +11595,13 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="205" t="s">
+      <c r="D44" s="203" t="s">
         <v>905</v>
       </c>
       <c r="E44" s="104">
         <v>1</v>
       </c>
-      <c r="G44" s="186" t="s">
+      <c r="G44" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -11019,16 +11609,16 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="205" t="s">
+      <c r="D46" s="203" t="s">
         <v>906</v>
       </c>
       <c r="E46" s="104">
         <v>0.5</v>
       </c>
-      <c r="G46" s="216" t="s">
+      <c r="G46" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="207" t="s">
+      <c r="H46" s="205" t="s">
         <v>920</v>
       </c>
     </row>
@@ -11042,7 +11632,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="216" t="s">
+      <c r="B49" s="214" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="104" t="s">
@@ -11051,7 +11641,7 @@
       <c r="E49" s="104">
         <v>1.5</v>
       </c>
-      <c r="G49" s="186" t="s">
+      <c r="G49" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H49" s="169" t="s">
@@ -11065,7 +11655,7 @@
       <c r="E50" s="104">
         <v>1</v>
       </c>
-      <c r="G50" s="186" t="s">
+      <c r="G50" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H50" s="169" t="s">
@@ -11079,7 +11669,7 @@
       <c r="E51" s="104">
         <v>2</v>
       </c>
-      <c r="G51" s="186" t="s">
+      <c r="G51" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H51" s="169" t="s">
@@ -11087,13 +11677,13 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="216" t="s">
+      <c r="D52" s="214" t="s">
         <v>1029</v>
       </c>
       <c r="E52" s="104">
         <v>0.5</v>
       </c>
-      <c r="G52" s="186" t="s">
+      <c r="G52" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H52" s="169" t="s">
@@ -11101,13 +11691,13 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="216" t="s">
+      <c r="D53" s="214" t="s">
         <v>1030</v>
       </c>
       <c r="E53" s="104">
         <v>1</v>
       </c>
-      <c r="G53" s="186" t="s">
+      <c r="G53" s="184" t="s">
         <v>127</v>
       </c>
       <c r="H53" s="169" t="s">
@@ -11115,85 +11705,85 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="216" t="s">
+      <c r="B55" s="214" t="s">
         <v>855</v>
       </c>
-      <c r="D55" s="216" t="s">
+      <c r="D55" s="214" t="s">
         <v>1031</v>
       </c>
       <c r="E55" s="104">
         <v>1</v>
       </c>
-      <c r="G55" s="216" t="s">
+      <c r="G55" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="217" t="s">
+      <c r="H55" s="215" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="216" t="s">
+      <c r="D56" s="214" t="s">
         <v>1032</v>
       </c>
       <c r="E56" s="104">
         <v>1</v>
       </c>
-      <c r="G56" s="216" t="s">
+      <c r="G56" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="H56" s="217" t="s">
+      <c r="H56" s="215" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="216"/>
-      <c r="G57" s="216"/>
+      <c r="D57" s="214"/>
+      <c r="G57" s="214"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="216" t="s">
+      <c r="B58" s="214" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="216" t="s">
+      <c r="D58" s="214" t="s">
         <v>1033</v>
       </c>
-      <c r="H58" s="217" t="s">
+      <c r="H58" s="215" t="s">
         <v>1045</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="B2:I3 B4:G4 I4:I5 B13:I18 D12:H12 D6:I11 D5:G5 B5:C12">
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:H1">
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D36">
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E36">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H36">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H44">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11641,7 +12231,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="195" t="s">
+      <c r="H23" s="193" t="s">
         <v>873</v>
       </c>
       <c r="I23" s="1"/>
@@ -11713,14 +12303,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 J2:J5 B2:I28">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J8">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11733,10 +12323,10 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomRight" sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12090,35 +12680,35 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="184" t="s">
+      <c r="D26" s="183" t="s">
         <v>783</v>
       </c>
       <c r="E26" s="104">
         <v>1.5</v>
       </c>
-      <c r="H26" s="184" t="s">
+      <c r="H26" s="183" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="184" t="s">
+      <c r="D27" s="183" t="s">
         <v>784</v>
       </c>
       <c r="E27" s="104">
         <v>0.5</v>
       </c>
-      <c r="H27" s="184" t="s">
+      <c r="H27" s="183" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="184" t="s">
+      <c r="D28" s="183" t="s">
         <v>785</v>
       </c>
       <c r="E28" s="104">
         <v>1</v>
       </c>
-      <c r="H28" s="184" t="s">
+      <c r="H28" s="183" t="s">
         <v>786</v>
       </c>
     </row>
@@ -12138,10 +12728,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="191" t="s">
         <v>855</v>
       </c>
-      <c r="D33" s="191" t="s">
+      <c r="D33" s="189" t="s">
         <v>833</v>
       </c>
       <c r="E33" s="104">
@@ -12150,15 +12740,15 @@
       <c r="F33" s="104">
         <v>1</v>
       </c>
-      <c r="G33" s="191" t="s">
+      <c r="G33" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="193" t="s">
+      <c r="H33" s="191" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="191" t="s">
+      <c r="D34" s="189" t="s">
         <v>825</v>
       </c>
       <c r="E34" s="104">
@@ -12167,15 +12757,15 @@
       <c r="F34" s="104">
         <v>1</v>
       </c>
-      <c r="G34" s="191" t="s">
+      <c r="G34" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="193" t="s">
+      <c r="H34" s="191" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="191" t="s">
+      <c r="D35" s="189" t="s">
         <v>826</v>
       </c>
       <c r="E35" s="104">
@@ -12184,15 +12774,15 @@
       <c r="F35" s="104">
         <v>1</v>
       </c>
-      <c r="G35" s="191" t="s">
+      <c r="G35" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="193" t="s">
+      <c r="H35" s="191" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="191" t="s">
+      <c r="D36" s="189" t="s">
         <v>827</v>
       </c>
       <c r="E36" s="104">
@@ -12201,27 +12791,27 @@
       <c r="F36" s="104">
         <v>1</v>
       </c>
-      <c r="G36" s="191" t="s">
+      <c r="G36" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="193" t="s">
+      <c r="H36" s="191" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="198" t="s">
+      <c r="D37" s="196" t="s">
         <v>875</v>
       </c>
-      <c r="E37" s="199">
+      <c r="E37" s="197">
         <v>5</v>
       </c>
       <c r="F37" s="104">
         <v>1</v>
       </c>
-      <c r="G37" s="191" t="s">
+      <c r="G37" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="198" t="s">
+      <c r="H37" s="196" t="s">
         <v>877</v>
       </c>
     </row>
@@ -12232,7 +12822,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="193" t="s">
+      <c r="B39" s="191" t="s">
         <v>856</v>
       </c>
       <c r="D39" s="104" t="s">
@@ -12240,7 +12830,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="193" t="s">
+      <c r="D40" s="191" t="s">
         <v>866</v>
       </c>
       <c r="E40" s="104">
@@ -12249,15 +12839,15 @@
       <c r="F40" s="104">
         <v>1</v>
       </c>
-      <c r="G40" s="208" t="s">
+      <c r="G40" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="193" t="s">
+      <c r="H40" s="191" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="193" t="s">
+      <c r="D41" s="191" t="s">
         <v>865</v>
       </c>
       <c r="E41" s="104">
@@ -12266,15 +12856,15 @@
       <c r="F41" s="104">
         <v>1</v>
       </c>
-      <c r="G41" s="208" t="s">
+      <c r="G41" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="193" t="s">
+      <c r="H41" s="191" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="193" t="s">
+      <c r="D42" s="191" t="s">
         <v>864</v>
       </c>
       <c r="E42" s="104">
@@ -12283,15 +12873,15 @@
       <c r="F42" s="104">
         <v>1</v>
       </c>
-      <c r="G42" s="208" t="s">
+      <c r="G42" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="193" t="s">
+      <c r="H42" s="191" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="193" t="s">
+      <c r="D43" s="191" t="s">
         <v>863</v>
       </c>
       <c r="E43" s="104">
@@ -12300,15 +12890,15 @@
       <c r="F43" s="104">
         <v>1</v>
       </c>
-      <c r="G43" s="208" t="s">
+      <c r="G43" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="193" t="s">
+      <c r="H43" s="191" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="193" t="s">
+      <c r="D44" s="191" t="s">
         <v>862</v>
       </c>
       <c r="E44" s="104">
@@ -12317,15 +12907,15 @@
       <c r="F44" s="104">
         <v>1</v>
       </c>
-      <c r="G44" s="208" t="s">
+      <c r="G44" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="193" t="s">
+      <c r="H44" s="191" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="194" t="s">
+      <c r="B46" s="192" t="s">
         <v>744</v>
       </c>
       <c r="D46" s="104" t="s">
@@ -12337,10 +12927,10 @@
       <c r="F46" s="104">
         <v>1</v>
       </c>
-      <c r="G46" s="208" t="s">
+      <c r="G46" s="206" t="s">
         <v>942</v>
       </c>
-      <c r="H46" s="194" t="s">
+      <c r="H46" s="192" t="s">
         <v>871</v>
       </c>
     </row>
@@ -12354,10 +12944,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="193" t="s">
+      <c r="B49" s="191" t="s">
         <v>856</v>
       </c>
-      <c r="D49" s="208" t="s">
+      <c r="D49" s="206" t="s">
         <v>924</v>
       </c>
       <c r="E49" s="104">
@@ -12366,15 +12956,15 @@
       <c r="F49" s="104">
         <v>1</v>
       </c>
-      <c r="G49" s="208" t="s">
+      <c r="G49" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="208" t="s">
+      <c r="H49" s="206" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="208" t="s">
+      <c r="D50" s="206" t="s">
         <v>925</v>
       </c>
       <c r="E50" s="104">
@@ -12383,15 +12973,15 @@
       <c r="F50" s="104">
         <v>1</v>
       </c>
-      <c r="G50" s="208" t="s">
+      <c r="G50" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="208" t="s">
+      <c r="H50" s="206" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="208" t="s">
+      <c r="D51" s="206" t="s">
         <v>926</v>
       </c>
       <c r="E51" s="104">
@@ -12400,15 +12990,15 @@
       <c r="F51" s="104">
         <v>1</v>
       </c>
-      <c r="G51" s="208" t="s">
+      <c r="G51" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="208" t="s">
+      <c r="H51" s="206" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="208" t="s">
+      <c r="D52" s="206" t="s">
         <v>927</v>
       </c>
       <c r="E52" s="104">
@@ -12417,15 +13007,15 @@
       <c r="F52" s="104">
         <v>1</v>
       </c>
-      <c r="G52" s="208" t="s">
+      <c r="G52" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="208" t="s">
+      <c r="H52" s="206" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="208" t="s">
+      <c r="D53" s="206" t="s">
         <v>928</v>
       </c>
       <c r="E53" s="104">
@@ -12434,18 +13024,18 @@
       <c r="F53" s="104">
         <v>1</v>
       </c>
-      <c r="G53" s="208" t="s">
+      <c r="G53" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="208" t="s">
+      <c r="H53" s="206" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="193" t="s">
+      <c r="B55" s="191" t="s">
         <v>855</v>
       </c>
-      <c r="D55" s="208" t="s">
+      <c r="D55" s="206" t="s">
         <v>929</v>
       </c>
       <c r="E55" s="104">
@@ -12454,15 +13044,15 @@
       <c r="F55" s="104">
         <v>1</v>
       </c>
-      <c r="G55" s="208" t="s">
+      <c r="G55" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="208" t="s">
+      <c r="H55" s="206" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="208" t="s">
+      <c r="D56" s="206" t="s">
         <v>930</v>
       </c>
       <c r="E56" s="104">
@@ -12471,15 +13061,15 @@
       <c r="F56" s="104">
         <v>1</v>
       </c>
-      <c r="G56" s="208" t="s">
+      <c r="G56" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="208" t="s">
+      <c r="H56" s="206" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="208" t="s">
+      <c r="D57" s="206" t="s">
         <v>931</v>
       </c>
       <c r="E57" s="104">
@@ -12488,18 +13078,18 @@
       <c r="F57" s="104">
         <v>1</v>
       </c>
-      <c r="G57" s="208" t="s">
+      <c r="G57" s="206" t="s">
         <v>932</v>
       </c>
-      <c r="H57" s="208" t="s">
+      <c r="H57" s="206" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="194" t="s">
+      <c r="B59" s="192" t="s">
         <v>744</v>
       </c>
-      <c r="D59" s="208" t="s">
+      <c r="D59" s="206" t="s">
         <v>941</v>
       </c>
       <c r="E59" s="104">
@@ -12508,10 +13098,10 @@
       <c r="F59" s="104">
         <v>1</v>
       </c>
-      <c r="G59" s="208" t="s">
+      <c r="G59" s="206" t="s">
         <v>768</v>
       </c>
-      <c r="H59" s="209" t="s">
+      <c r="H59" s="207" t="s">
         <v>943</v>
       </c>
     </row>
@@ -12525,10 +13115,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="210" t="s">
+      <c r="B62" s="208" t="s">
         <v>946</v>
       </c>
-      <c r="D62" s="210" t="s">
+      <c r="D62" s="208" t="s">
         <v>947</v>
       </c>
       <c r="E62" s="104">
@@ -12537,15 +13127,15 @@
       <c r="F62" s="104">
         <v>1</v>
       </c>
-      <c r="G62" s="210" t="s">
+      <c r="G62" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="H62" s="210" t="s">
+      <c r="H62" s="208" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="210" t="s">
+      <c r="D63" s="208" t="s">
         <v>948</v>
       </c>
       <c r="E63" s="104">
@@ -12554,15 +13144,15 @@
       <c r="F63" s="104">
         <v>1</v>
       </c>
-      <c r="G63" s="210" t="s">
+      <c r="G63" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="H63" s="210" t="s">
+      <c r="H63" s="208" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="210" t="s">
+      <c r="D64" s="208" t="s">
         <v>949</v>
       </c>
       <c r="E64" s="104">
@@ -12571,15 +13161,15 @@
       <c r="F64" s="104">
         <v>1</v>
       </c>
-      <c r="G64" s="210" t="s">
+      <c r="G64" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="H64" s="210" t="s">
+      <c r="H64" s="208" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D65" s="210" t="s">
+      <c r="D65" s="208" t="s">
         <v>950</v>
       </c>
       <c r="E65" s="104">
@@ -12588,15 +13178,15 @@
       <c r="F65" s="104">
         <v>1</v>
       </c>
-      <c r="G65" s="210" t="s">
+      <c r="G65" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="H65" s="210" t="s">
+      <c r="H65" s="208" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D66" s="210" t="s">
+      <c r="D66" s="208" t="s">
         <v>951</v>
       </c>
       <c r="E66" s="104">
@@ -12605,18 +13195,18 @@
       <c r="F66" s="104">
         <v>1</v>
       </c>
-      <c r="G66" s="210" t="s">
+      <c r="G66" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="210" t="s">
+      <c r="H66" s="208" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="210" t="s">
+      <c r="B68" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="D68" s="211" t="s">
+      <c r="D68" s="209" t="s">
         <v>958</v>
       </c>
       <c r="E68" s="104">
@@ -12625,15 +13215,15 @@
       <c r="F68" s="104">
         <v>1</v>
       </c>
-      <c r="G68" s="211" t="s">
+      <c r="G68" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="H68" s="211" t="s">
+      <c r="H68" s="209" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D69" s="211" t="s">
+      <c r="D69" s="209" t="s">
         <v>959</v>
       </c>
       <c r="E69" s="104">
@@ -12642,15 +13232,15 @@
       <c r="F69" s="104">
         <v>1</v>
       </c>
-      <c r="G69" s="211" t="s">
+      <c r="G69" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="211" t="s">
+      <c r="H69" s="209" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D70" s="211" t="s">
+      <c r="D70" s="209" t="s">
         <v>960</v>
       </c>
       <c r="E70" s="104">
@@ -12659,39 +13249,39 @@
       <c r="F70" s="104">
         <v>1</v>
       </c>
-      <c r="G70" s="211" t="s">
+      <c r="G70" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="H70" s="211" t="s">
+      <c r="H70" s="209" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="194" t="s">
+      <c r="B72" s="192" t="s">
         <v>744</v>
       </c>
-      <c r="D72" s="208" t="s">
+      <c r="D72" s="206" t="s">
         <v>941</v>
       </c>
       <c r="F72" s="104">
         <v>1</v>
       </c>
-      <c r="G72" s="208" t="s">
+      <c r="G72" s="206" t="s">
         <v>768</v>
       </c>
-      <c r="H72" s="210" t="s">
+      <c r="H72" s="208" t="s">
         <v>952</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12703,7 +13293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13858,16 +14448,16 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="217" t="s">
+      <c r="A80" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="216" t="s">
+      <c r="D80" s="214" t="s">
         <v>1036</v>
       </c>
       <c r="E80" s="104">
         <v>0.5</v>
       </c>
-      <c r="G80" s="216" t="s">
+      <c r="G80" s="214" t="s">
         <v>1044</v>
       </c>
       <c r="H80" s="169" t="s">
@@ -13875,13 +14465,13 @@
       </c>
     </row>
     <row r="81" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D81" s="216" t="s">
+      <c r="D81" s="214" t="s">
         <v>1037</v>
       </c>
       <c r="E81" s="104">
         <v>0.5</v>
       </c>
-      <c r="G81" s="216" t="s">
+      <c r="G81" s="214" t="s">
         <v>1044</v>
       </c>
       <c r="H81" s="169" t="s">
@@ -13889,13 +14479,13 @@
       </c>
     </row>
     <row r="82" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D82" s="216" t="s">
+      <c r="D82" s="214" t="s">
         <v>1038</v>
       </c>
       <c r="E82" s="104">
         <v>0.5</v>
       </c>
-      <c r="G82" s="216" t="s">
+      <c r="G82" s="214" t="s">
         <v>1044</v>
       </c>
       <c r="H82" s="169" t="s">
@@ -13903,13 +14493,13 @@
       </c>
     </row>
     <row r="83" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D83" s="216" t="s">
+      <c r="D83" s="214" t="s">
         <v>1039</v>
       </c>
       <c r="E83" s="104">
         <v>1</v>
       </c>
-      <c r="G83" s="216" t="s">
+      <c r="G83" s="214" t="s">
         <v>1044</v>
       </c>
       <c r="H83" s="169" t="s">
@@ -13921,13 +14511,13 @@
       </c>
     </row>
     <row r="84" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D84" s="216" t="s">
+      <c r="D84" s="214" t="s">
         <v>1041</v>
       </c>
       <c r="E84" s="104">
         <v>0.5</v>
       </c>
-      <c r="G84" s="216" t="s">
+      <c r="G84" s="214" t="s">
         <v>1044</v>
       </c>
       <c r="H84" s="169" t="s">
@@ -13935,13 +14525,13 @@
       </c>
     </row>
     <row r="85" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D85" s="216" t="s">
+      <c r="D85" s="214" t="s">
         <v>1042</v>
       </c>
       <c r="E85" s="104">
         <v>0.5</v>
       </c>
-      <c r="G85" s="216" t="s">
+      <c r="G85" s="214" t="s">
         <v>1044</v>
       </c>
       <c r="H85" s="169" t="s">
@@ -13949,13 +14539,13 @@
       </c>
     </row>
     <row r="86" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D86" s="216" t="s">
+      <c r="D86" s="214" t="s">
         <v>1043</v>
       </c>
       <c r="E86" s="104">
         <v>0.5</v>
       </c>
-      <c r="G86" s="216" t="s">
+      <c r="G86" s="214" t="s">
         <v>1044</v>
       </c>
       <c r="H86" s="169" t="s">
@@ -13963,13 +14553,13 @@
       </c>
     </row>
     <row r="87" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D87" s="217" t="s">
+      <c r="D87" s="215" t="s">
         <v>1040</v>
       </c>
       <c r="E87" s="104">
         <v>1</v>
       </c>
-      <c r="G87" s="216" t="s">
+      <c r="G87" s="214" t="s">
         <v>1044</v>
       </c>
       <c r="H87" s="169" t="s">
@@ -13982,14 +14572,14 @@
       <c r="M87" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="E1:H2">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:D67">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14272,7 +14862,7 @@
       <c r="A23" s="177" t="s">
         <v>828</v>
       </c>
-      <c r="B23" s="190"/>
+      <c r="B23" s="188"/>
       <c r="C23" s="177" t="s">
         <v>817</v>
       </c>
@@ -14290,7 +14880,7 @@
       <c r="F24" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G24" s="196" t="s">
+      <c r="G24" s="194" t="s">
         <v>820</v>
       </c>
     </row>
@@ -14304,7 +14894,7 @@
       <c r="F25" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G25" s="196" t="s">
+      <c r="G25" s="194" t="s">
         <v>834</v>
       </c>
     </row>
@@ -14318,7 +14908,7 @@
       <c r="F26" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G26" s="196" t="s">
+      <c r="G26" s="194" t="s">
         <v>835</v>
       </c>
     </row>
@@ -14332,7 +14922,7 @@
       <c r="F27" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G27" s="192" t="s">
+      <c r="G27" s="190" t="s">
         <v>836</v>
       </c>
     </row>
@@ -14346,7 +14936,7 @@
       <c r="F28" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G28" s="192" t="s">
+      <c r="G28" s="190" t="s">
         <v>841</v>
       </c>
     </row>
@@ -14360,7 +14950,7 @@
       <c r="F29" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G29" s="192" t="s">
+      <c r="G29" s="190" t="s">
         <v>842</v>
       </c>
     </row>
@@ -14374,7 +14964,7 @@
       <c r="F30" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G30" s="192" t="s">
+      <c r="G30" s="190" t="s">
         <v>843</v>
       </c>
     </row>
@@ -14388,7 +14978,7 @@
       <c r="F31" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G31" s="196" t="s">
+      <c r="G31" s="194" t="s">
         <v>821</v>
       </c>
     </row>
@@ -14402,7 +14992,7 @@
       <c r="F32" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G32" s="192" t="s">
+      <c r="G32" s="190" t="s">
         <v>844</v>
       </c>
     </row>
@@ -14416,7 +15006,7 @@
       <c r="F33" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G33" s="197" t="s">
+      <c r="G33" s="195" t="s">
         <v>822</v>
       </c>
     </row>
@@ -14811,14 +15401,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G51">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14827,6 +15417,336 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="145"/>
+    <col min="4" max="4" width="52.83203125" style="145" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="145"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="111"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="152" t="s">
+        <v>714</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="102" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" s="102" t="s">
+        <v>549</v>
+      </c>
+      <c r="K1" s="102" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="110" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="123" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H2" s="119"/>
+    </row>
+    <row r="3" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="216" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C3" s="165"/>
+      <c r="D3" s="216" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E3" s="113">
+        <v>1</v>
+      </c>
+      <c r="F3" s="112"/>
+      <c r="G3" s="217" t="s">
+        <v>615</v>
+      </c>
+      <c r="H3" s="217" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="216" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E4" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="112"/>
+      <c r="G4" s="217" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H4" s="217" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="216" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E5" s="113">
+        <v>1</v>
+      </c>
+      <c r="F5" s="112"/>
+      <c r="G5" s="217" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H5" s="217" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="216" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E6" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="112"/>
+      <c r="G6" s="217" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H6" s="217" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="216" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E7" s="113">
+        <v>1</v>
+      </c>
+      <c r="F7" s="112"/>
+      <c r="G7" s="217" t="s">
+        <v>698</v>
+      </c>
+      <c r="H7" s="217" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="216" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E8" s="113">
+        <v>1</v>
+      </c>
+      <c r="F8" s="112"/>
+      <c r="G8" s="217" t="s">
+        <v>698</v>
+      </c>
+      <c r="H8" s="217" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="216" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E9" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="112"/>
+      <c r="G9" s="217" t="s">
+        <v>698</v>
+      </c>
+      <c r="H9" s="217" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="216" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E10" s="113">
+        <v>1</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="G10" s="217" t="s">
+        <v>698</v>
+      </c>
+      <c r="H10" s="217" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="216" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E11" s="113">
+        <v>1</v>
+      </c>
+      <c r="F11" s="112"/>
+      <c r="G11" s="217" t="s">
+        <v>698</v>
+      </c>
+      <c r="H11" s="217" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="216" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E12" s="113">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="112"/>
+      <c r="G12" s="217" t="s">
+        <v>698</v>
+      </c>
+      <c r="H12" s="217" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="104" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="111">
+        <f>SUM(E3:E12)</f>
+        <v>8</v>
+      </c>
+      <c r="I13" s="111"/>
+      <c r="J13" s="115"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="145" t="s">
+        <v>855</v>
+      </c>
+      <c r="D15" s="216" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E15" s="145">
+        <v>1</v>
+      </c>
+      <c r="G15" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="217" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="216" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E16" s="145">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="217" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="216" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E17" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="217" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="111">
+        <f>SUM(E15:E17)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="D20" s="145" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G20" s="145" t="s">
+        <v>768</v>
+      </c>
+      <c r="H20" s="145" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <conditionalFormatting sqref="E1:H1">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AH199"/>
   <sheetViews>
@@ -26076,7 +26996,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AH189"/>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <conditionalFormatting sqref="AB4:AH18 B102:C104 D103:G104 B101:AH101 B133:G133 C134:G137 H88:H93 D102:AH102 I87:N93 P90:AB94 B94:N94 B124:I132 P4:Y18 B105:G114 B134:B139 C138:I139 H103:AH114 B183:C183 E183:AH183 E185:AH185 B185:C185 J184:AH184 J186:AH186 B187:C187 B145:C145 E187:AH187 H145:AH145 J158:AH158 J161:AH161 J164:AH164 J167:AH167 J170:AH170 J177:AH182 B157:AH157 B159:C160 E159:AH160 B162:C163 E162:AH163 B165:C166 E165:AH166 B168:C169 E168:AH169 J172:AH172 B171:C171 E171:AH171 B173:C173 J174:AH174 E173:AH173 B175:C176 E175:AH176 H133:I137 B122:AH123 J155:AH156 J25:AH25 B19:AH22 O71 AB71:AH84 B70:AH70 E154:AH154 B154:C154 B87:G93 AC86:AH94 AB86:AB89 P86:Y89 B86:N86 B98:N100 P98:AH100 AB51:AH64 J150:AH153 J115:AH121 J96:AH96 B36 I26:AH26 C26:G26 E65:E69 B4:N18 B65:B69 P71:Y84 B39:AH50 B35:AH35 B71:N84 B51:Y64 C27:AH34 C23:AH24 B23:B34 J124:AH144 N146 A3:AH3">
     <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"TBD"</formula>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -111,13 +111,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1135">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -127,7 +127,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -137,44 +137,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -184,7 +184,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -197,14 +197,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -214,54 +214,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -271,47 +271,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -321,87 +321,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -417,58 +417,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -478,59 +478,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -540,157 +540,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -709,7 +709,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -731,7 +731,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -747,7 +747,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -763,7 +763,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -797,67 +797,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -894,7 +894,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -904,7 +904,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -926,21 +926,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -950,7 +950,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -969,11 +969,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -998,385 +998,385 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>文档反馈</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>文档分析</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>数值反馈</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>客户端开发</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>客户端缩减后</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>客户端分工</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>服务器开发</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>服务器缩减后</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>服务器分工</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>开发备注</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>策划配置缩减后</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>配置bug修复</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>用例</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>测试分工</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>QA备注</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物基础架构</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-AI</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-UI</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-换宠</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
   </si>
   <si>
     <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-道具使用</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>目前看来被抓宠封妖完全包括了</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>只包含抓宠的道具使用</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>抓宠、封妖</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>对局，技能动画表现</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>技能-大招操作*6</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>副本基础逻辑</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>非同步pve</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>副本-照妖镜</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>副本结算功能</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落表现</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -1386,565 +1386,565 @@
   </si>
   <si>
     <t>副本星级评价</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>副本托管</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>ts，雷神</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>任务系统功能</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>村落</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>村落功能（UI表现）</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不确定服务器什么功能</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宠物阵型</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面（包括上阵宠物选择）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物升星</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>0..25</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成（炼妖）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物繁殖（交互）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>角色界面</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物是否有额外服务器功能？</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>称号系统--vip，竞技场</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>道具-宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>玩家装备套装系统</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>是否和装备功能重合？</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不包含套装配置测试</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不包含装备内容配置测试</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备进阶</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备宝石</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备洗炼</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不包括支付、渠道等</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>NPC商店</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>VIP</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>月卡</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>拍卖行</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>邮箱-主要用于系统发信</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>好友</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础管理，任务（放在任务界面），商店</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>创建角色</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>账号，登录，注册，切换账号</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>我们内部测试帐号，不包括各个渠道</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>断线处理</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>服务器选择，服务器分流，公告</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>指引界面-活动</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>版本检测，更新功能</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>loading界面</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>消息推送功能（百度推送？）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>通知--家园、大冒险、邮箱</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>敏感词、屏蔽词</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>抽卡</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>活动功能框架</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>答题</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>BossRush</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>稀有探索玩法</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>狩猎场</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>擂台</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>公会战</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>公会副本</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>缺少副本内容条目，时间估算在这里</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>家园</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>世界boss</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>同步玩法重新写</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>地藏宫殿</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>基于同步玩法</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>激活码-邀请福利等运营相关活动</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>支付功能（各SDK接入）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>zz，文生</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不是太清楚，接入量未知</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>测试时间不可预估</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
     <t>运营工具</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>是否是gm工具？</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>美术资源需求模板</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>程序开发规范和约定</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>发布流程</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>关卡编辑器</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>也许可以不用测试</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>导表工具</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>几种表格未知</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>版本自动打包、发布工具</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>测试工具</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>兼容性测试，性能测试</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1960,7 +1960,7 @@
       </rPr>
       <t>（角色、宠物）</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1985,11 +1985,11 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>雷神，ts</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,71 +2014,71 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>AI</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>10套（勤奋5+倾向5）</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>物攻*6</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>法攻*15</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>buff or debuff*14</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>大招*23 （操作表现几套？）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>其他*2</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>队长+友情*36</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>boss技能*16</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>被动技能*30（怪物倾向性设计）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>CP技能（待设计第一期不强需求）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2103,7 +2103,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2128,7 +2128,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2153,233 +2153,233 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>公会任务*20个</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>特殊进化任务32个</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>Avatar</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宠物表现、技能、数值</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>村落配置</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>装备内容包括属性（进化等）100-200件</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>角色装备10套以下</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>高阶人型*15（3D、动作、特效）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>普通兽型*30（3D、动作、特效）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>纯材料*3（3D、动作、特效）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>boss*8（3D、动作、特效）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>boss进化*3（3D、动作、特效）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>高阶兽型*7（3D、动作、特效）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>进化配方设计*8（3D、动作、特效）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>NPC</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>妲己</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>男身体</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>男头（免费）*3</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>男头（付费）*3</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>女身体</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>女头（免费）*3</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>女头（付费）*3</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个（8个建筑物）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物-100-200件</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>角色10套以下</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>策划时间</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减前</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减后</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>美术原画</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>美术外包</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
@@ -2395,7 +2395,7 @@
   </si>
   <si>
     <t>总人天</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
@@ -2420,23 +2420,23 @@
   </si>
   <si>
     <t>纯材料</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>角色*2性别</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>角色套装4套*2性别</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>角色-头6*2性别</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>角色-NPC-妲己</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
@@ -2449,98 +2449,98 @@
   </si>
   <si>
     <t>图标-技能</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>图标-道具120-160</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>怪物头像</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>活动*1个</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">任务配置、数据结构 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>统计数据&amp;任务目标映射</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务交付</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">每日任务刷新 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">活动、商城相关数据统计&amp;任务更新 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>其他待拆</t>
@@ -2553,31 +2553,31 @@
     <rPh sb="3" eb="4">
       <t>chai</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-676</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-677</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-678</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务初始化</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务更新框架</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>原预期时间</t>
@@ -2593,7 +2593,7 @@
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2603,7 +2603,7 @@
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2619,7 +2619,7 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2632,179 +2632,179 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>6月1日</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月6日</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>6月30日</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局表现</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>相机运动</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>动画范围-新增mesh、光照变化</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>另外，策划需要0.2天测试光照</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>转向</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>轴锁定、Attach</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-血条动画</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-掉血弹数字动画</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff图标替代规则修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-ui挂特效-如大招</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-集火UI能挂在弱点上</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff去掉图标</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-ui增加能量条</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-换怪特效</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点受击特效</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点死亡表现</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-进程动画具体设计</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-开战动画</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-胜利失败动画</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局动画- 前置动画删除了</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-取消集火逻辑</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-加速</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-服务器客户端上阵宠物数据同步</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-切换条件判定、对局成功失败条件判定</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-副本对局配置拆大表</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>副本对局配置拆大表</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>5月27日</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>1. 对局-集火敌人ui提示</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2. 集火弱点功能</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>3. Boss进程调整</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>4. 换宠ui</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
@@ -2814,29 +2814,29 @@
     <rPh sb="2" eb="3">
       <t>cha</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'cha</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jain'cha</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>速度计算调整</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>多个怪物同时死亡的死亡表现</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>法术大招升格时机调整 与ZZ联调</t>
@@ -2846,19 +2846,19 @@
   </si>
   <si>
     <t>照妖镜基本操作修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜提示信息方式及内容修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>战后回血</t>
@@ -2871,7 +2871,7 @@
     <rPh sb="3" eb="4">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>暴击动画调整</t>
@@ -2884,7 +2884,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜特效层级修改（待确认需求)</t>
@@ -2897,11 +2897,11 @@
     <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>弱点加入是否可打断（待确认需求)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>物理大招添加combo</t>
@@ -2911,31 +2911,31 @@
     <rPh sb="2" eb="3">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-726</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>升格动画加入到动画配置</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-727</t>
@@ -2954,23 +2954,23 @@
   </si>
   <si>
     <t>MG-733</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>区分物理大招、法术大招聚气、爆气，修改为事件动画</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">区分物理大招、法术大招幕布 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-734</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>大招统计数据UI修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-735</t>
@@ -2986,89 +2986,89 @@
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>对局战后回血特效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>集火UI、开战动画改为英文版“Fight”、托管和手动的UI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>被动换怪（怪物死亡）的怪物消失特效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2、3、4、6</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>5、7</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>物理大招聚气与爆气</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>物理大招，法术大招幕布</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>法术大招特写释放特效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>物理大招特写释放特效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>物理大招combo提示</t>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>5,6</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>法术，物理大招特写特效配置</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务 对应程序任务</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>对局-弱点碰撞组功能</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-783</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月21日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
@@ -3078,7 +3078,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>buff并存、替代规则</t>
@@ -3091,7 +3091,7 @@
     <rPh sb="9" eb="10">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>区分对局一开始释放一次被动，换上阵不释放</t>
@@ -3122,7 +3122,7 @@
     <rPh sb="17" eb="18">
       <t>bu'shi'fang</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>换上也生效类处理或换下或者死亡移除（光环类）</t>
@@ -3162,7 +3162,7 @@
     <rPh sb="20" eb="21">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>驱散功能</t>
@@ -3172,7 +3172,7 @@
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>行动累积</t>
@@ -3182,14 +3182,14 @@
     <rPh sb="2" eb="3">
       <t>lei'ji</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽</t>
     <rPh sb="0" eb="1">
       <t>chao'feng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>减伤护盾</t>
@@ -3199,7 +3199,7 @@
     <rPh sb="2" eb="3">
       <t>hu'dun</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>击晕，打断，表现</t>
@@ -3212,7 +3212,7 @@
     <rPh sb="6" eb="7">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>触发条件配置表</t>
@@ -3225,7 +3225,7 @@
     <rPh sb="4" eb="5">
       <t>pei'zhi'biao</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>血量置数</t>
@@ -3241,27 +3241,27 @@
     <rPh sb="8" eb="9">
       <t>biao'xianxue'liangzhishu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-806</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>技能配置表，buff配置表修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>增加buff伤害反应，技能释放反应，死亡反应，致死反应</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">先置技能ui显示 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>被动技能的反应会导致当前行动的时间被延长</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>被动技能开场释放</t>
@@ -3271,18 +3271,18 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>新增buff可提升的属性</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-846</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-847</t>
@@ -3349,38 +3349,38 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>配置表读取</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>UI音效组件</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>背景音乐，音效播放</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>伤害公式，3D受击表现</t>
@@ -3396,23 +3396,23 @@
     <rPh sb="9" eb="10">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>吸收护盾UI表现</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-862</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效管理器</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-915</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-913</t>
@@ -3431,30 +3431,30 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>13、14、15、16、17</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-703</t>
   </si>
   <si>
     <t>MG-703</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-730</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -3464,93 +3464,93 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-704</t>
   </si>
   <si>
     <t>MG-704</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-455</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-457</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-456</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-476</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-517</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-396</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-397</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-408</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-304 MG-453 MG-514</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MG-303 </t>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-effect增加命中关联</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-反伤</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-触发一个行动</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-917</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-918</t>
@@ -3560,11 +3560,11 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>等待验收&amp;测试</t>
@@ -3577,21 +3577,21 @@
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-967</t>
   </si>
   <si>
     <t>MG-967</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>大招美术需求</t>
@@ -3604,11 +3604,11 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-410</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
@@ -3624,37 +3624,37 @@
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">看信+收取+全部收取 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月10日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-972</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-971</t>
@@ -3685,40 +3685,40 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
     <rPh sb="0" eb="1">
       <t>yagn'xue</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月21日</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1050</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI调整</t>
@@ -3728,7 +3728,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>受击动作（触发条件，触发事件）</t>
@@ -3750,22 +3750,22 @@
     <rPh sb="12" eb="13">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-987</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月15日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，被动技能tips</t>
@@ -3778,47 +3778,47 @@
     <rPh sb="9" eb="10">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1016</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月20日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1055</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>slotIcon封装</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">装备弹出UI封装 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>非装备道具Tips（ 包含位置自动调整）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1058</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1056</t>
@@ -3843,23 +3843,23 @@
     <rPh sb="9" eb="10">
       <t>lie'b</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>装备属性界面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>装备列表ui</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>同步客户端装备信息</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1098</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1097</t>
@@ -3869,11 +3869,11 @@
   </si>
   <si>
     <t>宠物详情界面、装备列表、装备详情界面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1100</t>
@@ -3892,19 +3892,19 @@
     <rPh sb="7" eb="8">
       <t>bao'shi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>强化进阶界面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>开孔和镶嵌界面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1145</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1146</t>
@@ -3917,153 +3917,153 @@
   </si>
   <si>
     <t>宝石属性及合成表，接口部分</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宝石选择列表界面</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化进阶、宝石镶嵌、宝石列表界面</t>
   </si>
   <si>
     <t>MG-1160</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ui </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>输入框超出像左移动,最多输入限制</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>玩家发言间隔</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>切换聊天频道</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>聊天频道划分</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hd'uuan</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'wu'qi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务器-IM-公共频道，公会频道</t>
   </si>
   <si>
     <t>MG-1022</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1176</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1177</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1178</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽功能</t>
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店物品购买和刷新  </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商城                  </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">月卡和钻石兑换金币      </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>IM翻译功能（新版API变复杂了）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务端http库的升级与扩展，IM翻译功能 -网络功能</t>
     <rPh sb="25" eb="26">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>Im功能补充 -增加公告、走马灯等系统消息</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>玩家发消息,显示服务器消息解析</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>商店配置和数据格式设计</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1180</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1181</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1182</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示排版</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>最多可查看50行消息</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>手指滑动聊天框一系列功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>走马灯,系统公告,提示信息</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1183</t>
@@ -4076,29 +4076,29 @@
   </si>
   <si>
     <t>MG-1186</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1187</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1122</t>
   </si>
   <si>
     <t>MG-1188</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1189</t>
   </si>
   <si>
     <t>MG-1113</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1190</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1191</t>
@@ -4117,18 +4117,18 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'h'd</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1217</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1218</t>
@@ -4144,53 +4144,53 @@
   </si>
   <si>
     <t>商店商城与服务器联调</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>商城UI与数据</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>商店弹出框开发</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>商店UI与逻辑开发</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店数据封装 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>IM界面、玩家菜单、走马灯、系统提示、系统公告UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1239</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>商店（普通、公会）+商城UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1238</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1246</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1247</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>商城-支付服务器</t>
@@ -4203,7 +4203,7 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>点玩家名弹出界面</t>
@@ -4219,46 +4219,46 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1243</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本结算，复活</t>
   </si>
   <si>
     <t>2015年09月23日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">结算，复活ui </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>怪物走出来功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>复活逻辑</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶材料修改，UI修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表项，装备显示（无，已装备）</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表，技能图标</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表-描述超长换行</t>
@@ -4271,7 +4271,7 @@
     <rPh sb="11" eb="12">
       <t>huan'hang</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面UI替换</t>
@@ -4284,15 +4284,15 @@
     <rPh sb="6" eb="7">
       <t>ti'huan</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1194</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1259</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1260</t>
@@ -4305,7 +4305,7 @@
   </si>
   <si>
     <t>MG-1287</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1288</t>
@@ -4315,19 +4315,19 @@
   </si>
   <si>
     <t>掉落修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>结算修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>复活</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1295</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1296</t>
@@ -4352,11 +4352,11 @@
   </si>
   <si>
     <t>2015年09月30日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑（一些流程修改）</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>宠物升级功能</t>
@@ -4369,36 +4369,36 @@
     <rPh sb="4" eb="5">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1331</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1332</t>
   </si>
   <si>
     <t>结算联调</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>zz 小珍</t>
     <rPh sb="3" eb="4">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1294</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1333</t>
   </si>
   <si>
     <t>MG-1334</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1335</t>
@@ -4408,68 +4408,68 @@
   </si>
   <si>
     <t>MG-1342</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
     <rPh sb="0" eb="1">
       <t>shang'dian</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
       <t>bei'b</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月10日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>背包主UI开发</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>开宝箱</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>消耗品使用（双倍经验，三倍经验，疲劳药）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>出售功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>与服务器联调</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>批量开宝箱</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>批量卖</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>双倍、三倍经验</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'sh</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1369</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1367</t>
@@ -4494,22 +4494,22 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>s'f</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1375</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月23日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>道具合成分解</t>
@@ -4522,42 +4522,42 @@
     <rPh sb="4" eb="5">
       <t>fen'jie</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'h'duan</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成界面UI  </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成结果UI  </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>分解界面UI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">分解的筛选方式   </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成分解服务器联调   </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1480</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1481</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1482</t>
@@ -4576,19 +4576,19 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务器-分解</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务器-连调</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1489</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1487</t>
@@ -4601,11 +4601,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月28日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本选择大地图（选择章节）</t>
@@ -4621,7 +4621,7 @@
     <rPh sb="1" eb="2">
       <t>zhen</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>纯2D画的方式</t>
@@ -4640,7 +4640,7 @@
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
@@ -4650,14 +4650,14 @@
     <rPh sb="0" eb="1">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>主界面，村落，角色升级</t>
@@ -4676,7 +4676,7 @@
     <rPh sb="9" eb="10">
       <t>sheng'ji</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
@@ -4689,30 +4689,30 @@
     <rPh sb="0" eb="1">
       <t>ke'h'dua</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>镜头调整</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>场景编辑，选中效果</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>村落场景添加到流程</t>
@@ -4722,11 +4722,11 @@
     <rPh sb="2" eb="3">
       <t>chang'jing</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>方案1</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>章节选择</t>
@@ -4736,7 +4736,7 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
@@ -4746,19 +4746,19 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>配置修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1503</t>
@@ -4774,7 +4774,7 @@
   </si>
   <si>
     <t>副本选择（选择副本）</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1498</t>
@@ -4793,25 +4793,25 @@
   </si>
   <si>
     <t>MG-1496</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1495</t>
   </si>
   <si>
     <t>MG-1495</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月02日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>活力值</t>
     <rPh sb="0" eb="1">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>活力值自动恢复 0.5d</t>
@@ -4827,19 +4827,19 @@
   </si>
   <si>
     <t>活力值系统开发与联调</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1550</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1547</t>
@@ -4852,22 +4852,22 @@
   </si>
   <si>
     <t>MG-1546</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>UI-活力值</t>
     <rPh sb="3" eb="4">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1551</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
@@ -4877,7 +4877,7 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>客户端宠物图鉴UI</t>
@@ -4890,11 +4890,11 @@
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务器联调 </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
@@ -4904,7 +4904,7 @@
     <rPh sb="2" eb="3">
       <t>he'cheng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
@@ -4917,7 +4917,7 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴-UI</t>
@@ -4927,18 +4927,18 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>新需求</t>
     <rPh sb="0" eb="1">
       <t>xin'xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>场地buff添加</t>
@@ -4951,7 +4951,7 @@
     <rPh sb="6" eb="7">
       <t>tian'jia</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>buff消失事件触发</t>
@@ -4964,7 +4964,7 @@
     <rPh sb="8" eb="9">
       <t>chu'fa</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>攻击为0的情况处理</t>
@@ -4983,7 +4983,7 @@
     <rPh sb="7" eb="8">
       <t>chu'li</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>物理免疫法术免疫</t>
@@ -4999,34 +4999,34 @@
     <rPh sb="6" eb="7">
       <t>mian'yi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">无法回复buff </t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>switch添加检测目标功能</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>宝石属性配置修改，添加到技能，伤害公式修改</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1618</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1596</t>
@@ -5039,21 +5039,21 @@
   </si>
   <si>
     <t>MG-1599</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1595</t>
   </si>
   <si>
     <t>MG-1621</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1620</t>
   </si>
   <si>
     <t>MG-1587</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1588</t>
@@ -5078,91 +5078,91 @@
   </si>
   <si>
     <t>2015年11月13日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-配置数据结构添加</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-村落切特写镜头</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔特写镜头ui提示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-流程添加 结算</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔(经验,金币)+通天塔BOSS UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔刷新</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-开启时间+奖励展示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">通天塔-通天塔(经验,金币)入口+难度选择 </t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-阶段奖励 + 副本状态</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔界面动画</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'hu'd</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-配置</t>
@@ -5175,7 +5175,7 @@
     <rPh sb="8" eb="9">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-两种入口</t>
@@ -5191,7 +5191,7 @@
     <rPh sb="10" eb="11">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-刷新</t>
@@ -5204,19 +5204,19 @@
     <rPh sb="8" eb="9">
       <t>shua'xin</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1669</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1666</t>
@@ -5262,11 +5262,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月14日</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整</t>
@@ -5279,14 +5279,14 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'sh</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整-服务器</t>
@@ -5302,15 +5302,15 @@
     <rPh sb="7" eb="8">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-659</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择-UI</t>
@@ -5320,29 +5320,29 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'f</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>MG-1679</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月18日</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜</t>
@@ -5352,7 +5352,7 @@
     <rPh sb="3" eb="4">
       <t>zhao'yao'jing</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>集火逻辑修改</t>
@@ -5374,19 +5374,19 @@
   </si>
   <si>
     <t>照妖镜 鉴定弱点过程修改（鉴定表现，完成表现，ui选择表现）</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>弱点配置结果修改</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>其它：</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1683</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1684</t>
@@ -5399,36 +5399,103 @@
   </si>
   <si>
     <t>弱点对应UI的显示（根据弱点状态）</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
     <rPh sb="0" eb="1">
       <t>te'xiao</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>MG-1681</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-大招&amp;其他修改</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月20日</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">技能名称提示，伤害数字显示规则调整 大招飞进来 </t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消开战，副本进度 ，对局ui出现消失规则</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性显示，加速响应调整</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招幕布技能名</t>
+    <rPh sb="0" eb="1">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ming</t>
+    </rPh>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1713</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1744</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1745</t>
   </si>
 </sst>
 </file>
@@ -5438,7 +5505,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5446,6 +5513,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6014,524 +6088,525 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="61" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="62" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -7509,10 +7584,10 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
+      <selection pane="bottomRight" activeCell="H131" sqref="H130:H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -9525,14 +9600,80 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="139" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="106" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B128" s="109"/>
+      <c r="C128" s="158"/>
+      <c r="D128" s="106" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="129" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D129" s="221" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E129" s="104">
+        <v>1</v>
+      </c>
+      <c r="G129" s="221" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" s="221" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="130" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D130" s="221" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E130" s="104">
+        <v>1</v>
+      </c>
+      <c r="G130" s="221" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H130" s="221" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="131" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D131" s="221" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E131" s="104">
+        <v>1</v>
+      </c>
+      <c r="G131" s="221" t="s">
+        <v>46</v>
+      </c>
+      <c r="H131" s="221" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="132" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D132" s="221" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E132" s="104">
+        <v>0.1</v>
+      </c>
+      <c r="G132" s="221" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H132" s="221" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="139" spans="4:10" x14ac:dyDescent="0.25">
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 G139:J139 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
     <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>"未完成"</formula>
@@ -10860,7 +11001,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="B2:H8">
     <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
       <formula>"未完成"</formula>
@@ -11751,7 +11892,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="B2:I3 B4:G4 I4:I5 B13:I18 D12:H12 D6:I11 D5:G5 B5:C12">
     <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"未完成"</formula>
@@ -12303,7 +12444,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 J2:J5 B2:I28">
     <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"未完成"</formula>
@@ -13274,7 +13415,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -14572,7 +14713,7 @@
       <c r="M87" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="E1:H2">
     <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -15401,7 +15542,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -15736,7 +15877,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"未完成"</formula>
@@ -26996,7 +27137,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AH189"/>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="AB4:AH18 B102:C104 D103:G104 B101:AH101 B133:G133 C134:G137 H88:H93 D102:AH102 I87:N93 P90:AB94 B94:N94 B124:I132 P4:Y18 B105:G114 B134:B139 C138:I139 H103:AH114 B183:C183 E183:AH183 E185:AH185 B185:C185 J184:AH184 J186:AH186 B187:C187 B145:C145 E187:AH187 H145:AH145 J158:AH158 J161:AH161 J164:AH164 J167:AH167 J170:AH170 J177:AH182 B157:AH157 B159:C160 E159:AH160 B162:C163 E162:AH163 B165:C166 E165:AH166 B168:C169 E168:AH169 J172:AH172 B171:C171 E171:AH171 B173:C173 J174:AH174 E173:AH173 B175:C176 E175:AH176 H133:I137 B122:AH123 J155:AH156 J25:AH25 B19:AH22 O71 AB71:AH84 B70:AH70 E154:AH154 B154:C154 B87:G93 AC86:AH94 AB86:AB89 P86:Y89 B86:N86 B98:N100 P98:AH100 AB51:AH64 J150:AH153 J115:AH121 J96:AH96 B36 I26:AH26 C26:G26 E65:E69 B4:N18 B65:B69 P71:Y84 B39:AH50 B35:AH35 B71:N84 B51:Y64 C27:AH34 C23:AH24 B23:B34 J124:AH144 N146 A3:AH3">
     <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"TBD"</formula>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="460" windowWidth="31440" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="40020" yWindow="520" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1145">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -127,7 +127,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -137,44 +137,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -184,7 +184,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -197,14 +197,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -214,54 +214,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -271,47 +271,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -321,87 +321,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -417,58 +417,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -478,59 +478,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -540,157 +540,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -709,7 +709,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -731,7 +731,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -747,7 +747,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -763,7 +763,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -797,67 +797,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -894,7 +894,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -904,7 +904,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -926,21 +926,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -950,7 +950,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -969,11 +969,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -998,385 +998,385 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>文档反馈</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>文档分析</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>数值反馈</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>客户端开发</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>客户端缩减后</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>客户端分工</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>服务器开发</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>服务器缩减后</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>服务器分工</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>开发备注</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>策划配置缩减后</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>配置bug修复</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>用例</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>测试分工</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>QA备注</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物基础架构</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-AI</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-UI</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-换宠</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
   </si>
   <si>
     <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-道具使用</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>目前看来被抓宠封妖完全包括了</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>只包含抓宠的道具使用</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>抓宠、封妖</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>对局，技能动画表现</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>技能-大招操作*6</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本基础逻辑</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>非同步pve</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>副本-照妖镜</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>副本结算功能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落表现</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -1386,565 +1386,565 @@
   </si>
   <si>
     <t>副本星级评价</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本托管</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>ts，雷神</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>任务系统功能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>村落</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>村落功能（UI表现）</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>不确定服务器什么功能</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物阵型</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面（包括上阵宠物选择）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物升星</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>0..25</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成（炼妖）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物繁殖（交互）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>角色界面</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物是否有额外服务器功能？</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>称号系统--vip，竞技场</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>道具-宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>玩家装备套装系统</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>是否和装备功能重合？</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>不包含套装配置测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>不包含装备内容配置测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备进阶</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备宝石</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备洗炼</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>不包括支付、渠道等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>NPC商店</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>VIP</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>月卡</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>拍卖行</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>邮箱-主要用于系统发信</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>好友</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础管理，任务（放在任务界面），商店</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>创建角色</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>账号，登录，注册，切换账号</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>我们内部测试帐号，不包括各个渠道</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>断线处理</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>服务器选择，服务器分流，公告</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>指引界面-活动</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>版本检测，更新功能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>loading界面</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>消息推送功能（百度推送？）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>通知--家园、大冒险、邮箱</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>敏感词、屏蔽词</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>抽卡</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>活动功能框架</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>答题</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>BossRush</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>稀有探索玩法</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>狩猎场</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>擂台</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>公会战</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>公会副本</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>缺少副本内容条目，时间估算在这里</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>家园</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>世界boss</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>同步玩法重新写</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>地藏宫殿</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>基于同步玩法</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>激活码-邀请福利等运营相关活动</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>支付功能（各SDK接入）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>zz，文生</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>不是太清楚，接入量未知</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>测试时间不可预估</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
     <t>运营工具</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>是否是gm工具？</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>美术资源需求模板</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>程序开发规范和约定</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>发布流程</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>关卡编辑器</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>也许可以不用测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>导表工具</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>几种表格未知</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>版本自动打包、发布工具</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>测试工具</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>兼容性测试，性能测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1960,7 +1960,7 @@
       </rPr>
       <t>（角色、宠物）</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1985,11 +1985,11 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>雷神，ts</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,71 +2014,71 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>AI</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>10套（勤奋5+倾向5）</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>物攻*6</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>法攻*15</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>buff or debuff*14</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>大招*23 （操作表现几套？）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>其他*2</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>队长+友情*36</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>boss技能*16</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>被动技能*30（怪物倾向性设计）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>CP技能（待设计第一期不强需求）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2103,7 +2103,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2128,7 +2128,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2153,233 +2153,233 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>公会任务*20个</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>特殊进化任务32个</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>Avatar</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物表现、技能、数值</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>村落配置</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>装备内容包括属性（进化等）100-200件</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>角色装备10套以下</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>高阶人型*15（3D、动作、特效）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>普通兽型*30（3D、动作、特效）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>纯材料*3（3D、动作、特效）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>boss*8（3D、动作、特效）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>boss进化*3（3D、动作、特效）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>高阶兽型*7（3D、动作、特效）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>进化配方设计*8（3D、动作、特效）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>NPC</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>妲己</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>男身体</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>男头（免费）*3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>男头（付费）*3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>女身体</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>女头（免费）*3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>女头（付费）*3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个（8个建筑物）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物-100-200件</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>角色10套以下</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>策划时间</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减前</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减后</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>美术原画</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>美术外包</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
@@ -2395,7 +2395,7 @@
   </si>
   <si>
     <t>总人天</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
@@ -2420,23 +2420,23 @@
   </si>
   <si>
     <t>纯材料</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>角色*2性别</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>角色套装4套*2性别</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>角色-头6*2性别</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>角色-NPC-妲己</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
@@ -2449,98 +2449,98 @@
   </si>
   <si>
     <t>图标-技能</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>图标-道具120-160</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>怪物头像</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>活动*1个</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">任务配置、数据结构 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>统计数据&amp;任务目标映射</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务交付</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">每日任务刷新 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">活动、商城相关数据统计&amp;任务更新 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>其他待拆</t>
@@ -2553,31 +2553,31 @@
     <rPh sb="3" eb="4">
       <t>chai</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-676</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-677</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-678</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务初始化</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务更新框架</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>原预期时间</t>
@@ -2593,7 +2593,7 @@
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2603,7 +2603,7 @@
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2619,7 +2619,7 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2632,179 +2632,179 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>6月1日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月6日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>6月30日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局表现</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>相机运动</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>动画范围-新增mesh、光照变化</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>另外，策划需要0.2天测试光照</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>转向</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>轴锁定、Attach</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-血条动画</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-掉血弹数字动画</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff图标替代规则修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-ui挂特效-如大招</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-集火UI能挂在弱点上</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff去掉图标</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-ui增加能量条</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-换怪特效</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点受击特效</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点死亡表现</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-进程动画具体设计</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-开战动画</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-胜利失败动画</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局动画- 前置动画删除了</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-取消集火逻辑</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-加速</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-服务器客户端上阵宠物数据同步</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-切换条件判定、对局成功失败条件判定</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-副本对局配置拆大表</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>副本对局配置拆大表</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>5月27日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>1. 对局-集火敌人ui提示</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2. 集火弱点功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>3. Boss进程调整</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>4. 换宠ui</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
@@ -2814,29 +2814,29 @@
     <rPh sb="2" eb="3">
       <t>cha</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'cha</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jain'cha</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>速度计算调整</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>多个怪物同时死亡的死亡表现</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>法术大招升格时机调整 与ZZ联调</t>
@@ -2846,19 +2846,19 @@
   </si>
   <si>
     <t>照妖镜基本操作修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜提示信息方式及内容修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>战后回血</t>
@@ -2871,7 +2871,7 @@
     <rPh sb="3" eb="4">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>暴击动画调整</t>
@@ -2884,7 +2884,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜特效层级修改（待确认需求)</t>
@@ -2897,11 +2897,11 @@
     <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>弱点加入是否可打断（待确认需求)</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>物理大招添加combo</t>
@@ -2911,31 +2911,31 @@
     <rPh sb="2" eb="3">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-726</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>升格动画加入到动画配置</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-727</t>
@@ -2954,23 +2954,23 @@
   </si>
   <si>
     <t>MG-733</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>区分物理大招、法术大招聚气、爆气，修改为事件动画</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">区分物理大招、法术大招幕布 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-734</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>大招统计数据UI修改</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-735</t>
@@ -2986,89 +2986,89 @@
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对局战后回血特效</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>集火UI、开战动画改为英文版“Fight”、托管和手动的UI</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>被动换怪（怪物死亡）的怪物消失特效</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2、3、4、6</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>5、7</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>物理大招聚气与爆气</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>物理大招，法术大招幕布</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>法术大招特写释放特效</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>物理大招特写释放特效</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>物理大招combo提示</t>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>5,6</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>法术，物理大招特写特效配置</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务 对应程序任务</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对局-弱点碰撞组功能</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-783</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月21日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
@@ -3078,7 +3078,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>buff并存、替代规则</t>
@@ -3091,7 +3091,7 @@
     <rPh sb="9" eb="10">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>区分对局一开始释放一次被动，换上阵不释放</t>
@@ -3122,7 +3122,7 @@
     <rPh sb="17" eb="18">
       <t>bu'shi'fang</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>换上也生效类处理或换下或者死亡移除（光环类）</t>
@@ -3162,7 +3162,7 @@
     <rPh sb="20" eb="21">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>驱散功能</t>
@@ -3172,7 +3172,7 @@
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>行动累积</t>
@@ -3182,14 +3182,14 @@
     <rPh sb="2" eb="3">
       <t>lei'ji</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽</t>
     <rPh sb="0" eb="1">
       <t>chao'feng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>减伤护盾</t>
@@ -3199,7 +3199,7 @@
     <rPh sb="2" eb="3">
       <t>hu'dun</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>击晕，打断，表现</t>
@@ -3212,7 +3212,7 @@
     <rPh sb="6" eb="7">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>触发条件配置表</t>
@@ -3225,7 +3225,7 @@
     <rPh sb="4" eb="5">
       <t>pei'zhi'biao</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>血量置数</t>
@@ -3241,27 +3241,27 @@
     <rPh sb="8" eb="9">
       <t>biao'xianxue'liangzhishu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-806</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>技能配置表，buff配置表修改</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>增加buff伤害反应，技能释放反应，死亡反应，致死反应</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">先置技能ui显示 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>被动技能的反应会导致当前行动的时间被延长</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>被动技能开场释放</t>
@@ -3271,18 +3271,18 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>新增buff可提升的属性</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-846</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-847</t>
@@ -3349,38 +3349,38 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>配置表读取</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>UI音效组件</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>背景音乐，音效播放</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>伤害公式，3D受击表现</t>
@@ -3396,23 +3396,23 @@
     <rPh sb="9" eb="10">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>吸收护盾UI表现</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-862</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效管理器</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-915</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-913</t>
@@ -3431,30 +3431,30 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>13、14、15、16、17</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-703</t>
   </si>
   <si>
     <t>MG-703</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-730</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -3464,93 +3464,93 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-704</t>
   </si>
   <si>
     <t>MG-704</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-455</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-457</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-456</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-476</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-517</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-396</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-397</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-408</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-304 MG-453 MG-514</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MG-303 </t>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-effect增加命中关联</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-反伤</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-触发一个行动</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-917</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-918</t>
@@ -3560,11 +3560,11 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>等待验收&amp;测试</t>
@@ -3577,21 +3577,21 @@
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-967</t>
   </si>
   <si>
     <t>MG-967</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>大招美术需求</t>
@@ -3604,11 +3604,11 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-410</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
@@ -3624,37 +3624,37 @@
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">看信+收取+全部收取 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月10日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-972</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-971</t>
@@ -3685,40 +3685,40 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
     <rPh sb="0" eb="1">
       <t>yagn'xue</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月21日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1050</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI调整</t>
@@ -3728,7 +3728,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>受击动作（触发条件，触发事件）</t>
@@ -3750,22 +3750,22 @@
     <rPh sb="12" eb="13">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-987</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月15日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，被动技能tips</t>
@@ -3778,47 +3778,47 @@
     <rPh sb="9" eb="10">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1016</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月20日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1055</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>slotIcon封装</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">装备弹出UI封装 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>非装备道具Tips（ 包含位置自动调整）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1058</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1056</t>
@@ -3843,23 +3843,23 @@
     <rPh sb="9" eb="10">
       <t>lie'b</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装备属性界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装备列表ui</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>同步客户端装备信息</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1098</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1097</t>
@@ -3869,11 +3869,11 @@
   </si>
   <si>
     <t>宠物详情界面、装备列表、装备详情界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1100</t>
@@ -3892,19 +3892,19 @@
     <rPh sb="7" eb="8">
       <t>bao'shi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>强化进阶界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>开孔和镶嵌界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1145</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1146</t>
@@ -3917,153 +3917,153 @@
   </si>
   <si>
     <t>宝石属性及合成表，接口部分</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宝石选择列表界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化进阶、宝石镶嵌、宝石列表界面</t>
   </si>
   <si>
     <t>MG-1160</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ui </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>输入框超出像左移动,最多输入限制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>玩家发言间隔</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>切换聊天频道</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>聊天频道划分</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hd'uuan</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'wu'qi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务器-IM-公共频道，公会频道</t>
   </si>
   <si>
     <t>MG-1022</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1176</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1177</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1178</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽功能</t>
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店物品购买和刷新  </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商城                  </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">月卡和钻石兑换金币      </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>IM翻译功能（新版API变复杂了）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务端http库的升级与扩展，IM翻译功能 -网络功能</t>
     <rPh sb="25" eb="26">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>Im功能补充 -增加公告、走马灯等系统消息</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>玩家发消息,显示服务器消息解析</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>商店配置和数据格式设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1180</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1181</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1182</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示排版</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>最多可查看50行消息</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>手指滑动聊天框一系列功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>走马灯,系统公告,提示信息</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1183</t>
@@ -4076,29 +4076,29 @@
   </si>
   <si>
     <t>MG-1186</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1187</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1122</t>
   </si>
   <si>
     <t>MG-1188</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1189</t>
   </si>
   <si>
     <t>MG-1113</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1190</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1191</t>
@@ -4117,18 +4117,18 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'h'd</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1217</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1218</t>
@@ -4144,53 +4144,53 @@
   </si>
   <si>
     <t>商店商城与服务器联调</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>商城UI与数据</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>商店弹出框开发</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>商店UI与逻辑开发</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店数据封装 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>IM界面、玩家菜单、走马灯、系统提示、系统公告UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1239</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>商店（普通、公会）+商城UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1238</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1246</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1247</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>商城-支付服务器</t>
@@ -4203,7 +4203,7 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>点玩家名弹出界面</t>
@@ -4219,46 +4219,46 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1243</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本结算，复活</t>
   </si>
   <si>
     <t>2015年09月23日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">结算，复活ui </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>怪物走出来功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>复活逻辑</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶材料修改，UI修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表项，装备显示（无，已装备）</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表，技能图标</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表-描述超长换行</t>
@@ -4271,7 +4271,7 @@
     <rPh sb="11" eb="12">
       <t>huan'hang</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面UI替换</t>
@@ -4284,15 +4284,15 @@
     <rPh sb="6" eb="7">
       <t>ti'huan</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1194</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1259</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1260</t>
@@ -4305,7 +4305,7 @@
   </si>
   <si>
     <t>MG-1287</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1288</t>
@@ -4315,19 +4315,19 @@
   </si>
   <si>
     <t>掉落修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>结算修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>复活</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1295</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1296</t>
@@ -4352,11 +4352,11 @@
   </si>
   <si>
     <t>2015年09月30日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑（一些流程修改）</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>宠物升级功能</t>
@@ -4369,36 +4369,36 @@
     <rPh sb="4" eb="5">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1331</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1332</t>
   </si>
   <si>
     <t>结算联调</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz 小珍</t>
     <rPh sb="3" eb="4">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1294</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1333</t>
   </si>
   <si>
     <t>MG-1334</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1335</t>
@@ -4408,68 +4408,68 @@
   </si>
   <si>
     <t>MG-1342</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
     <rPh sb="0" eb="1">
       <t>shang'dian</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
       <t>bei'b</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月10日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>背包主UI开发</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>开宝箱</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>消耗品使用（双倍经验，三倍经验，疲劳药）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>出售功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>与服务器联调</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>批量开宝箱</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>批量卖</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>双倍、三倍经验</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'sh</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1369</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1367</t>
@@ -4494,22 +4494,22 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>s'f</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1375</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月23日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>道具合成分解</t>
@@ -4522,42 +4522,42 @@
     <rPh sb="4" eb="5">
       <t>fen'jie</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'h'duan</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成界面UI  </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成结果UI  </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>分解界面UI</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">分解的筛选方式   </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成分解服务器联调   </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1480</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1481</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1482</t>
@@ -4576,19 +4576,19 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务器-分解</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务器-连调</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1489</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1487</t>
@@ -4601,11 +4601,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月28日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本选择大地图（选择章节）</t>
@@ -4621,7 +4621,7 @@
     <rPh sb="1" eb="2">
       <t>zhen</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>纯2D画的方式</t>
@@ -4640,7 +4640,7 @@
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
@@ -4650,14 +4650,14 @@
     <rPh sb="0" eb="1">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>主界面，村落，角色升级</t>
@@ -4676,7 +4676,7 @@
     <rPh sb="9" eb="10">
       <t>sheng'ji</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
@@ -4689,30 +4689,30 @@
     <rPh sb="0" eb="1">
       <t>ke'h'dua</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>镜头调整</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>场景编辑，选中效果</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>村落场景添加到流程</t>
@@ -4722,11 +4722,11 @@
     <rPh sb="2" eb="3">
       <t>chang'jing</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>方案1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>章节选择</t>
@@ -4736,7 +4736,7 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
@@ -4746,19 +4746,19 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>配置修改</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1503</t>
@@ -4774,7 +4774,7 @@
   </si>
   <si>
     <t>副本选择（选择副本）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1498</t>
@@ -4793,25 +4793,25 @@
   </si>
   <si>
     <t>MG-1496</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1495</t>
   </si>
   <si>
     <t>MG-1495</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月02日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>活力值</t>
     <rPh sb="0" eb="1">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>活力值自动恢复 0.5d</t>
@@ -4827,19 +4827,19 @@
   </si>
   <si>
     <t>活力值系统开发与联调</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1550</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1547</t>
@@ -4852,22 +4852,22 @@
   </si>
   <si>
     <t>MG-1546</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>UI-活力值</t>
     <rPh sb="3" eb="4">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1551</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
@@ -4877,7 +4877,7 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>客户端宠物图鉴UI</t>
@@ -4890,11 +4890,11 @@
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务器联调 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
@@ -4904,7 +4904,7 @@
     <rPh sb="2" eb="3">
       <t>he'cheng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
@@ -4917,7 +4917,7 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴-UI</t>
@@ -4927,18 +4927,18 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>新需求</t>
     <rPh sb="0" eb="1">
       <t>xin'xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>场地buff添加</t>
@@ -4951,7 +4951,7 @@
     <rPh sb="6" eb="7">
       <t>tian'jia</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>buff消失事件触发</t>
@@ -4964,7 +4964,7 @@
     <rPh sb="8" eb="9">
       <t>chu'fa</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>攻击为0的情况处理</t>
@@ -4983,7 +4983,7 @@
     <rPh sb="7" eb="8">
       <t>chu'li</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>物理免疫法术免疫</t>
@@ -4999,34 +4999,34 @@
     <rPh sb="6" eb="7">
       <t>mian'yi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">无法回复buff </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>switch添加检测目标功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宝石属性配置修改，添加到技能，伤害公式修改</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1618</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1596</t>
@@ -5039,21 +5039,21 @@
   </si>
   <si>
     <t>MG-1599</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1595</t>
   </si>
   <si>
     <t>MG-1621</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1620</t>
   </si>
   <si>
     <t>MG-1587</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1588</t>
@@ -5078,91 +5078,91 @@
   </si>
   <si>
     <t>2015年11月13日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-配置数据结构添加</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-村落切特写镜头</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔特写镜头ui提示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-流程添加 结算</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔(经验,金币)+通天塔BOSS UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔刷新</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-开启时间+奖励展示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">通天塔-通天塔(经验,金币)入口+难度选择 </t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-阶段奖励 + 副本状态</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔界面动画</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'hu'd</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-配置</t>
@@ -5175,7 +5175,7 @@
     <rPh sb="8" eb="9">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-两种入口</t>
@@ -5191,7 +5191,7 @@
     <rPh sb="10" eb="11">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-刷新</t>
@@ -5204,19 +5204,19 @@
     <rPh sb="8" eb="9">
       <t>shua'xin</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1669</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1666</t>
@@ -5262,11 +5262,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月14日</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整</t>
@@ -5279,14 +5279,14 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'sh</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整-服务器</t>
@@ -5302,15 +5302,15 @@
     <rPh sb="7" eb="8">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-659</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择-UI</t>
@@ -5320,29 +5320,29 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'f</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MG-1679</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月18日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜</t>
@@ -5352,7 +5352,7 @@
     <rPh sb="3" eb="4">
       <t>zhao'yao'jing</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>集火逻辑修改</t>
@@ -5374,19 +5374,19 @@
   </si>
   <si>
     <t>照妖镜 鉴定弱点过程修改（鉴定表现，完成表现，ui选择表现）</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>弱点配置结果修改</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>其它：</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1683</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1684</t>
@@ -5399,36 +5399,36 @@
   </si>
   <si>
     <t>弱点对应UI的显示（根据弱点状态）</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
     <rPh sb="0" eb="1">
       <t>te'xiao</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1681</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>对局-大招&amp;其他修改</t>
@@ -5444,27 +5444,27 @@
     <rPh sb="8" eb="9">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月20日</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能名称提示，伤害数字显示规则调整 大招飞进来 </t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>取消开战，副本进度 ，对局ui出现消失规则</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>特性显示，加速响应调整</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>大招幕布技能名</t>
@@ -5480,22 +5480,80 @@
     <rPh sb="6" eb="7">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1713</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1744</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>MG-1745</t>
+  </si>
+  <si>
+    <t>掉落指引-宠物与物品掉落配置表解析</t>
+    <rPh sb="0" eb="1">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'yin</t>
+    </rPh>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落指引-修改界面接入的方式</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具tips，宠物图鉴掉落指引</t>
+    <rPh sb="0" eb="1">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tu'j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'yin</t>
+    </rPh>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月25日</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1747</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1748</t>
+  </si>
+  <si>
+    <t>MG-1749</t>
+  </si>
+  <si>
+    <t>MG-1750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">掉落指引-道具tips与宠物合成界面tips </t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">掉落指引-途径的事件管理 </t>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5505,7 +5563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5513,6 +5571,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6088,524 +6153,525 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="62" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="63" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7583,11 +7649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H131" sqref="H130:H131"/>
+      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -9673,7 +9739,7 @@
       <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 G139:J139 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
     <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>"未完成"</formula>
@@ -11001,7 +11067,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="B2:H8">
     <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
       <formula>"未完成"</formula>
@@ -11892,7 +11958,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="B2:I3 B4:G4 I4:I5 B13:I18 D12:H12 D6:I11 D5:G5 B5:C12">
     <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"未完成"</formula>
@@ -12444,7 +12510,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 J2:J5 B2:I28">
     <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"未完成"</formula>
@@ -12461,13 +12527,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD12"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13309,7 +13375,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D65" s="208" t="s">
         <v>950</v>
       </c>
@@ -13326,7 +13392,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D66" s="208" t="s">
         <v>951</v>
       </c>
@@ -13343,7 +13409,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
         <v>855</v>
       </c>
@@ -13363,7 +13429,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D69" s="209" t="s">
         <v>959</v>
       </c>
@@ -13380,7 +13446,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D70" s="209" t="s">
         <v>960</v>
       </c>
@@ -13397,7 +13463,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72" s="192" t="s">
         <v>744</v>
       </c>
@@ -13414,8 +13480,88 @@
         <v>952</v>
       </c>
     </row>
+    <row r="75" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="106" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C75" s="153"/>
+      <c r="D75" s="106" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="169" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E76" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F76" s="104">
+        <v>1</v>
+      </c>
+      <c r="G76" s="208" t="s">
+        <v>127</v>
+      </c>
+      <c r="H76" s="222" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="169" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E77" s="104">
+        <v>1</v>
+      </c>
+      <c r="F77" s="104">
+        <v>1</v>
+      </c>
+      <c r="G77" s="208" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" s="222" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D78" s="169" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E78" s="104">
+        <v>2</v>
+      </c>
+      <c r="F78" s="104">
+        <v>1</v>
+      </c>
+      <c r="G78" s="208" t="s">
+        <v>127</v>
+      </c>
+      <c r="H78" s="222" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D79" s="169" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E79" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="104">
+        <v>1</v>
+      </c>
+      <c r="G79" s="208" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="222" t="s">
+        <v>1142</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -14713,7 +14859,7 @@
       <c r="M87" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E1:H2">
     <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -15542,7 +15688,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -15877,7 +16023,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"未完成"</formula>
@@ -27137,7 +27283,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AH189"/>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="AB4:AH18 B102:C104 D103:G104 B101:AH101 B133:G133 C134:G137 H88:H93 D102:AH102 I87:N93 P90:AB94 B94:N94 B124:I132 P4:Y18 B105:G114 B134:B139 C138:I139 H103:AH114 B183:C183 E183:AH183 E185:AH185 B185:C185 J184:AH184 J186:AH186 B187:C187 B145:C145 E187:AH187 H145:AH145 J158:AH158 J161:AH161 J164:AH164 J167:AH167 J170:AH170 J177:AH182 B157:AH157 B159:C160 E159:AH160 B162:C163 E162:AH163 B165:C166 E165:AH166 B168:C169 E168:AH169 J172:AH172 B171:C171 E171:AH171 B173:C173 J174:AH174 E173:AH173 B175:C176 E175:AH176 H133:I137 B122:AH123 J155:AH156 J25:AH25 B19:AH22 O71 AB71:AH84 B70:AH70 E154:AH154 B154:C154 B87:G93 AC86:AH94 AB86:AB89 P86:Y89 B86:N86 B98:N100 P98:AH100 AB51:AH64 J150:AH153 J115:AH121 J96:AH96 B36 I26:AH26 C26:G26 E65:E69 B4:N18 B65:B69 P71:Y84 B39:AH50 B35:AH35 B71:N84 B51:Y64 C27:AH34 C23:AH24 B23:B34 J124:AH144 N146 A3:AH3">
     <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"TBD"</formula>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40020" yWindow="520" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="40020" yWindow="520" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1179">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
@@ -5554,6 +5554,144 @@
   <si>
     <t xml:space="preserve">掉落指引-途径的事件管理 </t>
     <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年11月27日</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务  未拆分</t>
+  </si>
+  <si>
+    <t>公会静态数据结构</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会系统 数据及 UI结构搭建，根据数据跳转到公会相应界面</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建公会</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会成员列表，成员管理 ，赠送体力</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM 公会频道支持 公会任务发布 及跳转</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1806</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1807</t>
+  </si>
+  <si>
+    <t>MG-1808</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1809</t>
+  </si>
+  <si>
+    <t>MG-1810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM 世界频道支持公会招募 及跳转 </t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会祈福UI</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会祈福联调</t>
+    <rPh sb="4" eb="5">
+      <t>lian'tiao</t>
+    </rPh>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会列表，搜索，申请公会</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会科技ui</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会科技升级消耗联调</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会科技影响到结算</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1815</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1813</t>
+  </si>
+  <si>
+    <t>MG-1814</t>
+  </si>
+  <si>
+    <t>MG-1816</t>
+  </si>
+  <si>
+    <t>公会信息（基础信息，领奖，修改公告，）</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1817</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1818</t>
+  </si>
+  <si>
+    <t>MG-1819</t>
+  </si>
+  <si>
+    <t>MG-1820</t>
+  </si>
+  <si>
+    <t>MG-1746</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器-基础，祈福、任务、科技</t>
+    <rPh sb="0" eb="1">
+      <t>f'w'q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'chu</t>
+    </rPh>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9784,7 +9922,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
@@ -12529,7 +12667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14876,11 +15014,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15685,6 +15823,222 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="145" t="s">
         <v>765</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="177" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B71" s="178"/>
+      <c r="C71" s="177" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="145" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D72" s="145">
+        <v>1</v>
+      </c>
+      <c r="F72" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="145" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="145" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D73" s="145">
+        <v>1.5</v>
+      </c>
+      <c r="F73" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="145" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="145" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D74" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="145" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="145" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D75" s="145">
+        <v>2</v>
+      </c>
+      <c r="F75" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="145" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="145" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D76" s="145">
+        <v>2</v>
+      </c>
+      <c r="F76" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="145" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="145" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D77" s="145">
+        <v>2</v>
+      </c>
+      <c r="F77" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="145" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="145" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D78" s="145">
+        <v>2</v>
+      </c>
+      <c r="F78" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G78" s="145" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="145" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D79" s="145">
+        <v>2</v>
+      </c>
+      <c r="F79" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G79" s="145" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="145" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D80" s="145">
+        <v>1</v>
+      </c>
+      <c r="F80" s="145" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G80" s="145" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="145" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D81" s="145">
+        <v>1</v>
+      </c>
+      <c r="F81" s="145" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G81" s="145" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="145" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D82" s="145">
+        <v>1</v>
+      </c>
+      <c r="F82" s="145" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G82" s="145" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="145" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D83" s="145">
+        <v>1</v>
+      </c>
+      <c r="F83" s="145" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G83" s="145" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="145" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D84" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F84" s="145" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G84" s="145" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="145" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="145" t="s">
+        <v>855</v>
+      </c>
+      <c r="C87" s="145" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D87" s="145">
+        <v>12</v>
+      </c>
+      <c r="F87" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" s="145" t="s">
+        <v>1177</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40020" yWindow="520" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1282">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -127,7 +127,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -137,44 +137,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -184,7 +184,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -197,14 +197,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -214,54 +214,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -271,47 +271,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -321,87 +321,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -417,58 +417,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -478,59 +478,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -540,157 +540,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -709,7 +709,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -731,7 +731,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -747,7 +747,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -763,7 +763,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -797,67 +797,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -894,7 +894,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -904,7 +904,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -926,21 +926,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -950,7 +950,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -969,11 +969,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -998,385 +998,385 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>文档反馈</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>文档分析</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>数值反馈</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>客户端开发</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>客户端缩减后</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>客户端分工</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>服务器开发</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>服务器缩减后</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>服务器分工</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>开发备注</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>策划配置缩减后</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>配置bug修复</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>用例</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>测试分工</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>QA备注</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物基础架构</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-AI</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-UI</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-换宠</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
   </si>
   <si>
     <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-道具使用</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>目前看来被抓宠封妖完全包括了</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>只包含抓宠的道具使用</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>抓宠、封妖</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>对局，技能动画表现</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>技能-大招操作*6</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>副本基础逻辑</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>非同步pve</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>副本-照妖镜</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>副本结算功能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落表现</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -1386,565 +1386,565 @@
   </si>
   <si>
     <t>副本星级评价</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>副本托管</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>ts，雷神</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>任务系统功能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>村落</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>村落功能（UI表现）</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>不确定服务器什么功能</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宠物阵型</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面（包括上阵宠物选择）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物升星</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>0..25</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成（炼妖）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物繁殖（交互）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>角色界面</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物是否有额外服务器功能？</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>称号系统--vip，竞技场</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>道具-宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>玩家装备套装系统</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>是否和装备功能重合？</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>不包含套装配置测试</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>不包含装备内容配置测试</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备进阶</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备宝石</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备洗炼</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>不包括支付、渠道等</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>NPC商店</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>VIP</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>月卡</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>拍卖行</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>邮箱-主要用于系统发信</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>好友</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础管理，任务（放在任务界面），商店</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>创建角色</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>账号，登录，注册，切换账号</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>我们内部测试帐号，不包括各个渠道</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>断线处理</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>服务器选择，服务器分流，公告</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>指引界面-活动</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>版本检测，更新功能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>loading界面</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>消息推送功能（百度推送？）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>通知--家园、大冒险、邮箱</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>敏感词、屏蔽词</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>抽卡</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>活动功能框架</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>答题</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>BossRush</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>稀有探索玩法</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>狩猎场</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>擂台</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>公会战</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>公会副本</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>缺少副本内容条目，时间估算在这里</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>家园</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>世界boss</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>同步玩法重新写</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>地藏宫殿</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>基于同步玩法</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>激活码-邀请福利等运营相关活动</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>支付功能（各SDK接入）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>zz，文生</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>不是太清楚，接入量未知</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>测试时间不可预估</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
     <t>运营工具</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>是否是gm工具？</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>美术资源需求模板</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>程序开发规范和约定</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>发布流程</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>关卡编辑器</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>也许可以不用测试</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>导表工具</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>几种表格未知</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>版本自动打包、发布工具</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>测试工具</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>兼容性测试，性能测试</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1960,7 +1960,7 @@
       </rPr>
       <t>（角色、宠物）</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1985,11 +1985,11 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>雷神，ts</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,71 +2014,71 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>AI</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>10套（勤奋5+倾向5）</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>物攻*6</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>法攻*15</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>buff or debuff*14</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>大招*23 （操作表现几套？）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>其他*2</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>队长+友情*36</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>boss技能*16</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>被动技能*30（怪物倾向性设计）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>CP技能（待设计第一期不强需求）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2103,7 +2103,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2128,7 +2128,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2153,233 +2153,233 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>公会任务*20个</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>特殊进化任务32个</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>Avatar</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宠物表现、技能、数值</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>村落配置</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>装备内容包括属性（进化等）100-200件</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>角色装备10套以下</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>高阶人型*15（3D、动作、特效）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>普通兽型*30（3D、动作、特效）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>纯材料*3（3D、动作、特效）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>boss*8（3D、动作、特效）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>boss进化*3（3D、动作、特效）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>高阶兽型*7（3D、动作、特效）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>进化配方设计*8（3D、动作、特效）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>NPC</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>妲己</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>男身体</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>男头（免费）*3</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>男头（付费）*3</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>女身体</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>女头（免费）*3</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>女头（付费）*3</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个（8个建筑物）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>宠物-100-200件</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色10套以下</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>策划时间</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减前</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减后</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>美术原画</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>美术外包</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
@@ -2395,7 +2395,7 @@
   </si>
   <si>
     <t>总人天</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
@@ -2420,23 +2420,23 @@
   </si>
   <si>
     <t>纯材料</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>角色*2性别</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>角色套装4套*2性别</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>角色-头6*2性别</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>角色-NPC-妲己</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
@@ -2449,98 +2449,98 @@
   </si>
   <si>
     <t>图标-技能</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>图标-道具120-160</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>怪物头像</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>活动*1个</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个</t>
-    <phoneticPr fontId="47" type="noConversion"/>
+    <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">任务配置、数据结构 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>统计数据&amp;任务目标映射</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务交付</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">每日任务刷新 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">活动、商城相关数据统计&amp;任务更新 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>其他待拆</t>
@@ -2553,31 +2553,31 @@
     <rPh sb="3" eb="4">
       <t>chai</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-676</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-677</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-678</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务初始化</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务更新框架</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>原预期时间</t>
@@ -2593,7 +2593,7 @@
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2603,7 +2603,7 @@
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2619,7 +2619,7 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2632,179 +2632,179 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>6月1日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月6日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>6月30日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局表现</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>相机运动</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>动画范围-新增mesh、光照变化</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>另外，策划需要0.2天测试光照</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>转向</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>轴锁定、Attach</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-血条动画</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-掉血弹数字动画</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff图标替代规则修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-ui挂特效-如大招</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-集火UI能挂在弱点上</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff去掉图标</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-ui增加能量条</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-换怪特效</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点受击特效</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点死亡表现</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-进程动画具体设计</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-开战动画</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-胜利失败动画</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局动画- 前置动画删除了</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-取消集火逻辑</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-加速</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-服务器客户端上阵宠物数据同步</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-切换条件判定、对局成功失败条件判定</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-副本对局配置拆大表</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>副本对局配置拆大表</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>5月27日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>1. 对局-集火敌人ui提示</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>2. 集火弱点功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>3. Boss进程调整</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>4. 换宠ui</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
@@ -2814,29 +2814,29 @@
     <rPh sb="2" eb="3">
       <t>cha</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'cha</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jain'cha</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>速度计算调整</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>多个怪物同时死亡的死亡表现</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>法术大招升格时机调整 与ZZ联调</t>
@@ -2846,19 +2846,19 @@
   </si>
   <si>
     <t>照妖镜基本操作修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜提示信息方式及内容修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>战后回血</t>
@@ -2871,7 +2871,7 @@
     <rPh sb="3" eb="4">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>暴击动画调整</t>
@@ -2884,7 +2884,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜特效层级修改（待确认需求)</t>
@@ -2897,11 +2897,11 @@
     <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>弱点加入是否可打断（待确认需求)</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>物理大招添加combo</t>
@@ -2911,31 +2911,31 @@
     <rPh sb="2" eb="3">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-726</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>升格动画加入到动画配置</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-727</t>
@@ -2954,23 +2954,23 @@
   </si>
   <si>
     <t>MG-733</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>区分物理大招、法术大招聚气、爆气，修改为事件动画</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">区分物理大招、法术大招幕布 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-734</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>大招统计数据UI修改</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-735</t>
@@ -2986,89 +2986,89 @@
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对局战后回血特效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>集火UI、开战动画改为英文版“Fight”、托管和手动的UI</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>被动换怪（怪物死亡）的怪物消失特效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2、3、4、6</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>5、7</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>物理大招聚气与爆气</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>物理大招，法术大招幕布</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>法术大招特写释放特效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>物理大招特写释放特效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>物理大招combo提示</t>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>5,6</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>法术，物理大招特写特效配置</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务 对应程序任务</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>对局-弱点碰撞组功能</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-783</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月21日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
@@ -3078,7 +3078,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>buff并存、替代规则</t>
@@ -3091,7 +3091,7 @@
     <rPh sb="9" eb="10">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>区分对局一开始释放一次被动，换上阵不释放</t>
@@ -3122,7 +3122,7 @@
     <rPh sb="17" eb="18">
       <t>bu'shi'fang</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>换上也生效类处理或换下或者死亡移除（光环类）</t>
@@ -3162,7 +3162,7 @@
     <rPh sb="20" eb="21">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>驱散功能</t>
@@ -3172,7 +3172,7 @@
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>行动累积</t>
@@ -3182,14 +3182,14 @@
     <rPh sb="2" eb="3">
       <t>lei'ji</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽</t>
     <rPh sb="0" eb="1">
       <t>chao'feng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>减伤护盾</t>
@@ -3199,7 +3199,7 @@
     <rPh sb="2" eb="3">
       <t>hu'dun</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>击晕，打断，表现</t>
@@ -3212,7 +3212,7 @@
     <rPh sb="6" eb="7">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>触发条件配置表</t>
@@ -3225,7 +3225,7 @@
     <rPh sb="4" eb="5">
       <t>pei'zhi'biao</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>血量置数</t>
@@ -3241,27 +3241,27 @@
     <rPh sb="8" eb="9">
       <t>biao'xianxue'liangzhishu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-806</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>技能配置表，buff配置表修改</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>增加buff伤害反应，技能释放反应，死亡反应，致死反应</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">先置技能ui显示 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>被动技能的反应会导致当前行动的时间被延长</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>被动技能开场释放</t>
@@ -3271,18 +3271,18 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>新增buff可提升的属性</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-846</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-847</t>
@@ -3349,38 +3349,38 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>配置表读取</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>UI音效组件</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>背景音乐，音效播放</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>伤害公式，3D受击表现</t>
@@ -3396,23 +3396,23 @@
     <rPh sb="9" eb="10">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>吸收护盾UI表现</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-862</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效管理器</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-915</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-913</t>
@@ -3431,30 +3431,30 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>13、14、15、16、17</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-703</t>
   </si>
   <si>
     <t>MG-703</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-730</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -3464,93 +3464,93 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-704</t>
   </si>
   <si>
     <t>MG-704</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-455</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-457</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-456</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-476</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-517</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-396</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-397</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-408</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-304 MG-453 MG-514</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MG-303 </t>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-effect增加命中关联</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-反伤</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-触发一个行动</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-917</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-918</t>
@@ -3560,11 +3560,11 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>等待验收&amp;测试</t>
@@ -3577,21 +3577,21 @@
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-967</t>
   </si>
   <si>
     <t>MG-967</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>大招美术需求</t>
@@ -3604,11 +3604,11 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-410</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
@@ -3624,37 +3624,37 @@
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">看信+收取+全部收取 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月10日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-972</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-971</t>
@@ -3685,40 +3685,40 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
     <rPh sb="0" eb="1">
       <t>yagn'xue</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月21日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1050</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI调整</t>
@@ -3728,7 +3728,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>受击动作（触发条件，触发事件）</t>
@@ -3750,22 +3750,22 @@
     <rPh sb="12" eb="13">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-987</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月15日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，被动技能tips</t>
@@ -3778,47 +3778,47 @@
     <rPh sb="9" eb="10">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1016</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月20日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1055</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>slotIcon封装</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">装备弹出UI封装 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>非装备道具Tips（ 包含位置自动调整）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1058</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1056</t>
@@ -3843,23 +3843,23 @@
     <rPh sb="9" eb="10">
       <t>lie'b</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装备属性界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>装备列表ui</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>同步客户端装备信息</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1098</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1097</t>
@@ -3869,11 +3869,11 @@
   </si>
   <si>
     <t>宠物详情界面、装备列表、装备详情界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1100</t>
@@ -3892,19 +3892,19 @@
     <rPh sb="7" eb="8">
       <t>bao'shi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>强化进阶界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>开孔和镶嵌界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1145</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1146</t>
@@ -3917,153 +3917,153 @@
   </si>
   <si>
     <t>宝石属性及合成表，接口部分</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宝石选择列表界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化进阶、宝石镶嵌、宝石列表界面</t>
   </si>
   <si>
     <t>MG-1160</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ui </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>输入框超出像左移动,最多输入限制</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>玩家发言间隔</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>切换聊天频道</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>聊天频道划分</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hd'uuan</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'wu'qi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器-IM-公共频道，公会频道</t>
   </si>
   <si>
     <t>MG-1022</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1176</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1177</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1178</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽功能</t>
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店物品购买和刷新  </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商城                  </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">月卡和钻石兑换金币      </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>IM翻译功能（新版API变复杂了）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务端http库的升级与扩展，IM翻译功能 -网络功能</t>
     <rPh sb="25" eb="26">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>Im功能补充 -增加公告、走马灯等系统消息</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>玩家发消息,显示服务器消息解析</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>商店配置和数据格式设计</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1180</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1181</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1182</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示排版</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>最多可查看50行消息</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>手指滑动聊天框一系列功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>走马灯,系统公告,提示信息</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1183</t>
@@ -4076,29 +4076,29 @@
   </si>
   <si>
     <t>MG-1186</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1187</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1122</t>
   </si>
   <si>
     <t>MG-1188</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1189</t>
   </si>
   <si>
     <t>MG-1113</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1190</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1191</t>
@@ -4117,18 +4117,18 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'h'd</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1217</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1218</t>
@@ -4144,53 +4144,53 @@
   </si>
   <si>
     <t>商店商城与服务器联调</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>商城UI与数据</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>商店弹出框开发</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>商店UI与逻辑开发</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店数据封装 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>IM界面、玩家菜单、走马灯、系统提示、系统公告UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1239</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>商店（普通、公会）+商城UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1238</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1246</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1247</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>商城-支付服务器</t>
@@ -4203,7 +4203,7 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>点玩家名弹出界面</t>
@@ -4219,46 +4219,46 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1243</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本结算，复活</t>
   </si>
   <si>
     <t>2015年09月23日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">结算，复活ui </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>怪物走出来功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>复活逻辑</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶材料修改，UI修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表项，装备显示（无，已装备）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表，技能图标</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表-描述超长换行</t>
@@ -4271,7 +4271,7 @@
     <rPh sb="11" eb="12">
       <t>huan'hang</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面UI替换</t>
@@ -4284,15 +4284,15 @@
     <rPh sb="6" eb="7">
       <t>ti'huan</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>MG-1194</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1259</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1260</t>
@@ -4305,7 +4305,7 @@
   </si>
   <si>
     <t>MG-1287</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1288</t>
@@ -4315,19 +4315,19 @@
   </si>
   <si>
     <t>掉落修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>结算修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>复活</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1295</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1296</t>
@@ -4352,11 +4352,11 @@
   </si>
   <si>
     <t>2015年09月30日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑（一些流程修改）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>宠物升级功能</t>
@@ -4369,36 +4369,36 @@
     <rPh sb="4" eb="5">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1331</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1332</t>
   </si>
   <si>
     <t>结算联调</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz 小珍</t>
     <rPh sb="3" eb="4">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1294</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1333</t>
   </si>
   <si>
     <t>MG-1334</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1335</t>
@@ -4408,68 +4408,68 @@
   </si>
   <si>
     <t>MG-1342</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
     <rPh sb="0" eb="1">
       <t>shang'dian</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
       <t>bei'b</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月10日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>背包主UI开发</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>开宝箱</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>消耗品使用（双倍经验，三倍经验，疲劳药）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>出售功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>与服务器联调</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>批量开宝箱</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>批量卖</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>双倍、三倍经验</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'sh</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1369</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1367</t>
@@ -4494,22 +4494,22 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>s'f</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1375</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月23日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>道具合成分解</t>
@@ -4522,42 +4522,42 @@
     <rPh sb="4" eb="5">
       <t>fen'jie</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'h'duan</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成界面UI  </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成结果UI  </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>分解界面UI</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">分解的筛选方式   </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成分解服务器联调   </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1480</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1481</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1482</t>
@@ -4576,19 +4576,19 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器-分解</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器-连调</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1489</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1487</t>
@@ -4601,11 +4601,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月28日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本选择大地图（选择章节）</t>
@@ -4621,7 +4621,7 @@
     <rPh sb="1" eb="2">
       <t>zhen</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>纯2D画的方式</t>
@@ -4640,7 +4640,7 @@
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
@@ -4650,14 +4650,14 @@
     <rPh sb="0" eb="1">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>主界面，村落，角色升级</t>
@@ -4676,7 +4676,7 @@
     <rPh sb="9" eb="10">
       <t>sheng'ji</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
@@ -4689,30 +4689,30 @@
     <rPh sb="0" eb="1">
       <t>ke'h'dua</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>镜头调整</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>场景编辑，选中效果</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>村落场景添加到流程</t>
@@ -4722,11 +4722,11 @@
     <rPh sb="2" eb="3">
       <t>chang'jing</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>方案1</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>章节选择</t>
@@ -4736,7 +4736,7 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
@@ -4746,19 +4746,19 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>配置修改</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1503</t>
@@ -4774,7 +4774,7 @@
   </si>
   <si>
     <t>副本选择（选择副本）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1498</t>
@@ -4793,25 +4793,25 @@
   </si>
   <si>
     <t>MG-1496</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1495</t>
   </si>
   <si>
     <t>MG-1495</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月02日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>活力值</t>
     <rPh sb="0" eb="1">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>活力值自动恢复 0.5d</t>
@@ -4827,19 +4827,19 @@
   </si>
   <si>
     <t>活力值系统开发与联调</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1550</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1547</t>
@@ -4852,22 +4852,22 @@
   </si>
   <si>
     <t>MG-1546</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>UI-活力值</t>
     <rPh sb="3" eb="4">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1551</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
@@ -4877,7 +4877,7 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端宠物图鉴UI</t>
@@ -4890,11 +4890,11 @@
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务器联调 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
@@ -4904,7 +4904,7 @@
     <rPh sb="2" eb="3">
       <t>he'cheng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
@@ -4917,7 +4917,7 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴-UI</t>
@@ -4927,18 +4927,18 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>新需求</t>
     <rPh sb="0" eb="1">
       <t>xin'xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>场地buff添加</t>
@@ -4951,7 +4951,7 @@
     <rPh sb="6" eb="7">
       <t>tian'jia</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>buff消失事件触发</t>
@@ -4964,7 +4964,7 @@
     <rPh sb="8" eb="9">
       <t>chu'fa</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>攻击为0的情况处理</t>
@@ -4983,7 +4983,7 @@
     <rPh sb="7" eb="8">
       <t>chu'li</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>物理免疫法术免疫</t>
@@ -4999,34 +4999,34 @@
     <rPh sb="6" eb="7">
       <t>mian'yi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">无法回复buff </t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>switch添加检测目标功能</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>宝石属性配置修改，添加到技能，伤害公式修改</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1618</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1596</t>
@@ -5039,21 +5039,21 @@
   </si>
   <si>
     <t>MG-1599</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1595</t>
   </si>
   <si>
     <t>MG-1621</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1620</t>
   </si>
   <si>
     <t>MG-1587</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1588</t>
@@ -5078,91 +5078,91 @@
   </si>
   <si>
     <t>2015年11月13日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-配置数据结构添加</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-村落切特写镜头</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔特写镜头ui提示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-流程添加 结算</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔(经验,金币)+通天塔BOSS UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔刷新</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-开启时间+奖励展示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">通天塔-通天塔(经验,金币)入口+难度选择 </t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-阶段奖励 + 副本状态</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔界面动画</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'hu'd</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-配置</t>
@@ -5175,7 +5175,7 @@
     <rPh sb="8" eb="9">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-两种入口</t>
@@ -5191,7 +5191,7 @@
     <rPh sb="10" eb="11">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-刷新</t>
@@ -5204,19 +5204,19 @@
     <rPh sb="8" eb="9">
       <t>shua'xin</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1669</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1666</t>
@@ -5262,11 +5262,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月14日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整</t>
@@ -5279,14 +5279,14 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'sh</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整-服务器</t>
@@ -5302,15 +5302,15 @@
     <rPh sb="7" eb="8">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-659</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择-UI</t>
@@ -5320,29 +5320,29 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'f</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1679</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月18日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜</t>
@@ -5352,7 +5352,7 @@
     <rPh sb="3" eb="4">
       <t>zhao'yao'jing</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>集火逻辑修改</t>
@@ -5374,19 +5374,19 @@
   </si>
   <si>
     <t>照妖镜 鉴定弱点过程修改（鉴定表现，完成表现，ui选择表现）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>弱点配置结果修改</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>其它：</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1683</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1684</t>
@@ -5399,36 +5399,36 @@
   </si>
   <si>
     <t>弱点对应UI的显示（根据弱点状态）</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
     <rPh sb="0" eb="1">
       <t>te'xiao</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1681</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>对局-大招&amp;其他修改</t>
@@ -5444,27 +5444,27 @@
     <rPh sb="8" eb="9">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月20日</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能名称提示，伤害数字显示规则调整 大招飞进来 </t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>取消开战，副本进度 ，对局ui出现消失规则</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>特性显示，加速响应调整</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>大招幕布技能名</t>
@@ -5480,19 +5480,19 @@
     <rPh sb="6" eb="7">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1713</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1744</t>
-    <phoneticPr fontId="39" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>MG-1745</t>
@@ -5505,11 +5505,11 @@
     <rPh sb="2" eb="3">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>掉落指引-修改界面接入的方式</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>道具tips，宠物图鉴掉落指引</t>
@@ -5528,15 +5528,15 @@
     <rPh sb="13" eb="14">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月25日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1747</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1748</t>
@@ -5549,56 +5549,49 @@
   </si>
   <si>
     <t xml:space="preserve">掉落指引-道具tips与宠物合成界面tips </t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">掉落指引-途径的事件管理 </t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
     <rPh sb="0" eb="1">
       <t>gong'hui</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月27日</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会任务  未拆分</t>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>公会静态数据结构</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>公会系统 数据及 UI结构搭建，根据数据跳转到公会相应界面</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>创建公会</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>公会成员列表，成员管理 ，赠送体力</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>IM 公会频道支持 公会任务发布 及跳转</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1806</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1807</t>
   </si>
   <si>
     <t>MG-1808</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1809</t>
@@ -5607,51 +5600,47 @@
     <t>MG-1810</t>
   </si>
   <si>
-    <t xml:space="preserve">IM 世界频道支持公会招募 及跳转 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
     <t>公会祈福UI</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>公会祈福联调</t>
     <rPh sb="4" eb="5">
       <t>lian'tiao</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>公会列表，搜索，申请公会</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>工会科技ui</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>工会科技升级消耗联调</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>工会科技影响到结算</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1815</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1813</t>
@@ -5664,11 +5653,11 @@
   </si>
   <si>
     <t>公会信息（基础信息，领奖，修改公告，）</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1817</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>MG-1818</t>
@@ -5681,7 +5670,7 @@
   </si>
   <si>
     <t>MG-1746</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
     <t>服务器-基础，祈福、任务、科技</t>
@@ -5691,7 +5680,542 @@
     <rPh sb="4" eb="5">
       <t>ji'chu</t>
     </rPh>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1823</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表界面排版/可装备'+'配置</t>
+  </si>
+  <si>
+    <t>经验药水界面（调整左侧界面关联）</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面重做</t>
+  </si>
+  <si>
+    <t>2015年12月02日</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力计算</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'suan</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1825</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情左侧界面及右侧控制逻辑</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备信息强化/镶嵌界面</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备弹出列表</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备tips和获取途径</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1826</t>
+  </si>
+  <si>
+    <t>MG-1827</t>
+  </si>
+  <si>
+    <t>MG-1828</t>
+  </si>
+  <si>
+    <t>MG-1829</t>
+  </si>
+  <si>
+    <t>MG-1830</t>
+  </si>
+  <si>
+    <t>MG-1831</t>
+  </si>
+  <si>
+    <t>MG-1832</t>
+  </si>
+  <si>
+    <t>MG-1833</t>
+  </si>
+  <si>
+    <t>宝石列表（逻辑相对复杂）</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>待排期</t>
+    <rPh sb="0" eb="1">
+      <t>dai'pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化进阶</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM  世界频道支持公会招募 及跳转  公会频道支持 公会任务发布 及跳转</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM 超链接功能</t>
+    <rPh sb="3" eb="4">
+      <t>chao'lian'jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年12月03日</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM、邮箱调整</t>
+    <rPh sb="3" eb="4">
+      <t>you'xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>做删除动画</t>
+  </si>
+  <si>
+    <t>添加选中/提示/重摆UI</t>
+  </si>
+  <si>
+    <t>小龙</t>
+  </si>
+  <si>
+    <t>MG-1879</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1878</t>
+  </si>
+  <si>
+    <t>UI-IM修改</t>
+    <rPh sb="5" eb="6">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-邮箱修改</t>
+    <rPh sb="5" eb="6">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1797</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1798</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <rPh sb="0" eb="1">
+      <t>luo'yang</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM UI更改和动画</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看工会,系统公告更改</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础聊天框显示规则</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化发送消息（卡顿感觉）</t>
+    <rPh sb="7" eb="8">
+      <t>ka'dun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gan'jue</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1881</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1880</t>
+  </si>
+  <si>
+    <t>MG-1882</t>
+  </si>
+  <si>
+    <t>MG-1883</t>
+  </si>
+  <si>
+    <t>MG-1884</t>
+  </si>
+  <si>
+    <t>发言间隔点击done发送</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能界面</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测装备升级</t>
+  </si>
+  <si>
+    <t>MG-1888</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1887</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年12月11日</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店商城修改</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店修改，换UI</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城新功能</t>
+    <rPh sb="0" eb="1">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店、商城修改</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang'cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1944</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1943</t>
+  </si>
+  <si>
+    <t>MG-1942</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它公会</t>
+  </si>
+  <si>
+    <t>公会任务-与服务器联调</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务-其它队伍展示，加入任务</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务-开启任务</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务-我的小队，任务展示，提交任务，奖励展示 放弃任务</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1953</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1949</t>
+  </si>
+  <si>
+    <t>MG-1950</t>
+  </si>
+  <si>
+    <t>MG-1951</t>
+  </si>
+  <si>
+    <t>MG-1952</t>
+  </si>
+  <si>
+    <t>2015年12月16日</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录流程</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'cheng</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">服务器UI </t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表功能+联调</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常情况处理</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表状态</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionkey验证</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定昵称</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞</t>
+  </si>
+  <si>
+    <t>Facebook头像部分未拆分</t>
+    <rPh sb="8" eb="9">
+      <t>tou'xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色未拆分</t>
+    <rPh sb="0" eb="1">
+      <t>chuang'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1956</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1954</t>
+  </si>
+  <si>
+    <t>MG-1955</t>
+  </si>
+  <si>
+    <t>MG-1957</t>
+  </si>
+  <si>
+    <t>MG-1958</t>
+  </si>
+  <si>
+    <t>MG-1959</t>
+  </si>
+  <si>
+    <t>资源更新界面</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔瑱</t>
+    <rPh sb="0" eb="1">
+      <t>kong'zhen</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1960</t>
+  </si>
+  <si>
+    <t>MG-1961</t>
+  </si>
+  <si>
+    <t>MG-1962</t>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <rPh sb="0" eb="1">
+      <t>dou'dou</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器界面</t>
+    <rPh sb="0" eb="1">
+      <t>f'w'q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面更新界面UI</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告界面</t>
+    <rPh sb="0" eb="1">
+      <t>gong'gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画演示</t>
+    <rPh sb="0" eb="1">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'shi</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <rPh sb="0" eb="1">
+      <t>tie'ma</t>
+    </rPh>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1965</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1963</t>
+  </si>
+  <si>
+    <t>MG-1964</t>
+  </si>
+  <si>
+    <t>MG-1931</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面底图</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1966</t>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5701,7 +6225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5709,6 +6233,34 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6289,532 +6841,543 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="67" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="63" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="63" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="24">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -6823,6 +7386,9 @@
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -6833,6 +7399,9 @@
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="77">
     <dxf>
@@ -9877,7 +10446,7 @@
       <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="43" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 G139:J139 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
     <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>"未完成"</formula>
@@ -9922,7 +10491,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
@@ -11205,7 +11774,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="B2:H8">
     <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
       <formula>"未完成"</formula>
@@ -11263,13 +11832,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H56" sqref="H55:H56"/>
+      <selection pane="bottomRight" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -11674,6 +12243,9 @@
       <c r="E21" s="104">
         <v>1.5</v>
       </c>
+      <c r="F21" s="104">
+        <v>1</v>
+      </c>
       <c r="G21" s="184" t="s">
         <v>127</v>
       </c>
@@ -11688,6 +12260,9 @@
       <c r="E22" s="104">
         <v>1.5</v>
       </c>
+      <c r="F22" s="104">
+        <v>1</v>
+      </c>
       <c r="G22" s="184" t="s">
         <v>127</v>
       </c>
@@ -11705,6 +12280,9 @@
       <c r="E23" s="104">
         <v>1</v>
       </c>
+      <c r="F23" s="104">
+        <v>1</v>
+      </c>
       <c r="G23" s="184" t="s">
         <v>43</v>
       </c>
@@ -11722,7 +12300,9 @@
       <c r="E24" s="185">
         <v>4</v>
       </c>
-      <c r="F24" s="185"/>
+      <c r="F24" s="104">
+        <v>1</v>
+      </c>
       <c r="G24" s="184" t="s">
         <v>797</v>
       </c>
@@ -11745,6 +12325,9 @@
       <c r="E27" s="104">
         <v>1</v>
       </c>
+      <c r="F27" s="104">
+        <v>1</v>
+      </c>
       <c r="G27" s="184" t="s">
         <v>127</v>
       </c>
@@ -11759,6 +12342,9 @@
       <c r="E28" s="104">
         <v>2</v>
       </c>
+      <c r="F28" s="104">
+        <v>1</v>
+      </c>
       <c r="G28" s="184" t="s">
         <v>127</v>
       </c>
@@ -11773,6 +12359,9 @@
       <c r="E29" s="104">
         <v>1.5</v>
       </c>
+      <c r="F29" s="104">
+        <v>1</v>
+      </c>
       <c r="G29" s="184" t="s">
         <v>127</v>
       </c>
@@ -11787,6 +12376,9 @@
       <c r="E30" s="104">
         <v>1</v>
       </c>
+      <c r="F30" s="104">
+        <v>1</v>
+      </c>
       <c r="G30" s="184" t="s">
         <v>127</v>
       </c>
@@ -11804,6 +12396,9 @@
       <c r="E31" s="104">
         <v>3</v>
       </c>
+      <c r="F31" s="104">
+        <v>1</v>
+      </c>
       <c r="G31" s="186" t="s">
         <v>40</v>
       </c>
@@ -11823,6 +12418,9 @@
       <c r="E33" s="200">
         <v>1</v>
       </c>
+      <c r="F33" s="104">
+        <v>1</v>
+      </c>
       <c r="G33" s="184" t="s">
         <v>127</v>
       </c>
@@ -11837,6 +12435,9 @@
       <c r="E34" s="200">
         <v>0.3</v>
       </c>
+      <c r="F34" s="104">
+        <v>1</v>
+      </c>
       <c r="G34" s="184" t="s">
         <v>127</v>
       </c>
@@ -11851,6 +12452,9 @@
       <c r="E35" s="200">
         <v>0.2</v>
       </c>
+      <c r="F35" s="104">
+        <v>1</v>
+      </c>
       <c r="G35" s="184" t="s">
         <v>127</v>
       </c>
@@ -11865,6 +12469,9 @@
       <c r="E36" s="200">
         <v>1</v>
       </c>
+      <c r="F36" s="104">
+        <v>1</v>
+      </c>
       <c r="G36" s="184" t="s">
         <v>127</v>
       </c>
@@ -11878,6 +12485,9 @@
       </c>
       <c r="E37" s="104">
         <v>4</v>
+      </c>
+      <c r="F37" s="104">
+        <v>1</v>
       </c>
       <c r="G37" s="184" t="s">
         <v>127</v>
@@ -11904,6 +12514,9 @@
       <c r="E41" s="104">
         <v>0.5</v>
       </c>
+      <c r="F41" s="104">
+        <v>1</v>
+      </c>
       <c r="G41" s="184" t="s">
         <v>127</v>
       </c>
@@ -11918,6 +12531,9 @@
       <c r="E42" s="104">
         <v>1</v>
       </c>
+      <c r="F42" s="104">
+        <v>1</v>
+      </c>
       <c r="G42" s="184" t="s">
         <v>127</v>
       </c>
@@ -11932,6 +12548,9 @@
       <c r="E43" s="104">
         <v>1</v>
       </c>
+      <c r="F43" s="104">
+        <v>1</v>
+      </c>
       <c r="G43" s="184" t="s">
         <v>127</v>
       </c>
@@ -11946,6 +12565,9 @@
       <c r="E44" s="104">
         <v>1</v>
       </c>
+      <c r="F44" s="104">
+        <v>1</v>
+      </c>
       <c r="G44" s="184" t="s">
         <v>127</v>
       </c>
@@ -11960,6 +12582,9 @@
       <c r="E46" s="104">
         <v>0.5</v>
       </c>
+      <c r="F46" s="104">
+        <v>1</v>
+      </c>
       <c r="G46" s="214" t="s">
         <v>43</v>
       </c>
@@ -11976,7 +12601,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="214" t="s">
         <v>0</v>
       </c>
@@ -11986,6 +12611,9 @@
       <c r="E49" s="104">
         <v>1.5</v>
       </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
       <c r="G49" s="184" t="s">
         <v>127</v>
       </c>
@@ -11993,13 +12621,16 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D50" s="104" t="s">
         <v>1027</v>
       </c>
       <c r="E50" s="104">
         <v>1</v>
       </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
       <c r="G50" s="184" t="s">
         <v>127</v>
       </c>
@@ -12007,13 +12638,16 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D51" s="104" t="s">
         <v>1028</v>
       </c>
       <c r="E51" s="104">
         <v>2</v>
       </c>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
       <c r="G51" s="184" t="s">
         <v>127</v>
       </c>
@@ -12021,13 +12655,16 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D52" s="214" t="s">
         <v>1029</v>
       </c>
       <c r="E52" s="104">
         <v>0.5</v>
       </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
       <c r="G52" s="184" t="s">
         <v>127</v>
       </c>
@@ -12035,13 +12672,16 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D53" s="214" t="s">
         <v>1030</v>
       </c>
       <c r="E53" s="104">
         <v>1</v>
       </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
       <c r="G53" s="184" t="s">
         <v>127</v>
       </c>
@@ -12049,7 +12689,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="214" t="s">
         <v>855</v>
       </c>
@@ -12059,6 +12699,9 @@
       <c r="E55" s="104">
         <v>1</v>
       </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
       <c r="G55" s="214" t="s">
         <v>9</v>
       </c>
@@ -12066,13 +12709,16 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" s="214" t="s">
         <v>1032</v>
       </c>
       <c r="E56" s="104">
         <v>1</v>
       </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
       <c r="G56" s="214" t="s">
         <v>9</v>
       </c>
@@ -12080,23 +12726,249 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D57" s="214"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="214"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="214" t="s">
         <v>41</v>
       </c>
       <c r="D58" s="214" t="s">
         <v>1033</v>
       </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
       <c r="H58" s="215" t="s">
         <v>1045</v>
       </c>
     </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="106" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C60" s="153"/>
+      <c r="D60" s="106" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="104" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E61" s="223">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1</v>
+      </c>
+      <c r="G61" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="223" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="223" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E62" s="104">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="223" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="223" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E63" s="104">
+        <v>2.5</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1</v>
+      </c>
+      <c r="G63" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="223" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="223" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E64" s="104">
+        <v>1</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="223" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D65" s="223" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E65" s="104">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="223" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D66" s="223" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E66" s="104">
+        <v>2</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="223" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D67" s="223" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E67" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H67" s="223" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D68" s="223" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E68" s="104">
+        <v>1.5</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="223" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D69" s="223" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E69" s="104">
+        <v>2</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1</v>
+      </c>
+      <c r="G69" s="223" t="s">
+        <v>696</v>
+      </c>
+      <c r="H69" s="223" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D70" s="104" t="s">
+        <v>902</v>
+      </c>
+      <c r="E70" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1</v>
+      </c>
+      <c r="G70" s="223" t="s">
+        <v>127</v>
+      </c>
+      <c r="H70" s="223" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="223"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D72" s="224" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E72" s="104">
+        <v>2</v>
+      </c>
+      <c r="F72" s="104">
+        <v>1</v>
+      </c>
+      <c r="G72" s="224" t="s">
+        <v>127</v>
+      </c>
+      <c r="H72" s="225" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D73" s="104" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E73" s="104">
+        <v>1</v>
+      </c>
+      <c r="F73" s="104">
+        <v>1</v>
+      </c>
+      <c r="G73" s="224" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" s="225" t="s">
+        <v>1225</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="B2:I3 B4:G4 I4:I5 B13:I18 D12:H12 D6:I11 D5:G5 B5:C12">
     <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"未完成"</formula>
@@ -12144,7 +13016,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12648,7 +13520,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 J2:J5 B2:I28">
     <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"未完成"</formula>
@@ -12665,13 +13537,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13698,8 +14570,74 @@
         <v>1142</v>
       </c>
     </row>
+    <row r="81" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="106" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C81" s="158"/>
+      <c r="D81" s="226" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="227" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E82" s="104">
+        <v>2</v>
+      </c>
+      <c r="F82" s="104">
+        <v>1</v>
+      </c>
+      <c r="G82" s="227" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D83" s="227" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E83" s="104">
+        <v>2</v>
+      </c>
+      <c r="F83" s="104">
+        <v>1</v>
+      </c>
+      <c r="G83" s="227" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="227" t="s">
+        <v>855</v>
+      </c>
+      <c r="D85" s="227" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E85" s="104">
+        <v>1</v>
+      </c>
+      <c r="F85" s="104">
+        <v>1</v>
+      </c>
+      <c r="G85" s="227" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" s="227" t="s">
+        <v>1232</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -14997,7 +15935,7 @@
       <c r="M87" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="E1:H2">
     <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -15014,11 +15952,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88:G88"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15839,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="145" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D72" s="145">
         <v>1</v>
@@ -15848,12 +16786,12 @@
         <v>8</v>
       </c>
       <c r="G72" s="145" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C73" s="145" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D73" s="145">
         <v>1.5</v>
@@ -15862,12 +16800,12 @@
         <v>8</v>
       </c>
       <c r="G73" s="145" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C74" s="145" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D74" s="145">
         <v>0.5</v>
@@ -15876,12 +16814,12 @@
         <v>8</v>
       </c>
       <c r="G74" s="145" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C75" s="145" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D75" s="145">
         <v>2</v>
@@ -15890,12 +16828,12 @@
         <v>8</v>
       </c>
       <c r="G75" s="145" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C76" s="145" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D76" s="145">
         <v>2</v>
@@ -15904,12 +16842,12 @@
         <v>8</v>
       </c>
       <c r="G76" s="145" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C77" s="145" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D77" s="145">
         <v>2</v>
@@ -15918,12 +16856,12 @@
         <v>8</v>
       </c>
       <c r="G77" s="145" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C78" s="145" t="s">
-        <v>1158</v>
+        <v>1200</v>
       </c>
       <c r="D78" s="145">
         <v>2</v>
@@ -15932,12 +16870,12 @@
         <v>698</v>
       </c>
       <c r="G78" s="145" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" s="145" t="s">
-        <v>1152</v>
+        <v>1199</v>
       </c>
       <c r="D79" s="145">
         <v>2</v>
@@ -15946,103 +16884,580 @@
         <v>698</v>
       </c>
       <c r="G79" s="145" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" s="145" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D80" s="145">
         <v>1</v>
       </c>
       <c r="F80" s="145" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G80" s="145" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C81" s="145" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D81" s="145">
         <v>1</v>
       </c>
       <c r="F81" s="145" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="G81" s="145" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C82" s="145" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D82" s="145">
         <v>1</v>
       </c>
       <c r="F82" s="145" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G82" s="145" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C83" s="145" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D83" s="145">
         <v>1</v>
       </c>
       <c r="F83" s="145" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G83" s="145" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C84" s="145" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D84" s="145">
         <v>0.5</v>
       </c>
       <c r="F84" s="145" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="G84" s="145" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C85" s="145" t="s">
-        <v>1147</v>
+        <v>1235</v>
+      </c>
+      <c r="D85" s="145">
+        <v>1</v>
+      </c>
+      <c r="F85" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="145" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="145" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D86" s="145">
+        <v>1</v>
+      </c>
+      <c r="F86" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="145" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="145" t="s">
+      <c r="C87" s="145" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D87" s="145">
+        <v>2.5</v>
+      </c>
+      <c r="F87" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="145" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="145" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D88" s="145">
+        <v>1</v>
+      </c>
+      <c r="F88" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="145" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="145" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D89" s="145">
+        <v>1</v>
+      </c>
+      <c r="F89" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="145" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="145" t="s">
         <v>855</v>
       </c>
-      <c r="C87" s="145" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D87" s="145">
+      <c r="C92" s="145" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D92" s="145">
         <v>12</v>
       </c>
-      <c r="F87" s="145" t="s">
+      <c r="F92" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="G87" s="145" t="s">
+      <c r="G92" s="145" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="C94" s="145" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D94" s="145">
+        <v>18</v>
+      </c>
+      <c r="F94" s="145" t="s">
+        <v>768</v>
+      </c>
+      <c r="G94" s="145" t="s">
         <v>1177</v>
       </c>
     </row>
+    <row r="96" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="177" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B96" s="178"/>
+      <c r="C96" s="177" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="145" t="s">
+        <v>815</v>
+      </c>
+      <c r="C97" s="145" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D97" s="145">
+        <v>1</v>
+      </c>
+      <c r="F97" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="G97" s="145" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="145" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D98" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F98" s="145" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G98" s="145" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="145" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D99" s="145">
+        <v>1</v>
+      </c>
+      <c r="F99" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G99" s="145" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="145" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D100" s="145">
+        <v>1</v>
+      </c>
+      <c r="F100" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G100" s="145" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="145" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D101" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F101" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G101" s="145" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D102" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F102" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G102" s="145" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="145" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D103" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F103" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G103" s="145" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="C108" s="145" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D108" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F108" s="145" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G108" s="145" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="145" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D109" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F109" s="145" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G109" s="145" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="177" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B111" s="178"/>
+      <c r="C111" s="177" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="145" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C112" s="145" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D112" s="145">
+        <v>1</v>
+      </c>
+      <c r="E112" s="145">
+        <v>1</v>
+      </c>
+      <c r="F112" s="145" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G112" s="145" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="145" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D113" s="145">
+        <v>1</v>
+      </c>
+      <c r="E113" s="145">
+        <v>1</v>
+      </c>
+      <c r="F113" s="145" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G113" s="145" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="145" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D114" s="145">
+        <v>1</v>
+      </c>
+      <c r="E114" s="145">
+        <v>1</v>
+      </c>
+      <c r="F114" s="145" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G114" s="145" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="145" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D115" s="145">
+        <v>2</v>
+      </c>
+      <c r="E115" s="145">
+        <v>1</v>
+      </c>
+      <c r="F115" s="145" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G115" s="145" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="145" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D116" s="145">
+        <v>1.5</v>
+      </c>
+      <c r="E116" s="145">
+        <v>1</v>
+      </c>
+      <c r="F116" s="145" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G116" s="145" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="145" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D117" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="E117" s="145">
+        <v>1</v>
+      </c>
+      <c r="F117" s="145" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G117" s="145" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="145" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E118" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="145" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="145" t="s">
+        <v>855</v>
+      </c>
+      <c r="C122" s="145" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D122" s="145">
+        <v>1</v>
+      </c>
+      <c r="E122" s="145">
+        <v>1</v>
+      </c>
+      <c r="F122" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="145" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="145" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D123" s="145">
+        <v>1</v>
+      </c>
+      <c r="E123" s="145">
+        <v>1</v>
+      </c>
+      <c r="F123" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="145" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="145" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D124" s="145">
+        <v>1</v>
+      </c>
+      <c r="E124" s="145">
+        <v>1</v>
+      </c>
+      <c r="F124" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" s="145" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="C127" s="145" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D127" s="145">
+        <v>18</v>
+      </c>
+      <c r="F127" s="145" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G127" s="145" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C128" s="145" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D128" s="145">
+        <v>1</v>
+      </c>
+      <c r="F128" s="145" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G128" s="145" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C129" s="145" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D129" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F129" s="145" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G129" s="145" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C130" s="145" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D130" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F130" s="145" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G130" s="145" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C131" s="145" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D131" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F131" s="145" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G131" s="145" t="s">
+        <v>1276</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -16377,7 +17792,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"未完成"</formula>
@@ -27637,7 +29052,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AH189"/>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="AB4:AH18 B102:C104 D103:G104 B101:AH101 B133:G133 C134:G137 H88:H93 D102:AH102 I87:N93 P90:AB94 B94:N94 B124:I132 P4:Y18 B105:G114 B134:B139 C138:I139 H103:AH114 B183:C183 E183:AH183 E185:AH185 B185:C185 J184:AH184 J186:AH186 B187:C187 B145:C145 E187:AH187 H145:AH145 J158:AH158 J161:AH161 J164:AH164 J167:AH167 J170:AH170 J177:AH182 B157:AH157 B159:C160 E159:AH160 B162:C163 E162:AH163 B165:C166 E165:AH166 B168:C169 E168:AH169 J172:AH172 B171:C171 E171:AH171 B173:C173 J174:AH174 E173:AH173 B175:C176 E175:AH176 H133:I137 B122:AH123 J155:AH156 J25:AH25 B19:AH22 O71 AB71:AH84 B70:AH70 E154:AH154 B154:C154 B87:G93 AC86:AH94 AB86:AB89 P86:Y89 B86:N86 B98:N100 P98:AH100 AB51:AH64 J150:AH153 J115:AH121 J96:AH96 B36 I26:AH26 C26:G26 E65:E69 B4:N18 B65:B69 P71:Y84 B39:AH50 B35:AH35 B71:N84 B51:Y64 C27:AH34 C23:AH24 B23:B34 J124:AH144 N146 A3:AH3">
     <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"TBD"</formula>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="42020" yWindow="580" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="1334">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -127,7 +127,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -137,44 +137,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -184,7 +184,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -197,14 +197,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -214,54 +214,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -271,47 +271,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -321,87 +321,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -417,58 +417,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -478,59 +478,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -540,157 +540,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -709,7 +709,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -731,7 +731,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -747,7 +747,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -763,7 +763,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -797,67 +797,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -894,7 +894,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -904,7 +904,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -926,21 +926,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -950,7 +950,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -969,11 +969,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -998,385 +998,385 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>文档反馈</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>文档分析</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>数值反馈</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>客户端开发</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>客户端缩减后</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>客户端分工</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>服务器开发</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>服务器缩减后</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>服务器分工</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>开发备注</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>策划配置缩减后</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>配置bug修复</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>用例</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>测试分工</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>QA备注</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物基础架构</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-AI</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-UI</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-换宠</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
   </si>
   <si>
     <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-道具使用</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>目前看来被抓宠封妖完全包括了</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>只包含抓宠的道具使用</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>抓宠、封妖</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>对局，技能动画表现</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>技能-大招操作*6</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>副本基础逻辑</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>非同步pve</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>副本-照妖镜</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>副本结算功能</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落表现</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -1386,565 +1386,565 @@
   </si>
   <si>
     <t>副本星级评价</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>副本托管</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>ts，雷神</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>任务系统功能</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>村落</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>村落功能（UI表现）</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不确定服务器什么功能</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宠物阵型</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面（包括上阵宠物选择）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物升星</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>0..25</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成（炼妖）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物繁殖（交互）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>角色界面</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物是否有额外服务器功能？</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>称号系统--vip，竞技场</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>道具-宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>玩家装备套装系统</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>是否和装备功能重合？</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不包含套装配置测试</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不包含装备内容配置测试</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备进阶</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备宝石</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备洗炼</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不包括支付、渠道等</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>NPC商店</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>VIP</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>月卡</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>拍卖行</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>邮箱-主要用于系统发信</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>好友</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础管理，任务（放在任务界面），商店</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>创建角色</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>账号，登录，注册，切换账号</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>我们内部测试帐号，不包括各个渠道</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>断线处理</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>服务器选择，服务器分流，公告</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>指引界面-活动</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>版本检测，更新功能</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>loading界面</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>消息推送功能（百度推送？）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>通知--家园、大冒险、邮箱</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>敏感词、屏蔽词</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>抽卡</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>活动功能框架</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>答题</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>BossRush</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>稀有探索玩法</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>狩猎场</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>擂台</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>公会战</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>公会副本</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>缺少副本内容条目，时间估算在这里</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>家园</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>世界boss</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>同步玩法重新写</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>地藏宫殿</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>基于同步玩法</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>激活码-邀请福利等运营相关活动</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>支付功能（各SDK接入）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>zz，文生</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不是太清楚，接入量未知</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>测试时间不可预估</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
     <t>运营工具</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>是否是gm工具？</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美术资源需求模板</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>程序开发规范和约定</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>发布流程</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>关卡编辑器</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>也许可以不用测试</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>导表工具</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>几种表格未知</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>版本自动打包、发布工具</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>测试工具</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>兼容性测试，性能测试</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1960,7 +1960,7 @@
       </rPr>
       <t>（角色、宠物）</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1985,11 +1985,11 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>雷神，ts</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,71 +2014,71 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>AI</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>10套（勤奋5+倾向5）</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>物攻*6</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>法攻*15</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>buff or debuff*14</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>大招*23 （操作表现几套？）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>其他*2</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>队长+友情*36</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>boss技能*16</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>被动技能*30（怪物倾向性设计）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>CP技能（待设计第一期不强需求）</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2103,7 +2103,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2128,7 +2128,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2153,233 +2153,233 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>公会任务*20个</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>特殊进化任务32个</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>Avatar</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宠物表现、技能、数值</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>村落配置</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>装备内容包括属性（进化等）100-200件</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>角色装备10套以下</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>高阶人型*15（3D、动作、特效）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>普通兽型*30（3D、动作、特效）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>纯材料*3（3D、动作、特效）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>boss*8（3D、动作、特效）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>boss进化*3（3D、动作、特效）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>高阶兽型*7（3D、动作、特效）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>进化配方设计*8（3D、动作、特效）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>NPC</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>妲己</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>男身体</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>男头（免费）*3</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>男头（付费）*3</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>女身体</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>女头（免费）*3</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>女头（付费）*3</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个（8个建筑物）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>宠物-100-200件</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>角色10套以下</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>策划时间</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减前</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减后</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美术原画</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美术外包</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
@@ -2395,7 +2395,7 @@
   </si>
   <si>
     <t>总人天</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
@@ -2420,23 +2420,23 @@
   </si>
   <si>
     <t>纯材料</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>角色*2性别</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>角色套装4套*2性别</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>角色-头6*2性别</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>角色-NPC-妲己</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
@@ -2449,98 +2449,98 @@
   </si>
   <si>
     <t>图标-技能</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>图标-道具120-160</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>怪物头像</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>活动*1个</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">任务配置、数据结构 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>统计数据&amp;任务目标映射</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务交付</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">每日任务刷新 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">活动、商城相关数据统计&amp;任务更新 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>其他待拆</t>
@@ -2553,31 +2553,31 @@
     <rPh sb="3" eb="4">
       <t>chai</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-676</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-677</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-678</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务初始化</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务更新框架</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>原预期时间</t>
@@ -2593,7 +2593,7 @@
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2603,7 +2603,7 @@
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2619,7 +2619,7 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2632,179 +2632,179 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>6月1日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月6日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>6月30日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局表现</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>相机运动</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>动画范围-新增mesh、光照变化</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>另外，策划需要0.2天测试光照</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>转向</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>轴锁定、Attach</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-血条动画</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-掉血弹数字动画</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff图标替代规则修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-ui挂特效-如大招</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-集火UI能挂在弱点上</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff去掉图标</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-ui增加能量条</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-换怪特效</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点受击特效</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点死亡表现</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-进程动画具体设计</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-开战动画</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-胜利失败动画</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局动画- 前置动画删除了</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-取消集火逻辑</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-加速</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-服务器客户端上阵宠物数据同步</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-切换条件判定、对局成功失败条件判定</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-副本对局配置拆大表</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本对局配置拆大表</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>5月27日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>1. 对局-集火敌人ui提示</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2. 集火弱点功能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>3. Boss进程调整</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>4. 换宠ui</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
@@ -2814,29 +2814,29 @@
     <rPh sb="2" eb="3">
       <t>cha</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'cha</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jain'cha</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>速度计算调整</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>多个怪物同时死亡的死亡表现</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>法术大招升格时机调整 与ZZ联调</t>
@@ -2846,19 +2846,19 @@
   </si>
   <si>
     <t>照妖镜基本操作修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜提示信息方式及内容修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>战后回血</t>
@@ -2871,7 +2871,7 @@
     <rPh sb="3" eb="4">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>暴击动画调整</t>
@@ -2884,7 +2884,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜特效层级修改（待确认需求)</t>
@@ -2897,11 +2897,11 @@
     <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>弱点加入是否可打断（待确认需求)</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>物理大招添加combo</t>
@@ -2911,31 +2911,31 @@
     <rPh sb="2" eb="3">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-726</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>升格动画加入到动画配置</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-727</t>
@@ -2954,23 +2954,23 @@
   </si>
   <si>
     <t>MG-733</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>区分物理大招、法术大招聚气、爆气，修改为事件动画</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">区分物理大招、法术大招幕布 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-734</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>大招统计数据UI修改</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-735</t>
@@ -2986,89 +2986,89 @@
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>对局战后回血特效</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>集火UI、开战动画改为英文版“Fight”、托管和手动的UI</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>被动换怪（怪物死亡）的怪物消失特效</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2、3、4、6</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>5、7</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>物理大招聚气与爆气</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>物理大招，法术大招幕布</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>法术大招特写释放特效</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>物理大招特写释放特效</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>物理大招combo提示</t>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>5,6</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>法术，物理大招特写特效配置</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务 对应程序任务</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>对局-弱点碰撞组功能</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-783</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月21日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
@@ -3078,7 +3078,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>buff并存、替代规则</t>
@@ -3091,7 +3091,7 @@
     <rPh sb="9" eb="10">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>区分对局一开始释放一次被动，换上阵不释放</t>
@@ -3122,7 +3122,7 @@
     <rPh sb="17" eb="18">
       <t>bu'shi'fang</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>换上也生效类处理或换下或者死亡移除（光环类）</t>
@@ -3162,7 +3162,7 @@
     <rPh sb="20" eb="21">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>驱散功能</t>
@@ -3172,7 +3172,7 @@
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>行动累积</t>
@@ -3182,14 +3182,14 @@
     <rPh sb="2" eb="3">
       <t>lei'ji</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽</t>
     <rPh sb="0" eb="1">
       <t>chao'feng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>减伤护盾</t>
@@ -3199,7 +3199,7 @@
     <rPh sb="2" eb="3">
       <t>hu'dun</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>击晕，打断，表现</t>
@@ -3212,7 +3212,7 @@
     <rPh sb="6" eb="7">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>触发条件配置表</t>
@@ -3225,7 +3225,7 @@
     <rPh sb="4" eb="5">
       <t>pei'zhi'biao</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>血量置数</t>
@@ -3241,27 +3241,27 @@
     <rPh sb="8" eb="9">
       <t>biao'xianxue'liangzhishu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-806</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>技能配置表，buff配置表修改</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>增加buff伤害反应，技能释放反应，死亡反应，致死反应</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">先置技能ui显示 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>被动技能的反应会导致当前行动的时间被延长</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>被动技能开场释放</t>
@@ -3271,18 +3271,18 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>新增buff可提升的属性</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-846</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-847</t>
@@ -3349,38 +3349,38 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>配置表读取</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>UI音效组件</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>背景音乐，音效播放</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>伤害公式，3D受击表现</t>
@@ -3396,23 +3396,23 @@
     <rPh sb="9" eb="10">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>吸收护盾UI表现</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-862</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效管理器</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-915</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-913</t>
@@ -3431,30 +3431,30 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>13、14、15、16、17</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-703</t>
   </si>
   <si>
     <t>MG-703</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-730</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -3464,93 +3464,93 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-704</t>
   </si>
   <si>
     <t>MG-704</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-455</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-457</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-456</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-476</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-517</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-396</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-397</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-408</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-304 MG-453 MG-514</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MG-303 </t>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-effect增加命中关联</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-反伤</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-触发一个行动</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-917</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-918</t>
@@ -3560,11 +3560,11 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>等待验收&amp;测试</t>
@@ -3577,21 +3577,21 @@
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-967</t>
   </si>
   <si>
     <t>MG-967</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>大招美术需求</t>
@@ -3604,11 +3604,11 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-410</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
@@ -3624,37 +3624,37 @@
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">看信+收取+全部收取 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月10日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-972</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-971</t>
@@ -3685,40 +3685,40 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
     <rPh sb="0" eb="1">
       <t>yagn'xue</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月21日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1050</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI调整</t>
@@ -3728,7 +3728,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>受击动作（触发条件，触发事件）</t>
@@ -3750,22 +3750,22 @@
     <rPh sb="12" eb="13">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-987</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月15日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，被动技能tips</t>
@@ -3778,47 +3778,47 @@
     <rPh sb="9" eb="10">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1016</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月20日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1055</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>slotIcon封装</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">装备弹出UI封装 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>非装备道具Tips（ 包含位置自动调整）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1058</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1056</t>
@@ -3843,23 +3843,23 @@
     <rPh sb="9" eb="10">
       <t>lie'b</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>装备属性界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>装备列表ui</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>同步客户端装备信息</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1098</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1097</t>
@@ -3869,11 +3869,11 @@
   </si>
   <si>
     <t>宠物详情界面、装备列表、装备详情界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1100</t>
@@ -3892,19 +3892,19 @@
     <rPh sb="7" eb="8">
       <t>bao'shi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>强化进阶界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>开孔和镶嵌界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1145</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1146</t>
@@ -3917,153 +3917,153 @@
   </si>
   <si>
     <t>宝石属性及合成表，接口部分</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宝石选择列表界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化进阶、宝石镶嵌、宝石列表界面</t>
   </si>
   <si>
     <t>MG-1160</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ui </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>输入框超出像左移动,最多输入限制</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>玩家发言间隔</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>切换聊天频道</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>聊天频道划分</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hd'uuan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'wu'qi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器-IM-公共频道，公会频道</t>
   </si>
   <si>
     <t>MG-1022</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1176</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1177</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1178</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽功能</t>
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店物品购买和刷新  </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商城                  </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">月卡和钻石兑换金币      </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>IM翻译功能（新版API变复杂了）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务端http库的升级与扩展，IM翻译功能 -网络功能</t>
     <rPh sb="25" eb="26">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>Im功能补充 -增加公告、走马灯等系统消息</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>玩家发消息,显示服务器消息解析</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商店配置和数据格式设计</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1180</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1181</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1182</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示排版</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>最多可查看50行消息</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>手指滑动聊天框一系列功能</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>走马灯,系统公告,提示信息</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1183</t>
@@ -4076,29 +4076,29 @@
   </si>
   <si>
     <t>MG-1186</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1187</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1122</t>
   </si>
   <si>
     <t>MG-1188</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1189</t>
   </si>
   <si>
     <t>MG-1113</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1190</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1191</t>
@@ -4117,18 +4117,18 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'h'd</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1217</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1218</t>
@@ -4144,53 +4144,53 @@
   </si>
   <si>
     <t>商店商城与服务器联调</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商城UI与数据</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商店弹出框开发</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商店UI与逻辑开发</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店数据封装 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>IM界面、玩家菜单、走马灯、系统提示、系统公告UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1239</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商店（普通、公会）+商城UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1238</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1246</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1247</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商城-支付服务器</t>
@@ -4203,7 +4203,7 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>点玩家名弹出界面</t>
@@ -4219,46 +4219,46 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1243</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本结算，复活</t>
   </si>
   <si>
     <t>2015年09月23日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">结算，复活ui </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>怪物走出来功能</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>复活逻辑</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶材料修改，UI修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表项，装备显示（无，已装备）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表，技能图标</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表-描述超长换行</t>
@@ -4271,7 +4271,7 @@
     <rPh sb="11" eb="12">
       <t>huan'hang</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面UI替换</t>
@@ -4284,15 +4284,15 @@
     <rPh sb="6" eb="7">
       <t>ti'huan</t>
     </rPh>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>MG-1194</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1259</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1260</t>
@@ -4305,7 +4305,7 @@
   </si>
   <si>
     <t>MG-1287</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1288</t>
@@ -4315,19 +4315,19 @@
   </si>
   <si>
     <t>掉落修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>结算修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>复活</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1295</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1296</t>
@@ -4352,11 +4352,11 @@
   </si>
   <si>
     <t>2015年09月30日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑（一些流程修改）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物升级功能</t>
@@ -4369,36 +4369,36 @@
     <rPh sb="4" eb="5">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1331</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1332</t>
   </si>
   <si>
     <t>结算联调</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz 小珍</t>
     <rPh sb="3" eb="4">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1294</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1333</t>
   </si>
   <si>
     <t>MG-1334</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1335</t>
@@ -4408,68 +4408,68 @@
   </si>
   <si>
     <t>MG-1342</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
     <rPh sb="0" eb="1">
       <t>shang'dian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
       <t>bei'b</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月10日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>背包主UI开发</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>开宝箱</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>消耗品使用（双倍经验，三倍经验，疲劳药）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>出售功能</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>与服务器联调</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>批量开宝箱</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>批量卖</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>双倍、三倍经验</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'sh</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1369</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1367</t>
@@ -4494,22 +4494,22 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>s'f</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1375</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月23日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>道具合成分解</t>
@@ -4522,42 +4522,42 @@
     <rPh sb="4" eb="5">
       <t>fen'jie</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'h'duan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成界面UI  </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成结果UI  </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>分解界面UI</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">分解的筛选方式   </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成分解服务器联调   </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1480</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1481</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1482</t>
@@ -4576,19 +4576,19 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器-分解</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器-连调</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1489</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1487</t>
@@ -4601,11 +4601,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月28日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本选择大地图（选择章节）</t>
@@ -4621,7 +4621,7 @@
     <rPh sb="1" eb="2">
       <t>zhen</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>纯2D画的方式</t>
@@ -4640,7 +4640,7 @@
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
@@ -4650,14 +4650,14 @@
     <rPh sb="0" eb="1">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>主界面，村落，角色升级</t>
@@ -4676,7 +4676,7 @@
     <rPh sb="9" eb="10">
       <t>sheng'ji</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
@@ -4689,30 +4689,30 @@
     <rPh sb="0" eb="1">
       <t>ke'h'dua</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>镜头调整</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>场景编辑，选中效果</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>村落场景添加到流程</t>
@@ -4722,11 +4722,11 @@
     <rPh sb="2" eb="3">
       <t>chang'jing</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>方案1</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>章节选择</t>
@@ -4736,7 +4736,7 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
@@ -4746,19 +4746,19 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>配置修改</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1503</t>
@@ -4774,7 +4774,7 @@
   </si>
   <si>
     <t>副本选择（选择副本）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1498</t>
@@ -4793,25 +4793,25 @@
   </si>
   <si>
     <t>MG-1496</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1495</t>
   </si>
   <si>
     <t>MG-1495</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月02日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>活力值</t>
     <rPh sb="0" eb="1">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>活力值自动恢复 0.5d</t>
@@ -4827,19 +4827,19 @@
   </si>
   <si>
     <t>活力值系统开发与联调</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1550</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1547</t>
@@ -4852,22 +4852,22 @@
   </si>
   <si>
     <t>MG-1546</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>UI-活力值</t>
     <rPh sb="3" eb="4">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1551</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
@@ -4877,7 +4877,7 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>客户端宠物图鉴UI</t>
@@ -4890,11 +4890,11 @@
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务器联调 </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
@@ -4904,7 +4904,7 @@
     <rPh sb="2" eb="3">
       <t>he'cheng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
@@ -4917,7 +4917,7 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴-UI</t>
@@ -4927,18 +4927,18 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>新需求</t>
     <rPh sb="0" eb="1">
       <t>xin'xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>场地buff添加</t>
@@ -4951,7 +4951,7 @@
     <rPh sb="6" eb="7">
       <t>tian'jia</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>buff消失事件触发</t>
@@ -4964,7 +4964,7 @@
     <rPh sb="8" eb="9">
       <t>chu'fa</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>攻击为0的情况处理</t>
@@ -4983,7 +4983,7 @@
     <rPh sb="7" eb="8">
       <t>chu'li</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>物理免疫法术免疫</t>
@@ -4999,34 +4999,34 @@
     <rPh sb="6" eb="7">
       <t>mian'yi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">无法回复buff </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>switch添加检测目标功能</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宝石属性配置修改，添加到技能，伤害公式修改</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1618</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1596</t>
@@ -5039,21 +5039,21 @@
   </si>
   <si>
     <t>MG-1599</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1595</t>
   </si>
   <si>
     <t>MG-1621</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1620</t>
   </si>
   <si>
     <t>MG-1587</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1588</t>
@@ -5078,91 +5078,91 @@
   </si>
   <si>
     <t>2015年11月13日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-配置数据结构添加</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-村落切特写镜头</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔特写镜头ui提示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-流程添加 结算</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔(经验,金币)+通天塔BOSS UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔刷新</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-开启时间+奖励展示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">通天塔-通天塔(经验,金币)入口+难度选择 </t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-阶段奖励 + 副本状态</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔界面动画</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'hu'd</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-配置</t>
@@ -5175,7 +5175,7 @@
     <rPh sb="8" eb="9">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-两种入口</t>
@@ -5191,7 +5191,7 @@
     <rPh sb="10" eb="11">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-刷新</t>
@@ -5204,19 +5204,19 @@
     <rPh sb="8" eb="9">
       <t>shua'xin</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1669</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1666</t>
@@ -5262,11 +5262,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月14日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整</t>
@@ -5279,14 +5279,14 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'sh</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整-服务器</t>
@@ -5302,15 +5302,15 @@
     <rPh sb="7" eb="8">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-659</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择-UI</t>
@@ -5320,29 +5320,29 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'f</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1679</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月18日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜</t>
@@ -5352,7 +5352,7 @@
     <rPh sb="3" eb="4">
       <t>zhao'yao'jing</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>集火逻辑修改</t>
@@ -5374,19 +5374,19 @@
   </si>
   <si>
     <t>照妖镜 鉴定弱点过程修改（鉴定表现，完成表现，ui选择表现）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>弱点配置结果修改</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>其它：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1683</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1684</t>
@@ -5399,36 +5399,36 @@
   </si>
   <si>
     <t>弱点对应UI的显示（根据弱点状态）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
     <rPh sb="0" eb="1">
       <t>te'xiao</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1681</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局-大招&amp;其他修改</t>
@@ -5444,27 +5444,27 @@
     <rPh sb="8" eb="9">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月20日</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能名称提示，伤害数字显示规则调整 大招飞进来 </t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>取消开战，副本进度 ，对局ui出现消失规则</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>特性显示，加速响应调整</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>大招幕布技能名</t>
@@ -5480,19 +5480,19 @@
     <rPh sb="6" eb="7">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1713</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1744</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-1745</t>
@@ -5505,11 +5505,11 @@
     <rPh sb="2" eb="3">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>掉落指引-修改界面接入的方式</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>道具tips，宠物图鉴掉落指引</t>
@@ -5528,15 +5528,15 @@
     <rPh sb="13" eb="14">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月25日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1747</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1748</t>
@@ -5549,49 +5549,49 @@
   </si>
   <si>
     <t xml:space="preserve">掉落指引-道具tips与宠物合成界面tips </t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">掉落指引-途径的事件管理 </t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
     <rPh sb="0" eb="1">
       <t>gong'hui</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月27日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公会静态数据结构</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公会系统 数据及 UI结构搭建，根据数据跳转到公会相应界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>创建公会</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公会成员列表，成员管理 ，赠送体力</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1806</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1807</t>
   </si>
   <si>
     <t>MG-1808</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1809</t>
@@ -5601,46 +5601,46 @@
   </si>
   <si>
     <t>公会祈福UI</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公会祈福联调</t>
     <rPh sb="4" eb="5">
       <t>lian'tiao</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公会列表，搜索，申请公会</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>工会科技ui</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>工会科技升级消耗联调</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>工会科技影响到结算</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1815</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1813</t>
@@ -5653,11 +5653,11 @@
   </si>
   <si>
     <t>公会信息（基础信息，领奖，修改公告，）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1817</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1818</t>
@@ -5670,7 +5670,7 @@
   </si>
   <si>
     <t>MG-1746</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器-基础，祈福、任务、科技</t>
@@ -5680,7 +5680,7 @@
     <rPh sb="4" eb="5">
       <t>ji'chu</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>美术资源</t>
@@ -5690,25 +5690,25 @@
     <rPh sb="2" eb="3">
       <t>zi'yuan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1823</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>列表界面排版/可装备'+'配置</t>
   </si>
   <si>
     <t>经验药水界面（调整左侧界面关联）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面重做</t>
   </si>
   <si>
     <t>2015年12月02日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>战力计算</t>
@@ -5718,27 +5718,27 @@
     <rPh sb="2" eb="3">
       <t>ji'suan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1825</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物详情左侧界面及右侧控制逻辑</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>装备信息强化/镶嵌界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>装备弹出列表</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>装备tips和获取途径</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1826</t>
@@ -5766,22 +5766,22 @@
   </si>
   <si>
     <t>宝石列表（逻辑相对复杂）</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>待排期</t>
     <rPh sb="0" eb="1">
       <t>dai'pai'qi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>宠物强化进阶</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>IM  世界频道支持公会招募 及跳转  公会频道支持 公会任务发布 及跳转</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>IM 超链接功能</t>
@@ -5791,11 +5791,11 @@
     <rPh sb="6" eb="7">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年12月03日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>IM、邮箱调整</t>
@@ -5805,7 +5805,7 @@
     <rPh sb="5" eb="6">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>做删除动画</t>
@@ -5818,7 +5818,7 @@
   </si>
   <si>
     <t>MG-1879</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1878</t>
@@ -5828,41 +5828,41 @@
     <rPh sb="5" eb="6">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>UI-邮箱修改</t>
     <rPh sb="5" eb="6">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1797</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1798</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>罗阳</t>
     <rPh sb="0" eb="1">
       <t>luo'yang</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>IM UI更改和动画</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>查看工会,系统公告更改</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天框显示规则</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>优化发送消息（卡顿感觉）</t>
@@ -5872,11 +5872,11 @@
     <rPh sb="9" eb="10">
       <t>gan'jue</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1881</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1880</t>
@@ -5892,26 +5892,26 @@
   </si>
   <si>
     <t>发言间隔点击done发送</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>技能界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>检测装备升级</t>
   </si>
   <si>
     <t>MG-1888</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1887</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>2015年12月11日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商店商城修改</t>
@@ -5924,7 +5924,7 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商店修改，换UI</t>
@@ -5937,7 +5937,7 @@
     <rPh sb="5" eb="6">
       <t>huan</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商城新功能</t>
@@ -5950,7 +5950,7 @@
     <rPh sb="3" eb="4">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>商店、商城修改</t>
@@ -5963,41 +5963,41 @@
     <rPh sb="5" eb="6">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1944</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1943</t>
   </si>
   <si>
     <t>MG-1942</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>其它公会</t>
   </si>
   <si>
     <t>公会任务-与服务器联调</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公会任务-其它队伍展示，加入任务</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公会任务-开启任务</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公会任务-我的小队，任务展示，提交任务，奖励展示 放弃任务</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1953</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1949</t>
@@ -6013,7 +6013,7 @@
   </si>
   <si>
     <t>2015年12月16日</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>登录流程</t>
@@ -6023,43 +6023,43 @@
     <rPh sb="2" eb="3">
       <t>liu'cheng</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>登录注册</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务器UI </t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公告</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器列表功能+联调</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>异常情况处理</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器列表状态</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>sessionkey验证</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>绑定昵称</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
@@ -6078,7 +6078,7 @@
     <rPh sb="13" eb="14">
       <t>chai'fen</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>创建角色未拆分</t>
@@ -6094,11 +6094,11 @@
     <rPh sb="5" eb="6">
       <t>chai'fen</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1956</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1954</t>
@@ -6117,14 +6117,14 @@
   </si>
   <si>
     <t>资源更新界面</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>孔瑱</t>
     <rPh sb="0" eb="1">
       <t>kong'zhen</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1960</t>
@@ -6140,7 +6140,7 @@
     <rPh sb="0" eb="1">
       <t>dou'dou</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>服务器界面</t>
@@ -6150,7 +6150,7 @@
     <rPh sb="3" eb="4">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>登录界面更新界面UI</t>
@@ -6166,7 +6166,7 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>公告界面</t>
@@ -6176,7 +6176,7 @@
     <rPh sb="2" eb="3">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>动画演示</t>
@@ -6186,18 +6186,18 @@
     <rPh sb="2" eb="3">
       <t>yan'shi</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>铁马</t>
     <rPh sb="0" eb="1">
       <t>tie'ma</t>
     </rPh>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1965</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1963</t>
@@ -6207,15 +6207,227 @@
   </si>
   <si>
     <t>MG-1931</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>登录界面底图</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>MG-1966</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+  </si>
+  <si>
+    <t>摆放搭建UI界面（奖励提示界面）</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>做任务列表项的动画大约</t>
+  </si>
+  <si>
+    <t>0.5d</t>
+  </si>
+  <si>
+    <t>修改代码，以及与服务器联调</t>
+  </si>
+  <si>
+    <t>服务器端</t>
+  </si>
+  <si>
+    <t>任务ui设计</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1d</t>
+  </si>
+  <si>
+    <t>任务ui调整加动画设计</t>
+  </si>
+  <si>
+    <t>验收+debug</t>
+  </si>
+  <si>
+    <t>2016年01月04日</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务新增功能</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1986</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2064</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2065</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2066</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险</t>
+    <rPh sb="0" eb="1">
+      <t>da'mao'xian</t>
+    </rPh>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年01月13日</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务选择界面(包含时间和状态部分处理)</t>
+  </si>
+  <si>
+    <t>小队界面存在</t>
+  </si>
+  <si>
+    <t>刷新条件次数弹出框，立即完成弹出窗，使用公会宠物弹出窗</t>
+  </si>
+  <si>
+    <t>数据配置解析</t>
+  </si>
+  <si>
+    <t>服务器联调</t>
+  </si>
+  <si>
+    <t>布置阵容界面（感觉筛选、条件及更新比较复杂两天做不完）</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">领取奖励界面  </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">配置及数据 </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">同步、变更次数、筛选、雇佣、进入、领奖、小队管理 </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工会派兵 </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会基地奖励</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险接口</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小龙 </t>
+    <rPh sb="0" eb="1">
+      <t>xiao'long</t>
+    </rPh>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会基地开发</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会基地联调</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2168</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2164</t>
+  </si>
+  <si>
+    <t>MG-2165</t>
+  </si>
+  <si>
+    <t>MG-2166</t>
+  </si>
+  <si>
+    <t>MG-2167</t>
+  </si>
+  <si>
+    <t>MG-2169</t>
+  </si>
+  <si>
+    <t>MG-2170</t>
+  </si>
+  <si>
+    <t>MG-2171</t>
+  </si>
+  <si>
+    <t>MG-2172</t>
+  </si>
+  <si>
+    <t>MG-2173</t>
+  </si>
+  <si>
+    <t>MG-2174</t>
+  </si>
+  <si>
+    <t>MG-2175</t>
+  </si>
+  <si>
+    <t>MG-2176</t>
+  </si>
+  <si>
+    <t>MG-2177</t>
+  </si>
+  <si>
+    <t>公会基地</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'di</t>
+    </rPh>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-大冒险</t>
+    <rPh sb="3" eb="4">
+      <t>da'mao'xian</t>
+    </rPh>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <rPh sb="0" eb="1">
+      <t>tie'm</t>
+    </rPh>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会基地</t>
+    <rPh sb="3" eb="4">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'di</t>
+    </rPh>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6225,7 +6437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6233,6 +6445,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6843,538 +7062,554 @@
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="67" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="68" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="65" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
@@ -10446,7 +10681,7 @@
       <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="44" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 G139:J139 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
     <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>"未完成"</formula>
@@ -11774,7 +12009,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="B2:H8">
     <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
       <formula>"未完成"</formula>
@@ -12968,7 +13203,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="B2:I3 B4:G4 I4:I5 B13:I18 D12:H12 D6:I11 D5:G5 B5:C12">
     <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"未完成"</formula>
@@ -13010,13 +13245,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13346,7 +13581,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="156"/>
       <c r="D17" s="1" t="s">
@@ -13362,7 +13597,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="156"/>
       <c r="D18" s="1" t="s">
@@ -13378,7 +13613,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="156"/>
       <c r="D19" s="1" t="s">
@@ -13394,7 +13629,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="156"/>
       <c r="D20" s="2" t="s">
@@ -13415,7 +13650,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="156"/>
       <c r="D21" s="1"/>
@@ -13425,7 +13660,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>528</v>
       </c>
@@ -13437,7 +13672,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="156"/>
       <c r="D23" s="1" t="s">
@@ -13453,7 +13688,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="156"/>
       <c r="D24" s="1"/>
@@ -13463,7 +13698,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>529</v>
       </c>
@@ -13475,7 +13710,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="156"/>
       <c r="D26" s="1" t="s">
@@ -13489,7 +13724,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="156" t="s">
         <v>716</v>
@@ -13505,7 +13740,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="156"/>
       <c r="D28" s="1"/>
@@ -13519,8 +13754,182 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:11" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="231" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B29" s="229"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="228" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B30" s="228" t="s">
+        <v>690</v>
+      </c>
+      <c r="D30" s="228" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E30" s="232">
+        <v>1</v>
+      </c>
+      <c r="G30" s="233" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="233" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="228"/>
+      <c r="B31" s="228"/>
+      <c r="D31" s="228" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E31" s="232">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="233" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="233" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="228"/>
+      <c r="B32" s="228"/>
+      <c r="D32" s="228" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E32" s="232">
+        <v>1</v>
+      </c>
+      <c r="G32" s="233" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="233" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="228"/>
+      <c r="B33" s="228"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="232"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="228"/>
+      <c r="B34" s="228" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D34" s="228" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E34" s="232">
+        <v>3</v>
+      </c>
+      <c r="G34" s="233" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="233" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="228"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="228"/>
+      <c r="D35" s="228"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="228"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="228"/>
+      <c r="D36" s="228"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="228"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="228"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="228"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="228"/>
+      <c r="D38" s="228"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="228" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="228" t="s">
+        <v>512</v>
+      </c>
+      <c r="C39" s="228" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D39" s="228" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="228"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="228" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D40" s="228" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="228"/>
+      <c r="B41" s="228"/>
+      <c r="C41" s="228"/>
+      <c r="D41" s="228"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="228"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="228"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="228"/>
+      <c r="B43" s="228"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="228"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="228"/>
+      <c r="B44" s="228"/>
+      <c r="C44" s="228"/>
+      <c r="D44" s="228"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="228"/>
+      <c r="B45" s="228"/>
+      <c r="C45" s="228"/>
+      <c r="D45" s="228"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="228" t="s">
+        <v>975</v>
+      </c>
+      <c r="B46" s="228"/>
+      <c r="C46" s="228" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D46" s="228" t="s">
+        <v>1284</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 J2:J5 B2:I28">
     <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"未完成"</formula>
@@ -14637,7 +15046,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -15935,7 +16344,7 @@
       <c r="M87" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="E1:H2">
     <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -15952,11 +16361,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97:G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -17067,274 +17476,267 @@
       </c>
       <c r="B96" s="178"/>
       <c r="C96" s="177" t="s">
-        <v>1202</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="145" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B97" s="145"/>
+      <c r="C97" s="145" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D97" s="145">
+        <v>2</v>
+      </c>
+      <c r="F97" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="145" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="145"/>
+      <c r="C98" s="145" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D98" s="145">
+        <v>1</v>
+      </c>
+      <c r="F98" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="145" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="145"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="145" t="s">
+        <v>855</v>
+      </c>
+      <c r="B100" s="145"/>
+      <c r="C100" s="145" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D100" s="145">
+        <v>2</v>
+      </c>
+      <c r="F100" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" s="145" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="145"/>
+      <c r="C101" s="145" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D101" s="145">
+        <v>1</v>
+      </c>
+      <c r="F101" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="145" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="145"/>
+      <c r="C102" s="145" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D102" s="145">
+        <v>1</v>
+      </c>
+      <c r="F102" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G102" s="145" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="145"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="B104" s="145"/>
+      <c r="C104" s="145" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F104" s="145" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="145"/>
+    </row>
+    <row r="106" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="177" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B106" s="178"/>
+      <c r="C106" s="177" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="145" t="s">
         <v>815</v>
       </c>
-      <c r="C97" s="145" t="s">
+      <c r="C107" s="145" t="s">
         <v>1203</v>
       </c>
-      <c r="D97" s="145">
-        <v>1</v>
-      </c>
-      <c r="F97" s="145" t="s">
+      <c r="D107" s="145">
+        <v>1</v>
+      </c>
+      <c r="F107" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="G97" s="145" t="s">
+      <c r="G107" s="145" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="145" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="145" t="s">
         <v>1204</v>
-      </c>
-      <c r="D98" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="F98" s="145" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G98" s="145" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="145" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D99" s="145">
-        <v>1</v>
-      </c>
-      <c r="F99" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G99" s="145" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C100" s="145" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D100" s="145">
-        <v>1</v>
-      </c>
-      <c r="F100" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G100" s="145" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C101" s="145" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D101" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="F101" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G101" s="145" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C102" s="145" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D102" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="F102" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G102" s="145" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="145" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D103" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="F103" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G103" s="145" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="145" t="s">
-        <v>744</v>
-      </c>
-      <c r="C108" s="145" t="s">
-        <v>1209</v>
       </c>
       <c r="D108" s="145">
         <v>0.5</v>
       </c>
       <c r="F108" s="145" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="G108" s="145" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C109" s="145" t="s">
-        <v>1208</v>
+        <v>1215</v>
       </c>
       <c r="D109" s="145">
+        <v>1</v>
+      </c>
+      <c r="F109" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G109" s="145" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="145" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D110" s="145">
+        <v>1</v>
+      </c>
+      <c r="F110" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G110" s="145" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="145" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D111" s="145">
         <v>0.5</v>
       </c>
-      <c r="F109" s="145" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G109" s="145" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="177" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B111" s="178"/>
-      <c r="C111" s="177" t="s">
-        <v>1246</v>
+      <c r="F111" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G111" s="145" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="145" t="s">
-        <v>1252</v>
-      </c>
       <c r="C112" s="145" t="s">
-        <v>1247</v>
+        <v>1216</v>
       </c>
       <c r="D112" s="145">
-        <v>1</v>
-      </c>
-      <c r="E112" s="145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F112" s="145" t="s">
-        <v>1256</v>
+        <v>698</v>
       </c>
       <c r="G112" s="145" t="s">
-        <v>1260</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C113" s="145" t="s">
-        <v>1249</v>
+        <v>1214</v>
       </c>
       <c r="D113" s="145">
-        <v>1</v>
-      </c>
-      <c r="E113" s="145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F113" s="145" t="s">
-        <v>1256</v>
+        <v>698</v>
       </c>
       <c r="G113" s="145" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="145" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D114" s="145">
-        <v>1</v>
-      </c>
-      <c r="E114" s="145">
-        <v>1</v>
-      </c>
-      <c r="F114" s="145" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G114" s="145" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C115" s="145" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D115" s="145">
-        <v>2</v>
-      </c>
-      <c r="E115" s="145">
-        <v>1</v>
-      </c>
-      <c r="F115" s="145" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G115" s="145" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C116" s="145" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D116" s="145">
-        <v>1.5</v>
-      </c>
-      <c r="E116" s="145">
-        <v>1</v>
-      </c>
-      <c r="F116" s="145" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G116" s="145" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="145" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D117" s="145">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="C118" s="145" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D118" s="145">
         <v>0.5</v>
       </c>
-      <c r="E117" s="145">
-        <v>1</v>
-      </c>
-      <c r="F117" s="145" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G117" s="145" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C118" s="145" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E118" s="145">
-        <v>1</v>
+      <c r="F118" s="145" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G118" s="145" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C119" s="145" t="s">
-        <v>1258</v>
+        <v>1208</v>
+      </c>
+      <c r="D119" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F119" s="145" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G119" s="145" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="177" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B121" s="178"/>
+      <c r="C121" s="177" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="145" t="s">
-        <v>855</v>
+        <v>1252</v>
       </c>
       <c r="C122" s="145" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="D122" s="145">
         <v>1</v>
@@ -17343,15 +17745,15 @@
         <v>1</v>
       </c>
       <c r="F122" s="145" t="s">
-        <v>43</v>
+        <v>1256</v>
       </c>
       <c r="G122" s="145" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C123" s="145" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="D123" s="145">
         <v>1</v>
@@ -17360,15 +17762,15 @@
         <v>1</v>
       </c>
       <c r="F123" s="145" t="s">
-        <v>43</v>
+        <v>1256</v>
       </c>
       <c r="G123" s="145" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C124" s="145" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="D124" s="145">
         <v>1</v>
@@ -17377,87 +17779,205 @@
         <v>1</v>
       </c>
       <c r="F124" s="145" t="s">
-        <v>43</v>
+        <v>1256</v>
       </c>
       <c r="G124" s="145" t="s">
-        <v>1269</v>
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="145" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D125" s="145">
+        <v>2</v>
+      </c>
+      <c r="E125" s="145">
+        <v>1</v>
+      </c>
+      <c r="F125" s="145" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G125" s="145" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C126" s="145" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D126" s="145">
+        <v>1.5</v>
+      </c>
+      <c r="E126" s="145">
+        <v>1</v>
+      </c>
+      <c r="F126" s="145" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G126" s="145" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="145" t="s">
-        <v>744</v>
-      </c>
       <c r="C127" s="145" t="s">
-        <v>1280</v>
+        <v>1251</v>
       </c>
       <c r="D127" s="145">
-        <v>18</v>
+        <v>0.5</v>
+      </c>
+      <c r="E127" s="145">
+        <v>1</v>
       </c>
       <c r="F127" s="145" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G127" s="145" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C128" s="145" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E128" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C129" s="145" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="145" t="s">
+        <v>855</v>
+      </c>
+      <c r="C132" s="145" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D132" s="145">
+        <v>1</v>
+      </c>
+      <c r="E132" s="145">
+        <v>1</v>
+      </c>
+      <c r="F132" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G132" s="145" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C133" s="145" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D133" s="145">
+        <v>1</v>
+      </c>
+      <c r="E133" s="145">
+        <v>1</v>
+      </c>
+      <c r="F133" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" s="145" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C134" s="145" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D134" s="145">
+        <v>1</v>
+      </c>
+      <c r="E134" s="145">
+        <v>1</v>
+      </c>
+      <c r="F134" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="145" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="C137" s="145" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D137" s="145">
+        <v>18</v>
+      </c>
+      <c r="F137" s="145" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G137" s="145" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C138" s="145" t="s">
         <v>1271</v>
       </c>
-      <c r="D128" s="145">
-        <v>1</v>
-      </c>
-      <c r="F128" s="145" t="s">
+      <c r="D138" s="145">
+        <v>1</v>
+      </c>
+      <c r="F138" s="145" t="s">
         <v>1275</v>
       </c>
-      <c r="G128" s="145" t="s">
+      <c r="G138" s="145" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C129" s="145" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C139" s="145" t="s">
         <v>1272</v>
       </c>
-      <c r="D129" s="145">
+      <c r="D139" s="145">
         <v>0.5</v>
       </c>
-      <c r="F129" s="145" t="s">
+      <c r="F139" s="145" t="s">
         <v>1275</v>
       </c>
-      <c r="G129" s="145" t="s">
+      <c r="G139" s="145" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C130" s="145" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C140" s="145" t="s">
         <v>1273</v>
       </c>
-      <c r="D130" s="145">
+      <c r="D140" s="145">
         <v>0.5</v>
       </c>
-      <c r="F130" s="145" t="s">
+      <c r="F140" s="145" t="s">
         <v>1275</v>
       </c>
-      <c r="G130" s="145" t="s">
+      <c r="G140" s="145" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C131" s="145" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C141" s="145" t="s">
         <v>1274</v>
       </c>
-      <c r="D131" s="145">
+      <c r="D141" s="145">
         <v>0.5</v>
       </c>
-      <c r="F131" s="145" t="s">
+      <c r="F141" s="145" t="s">
         <v>1275</v>
       </c>
-      <c r="G131" s="145" t="s">
+      <c r="G141" s="145" t="s">
         <v>1276</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -17474,11 +17994,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -17754,7 +18274,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="216" t="s">
         <v>1076</v>
       </c>
@@ -17768,7 +18288,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="111" t="s">
         <v>4</v>
       </c>
@@ -17777,7 +18297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="145" t="s">
         <v>744</v>
       </c>
@@ -17791,8 +18311,162 @@
         <v>1101</v>
       </c>
     </row>
+    <row r="22" spans="1:8" s="110" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="106" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B22" s="117"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="123" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="119"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="145" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D23" s="145" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E23" s="145">
+        <v>2</v>
+      </c>
+      <c r="G23" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="145" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="145" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E24" s="145">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="145" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H24" s="145" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="145" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E25" s="145">
+        <v>3</v>
+      </c>
+      <c r="G25" s="145" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H25" s="145" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="145" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E26" s="145">
+        <v>1.5</v>
+      </c>
+      <c r="G26" s="145" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H26" s="145" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="145" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E27" s="145">
+        <v>1</v>
+      </c>
+      <c r="G27" s="145" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H27" s="145" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="145" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E28" s="145">
+        <v>0.7</v>
+      </c>
+      <c r="G28" s="145" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H28" s="145" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="145" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E29" s="145">
+        <v>1</v>
+      </c>
+      <c r="G29" s="145" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H29" s="145" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="145" t="s">
+        <v>855</v>
+      </c>
+      <c r="D31" s="145" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E31" s="145">
+        <v>1</v>
+      </c>
+      <c r="G31" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="145" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="145" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E32" s="145">
+        <v>4</v>
+      </c>
+      <c r="G32" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="145" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="D34" s="145" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G34" s="145" t="s">
+        <v>1332</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"未完成"</formula>
@@ -29052,7 +29726,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AH189"/>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="AB4:AH18 B102:C104 D103:G104 B101:AH101 B133:G133 C134:G137 H88:H93 D102:AH102 I87:N93 P90:AB94 B94:N94 B124:I132 P4:Y18 B105:G114 B134:B139 C138:I139 H103:AH114 B183:C183 E183:AH183 E185:AH185 B185:C185 J184:AH184 J186:AH186 B187:C187 B145:C145 E187:AH187 H145:AH145 J158:AH158 J161:AH161 J164:AH164 J167:AH167 J170:AH170 J177:AH182 B157:AH157 B159:C160 E159:AH160 B162:C163 E162:AH163 B165:C166 E165:AH166 B168:C169 E168:AH169 J172:AH172 B171:C171 E171:AH171 B173:C173 J174:AH174 E173:AH173 B175:C176 E175:AH176 H133:I137 B122:AH123 J155:AH156 J25:AH25 B19:AH22 O71 AB71:AH84 B70:AH70 E154:AH154 B154:C154 B87:G93 AC86:AH94 AB86:AB89 P86:Y89 B86:N86 B98:N100 P98:AH100 AB51:AH64 J150:AH153 J115:AH121 J96:AH96 B36 I26:AH26 C26:G26 E65:E69 B4:N18 B65:B69 P71:Y84 B39:AH50 B35:AH35 B71:N84 B51:Y64 C27:AH34 C23:AH24 B23:B34 J124:AH144 N146 A3:AH3">
     <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"TBD"</formula>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1357">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
@@ -6406,27 +6406,102 @@
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
-    <t>UI-大冒险</t>
-    <rPh sb="3" eb="4">
-      <t>da'mao'xian</t>
-    </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁马</t>
+    <t>云祥</t>
     <rPh sb="0" eb="1">
-      <t>tie'm</t>
-    </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-公会基地</t>
-    <rPh sb="3" eb="4">
-      <t>gong'hui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji'di</t>
-    </rPh>
+      <t>yun'xiang</t>
+    </rPh>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会基地玩家列表 </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会基地选择宠物</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会基地二级  </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>云祥</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险对阵界面  调ui和动画 </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险奖励界面  调ui和动画和特效</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>九张图 每个档位需要有一个底图 共9张图  </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险主界面    调ui和动画 </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2236</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2234</t>
+  </si>
+  <si>
+    <t>MG-2235</t>
+  </si>
+  <si>
+    <t>MG-2237</t>
+  </si>
+  <si>
+    <t>MG-2238</t>
+  </si>
+  <si>
+    <t>MG-2239</t>
+  </si>
+  <si>
+    <t>MG-2240</t>
+  </si>
+  <si>
+    <t>MG-2241</t>
+  </si>
+  <si>
+    <t>大冒险队伍界面  调ui和动画</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险二级界面  调ui和动画</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险对阵界面完成度宝箱动画 （需宝箱ok）</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面完成冒险特效动画      （需原画ok）</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2229</t>
+  </si>
+  <si>
+    <t>MG-2229</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会基地主界面 （需3d）调ui和3d动画加特效 </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2242</t>
     <phoneticPr fontId="41" type="noConversion"/>
   </si>
 </sst>
@@ -16361,11 +16436,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97:G98"/>
+      <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -17572,407 +17647,464 @@
       </c>
       <c r="B104" s="145"/>
       <c r="C104" s="145" t="s">
-        <v>1333</v>
+        <v>1355</v>
+      </c>
+      <c r="D104" s="145">
+        <v>1</v>
       </c>
       <c r="F104" s="145" t="s">
-        <v>1332</v>
+        <v>1331</v>
+      </c>
+      <c r="G104" s="145" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B105" s="145"/>
-    </row>
-    <row r="106" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="177" t="s">
+      <c r="C105" s="145" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D105" s="145">
+        <v>0.3</v>
+      </c>
+      <c r="F105" s="145" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G105" s="145" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="145"/>
+      <c r="C106" s="145" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D106" s="145">
+        <v>0.3</v>
+      </c>
+      <c r="F106" s="145" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G106" s="145" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="145"/>
+      <c r="C107" s="145" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D107" s="145">
+        <v>0.3</v>
+      </c>
+      <c r="F107" s="145" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G107" s="145" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="145"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="145"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="145"/>
+    </row>
+    <row r="111" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="177" t="s">
         <v>1201</v>
       </c>
-      <c r="B106" s="178"/>
-      <c r="C106" s="177" t="s">
+      <c r="B111" s="178"/>
+      <c r="C111" s="177" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="145" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="145" t="s">
         <v>815</v>
       </c>
-      <c r="C107" s="145" t="s">
+      <c r="C112" s="145" t="s">
         <v>1203</v>
       </c>
-      <c r="D107" s="145">
-        <v>1</v>
-      </c>
-      <c r="F107" s="145" t="s">
+      <c r="D112" s="145">
+        <v>1</v>
+      </c>
+      <c r="F112" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="G107" s="145" t="s">
+      <c r="G112" s="145" t="s">
         <v>1207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="145" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D108" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="F108" s="145" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G108" s="145" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="145" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D109" s="145">
-        <v>1</v>
-      </c>
-      <c r="F109" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G109" s="145" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="145" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D110" s="145">
-        <v>1</v>
-      </c>
-      <c r="F110" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G110" s="145" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C111" s="145" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D111" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="F111" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G111" s="145" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C112" s="145" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D112" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="F112" s="145" t="s">
-        <v>698</v>
-      </c>
-      <c r="G112" s="145" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C113" s="145" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="D113" s="145">
         <v>0.5</v>
       </c>
       <c r="F113" s="145" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G113" s="145" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="145" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D114" s="145">
+        <v>1</v>
+      </c>
+      <c r="F114" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="G113" s="145" t="s">
-        <v>1221</v>
+      <c r="G114" s="145" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="145" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D115" s="145">
+        <v>1</v>
+      </c>
+      <c r="F115" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G115" s="145" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="145" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D116" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F116" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G116" s="145" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D117" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F117" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G117" s="145" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="145" t="s">
-        <v>744</v>
-      </c>
       <c r="C118" s="145" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="D118" s="145">
         <v>0.5</v>
       </c>
       <c r="F118" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="G118" s="145" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="C123" s="145" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D123" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F123" s="145" t="s">
         <v>1212</v>
       </c>
-      <c r="G118" s="145" t="s">
+      <c r="G123" s="145" t="s">
         <v>1210</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C119" s="145" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D119" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="F119" s="145" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G119" s="145" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="177" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B121" s="178"/>
-      <c r="C121" s="177" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="145" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C122" s="145" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D122" s="145">
-        <v>1</v>
-      </c>
-      <c r="E122" s="145">
-        <v>1</v>
-      </c>
-      <c r="F122" s="145" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G122" s="145" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C123" s="145" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D123" s="145">
-        <v>1</v>
-      </c>
-      <c r="E123" s="145">
-        <v>1</v>
-      </c>
-      <c r="F123" s="145" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G123" s="145" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C124" s="145" t="s">
-        <v>1248</v>
+        <v>1208</v>
       </c>
       <c r="D124" s="145">
-        <v>1</v>
-      </c>
-      <c r="E124" s="145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F124" s="145" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G124" s="145" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="177" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B126" s="178"/>
+      <c r="C126" s="177" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="145" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C127" s="145" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D127" s="145">
+        <v>1</v>
+      </c>
+      <c r="E127" s="145">
+        <v>1</v>
+      </c>
+      <c r="F127" s="145" t="s">
         <v>1256</v>
       </c>
-      <c r="G124" s="145" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C125" s="145" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D125" s="145">
-        <v>2</v>
-      </c>
-      <c r="E125" s="145">
-        <v>1</v>
-      </c>
-      <c r="F125" s="145" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G125" s="145" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C126" s="145" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D126" s="145">
-        <v>1.5</v>
-      </c>
-      <c r="E126" s="145">
-        <v>1</v>
-      </c>
-      <c r="F126" s="145" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G126" s="145" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C127" s="145" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D127" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="E127" s="145">
-        <v>1</v>
-      </c>
-      <c r="F127" s="145" t="s">
-        <v>1266</v>
-      </c>
       <c r="G127" s="145" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C128" s="145" t="s">
-        <v>1257</v>
+        <v>1249</v>
+      </c>
+      <c r="D128" s="145">
+        <v>1</v>
       </c>
       <c r="E128" s="145">
         <v>1</v>
+      </c>
+      <c r="F128" s="145" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G128" s="145" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C129" s="145" t="s">
-        <v>1258</v>
+        <v>1248</v>
+      </c>
+      <c r="D129" s="145">
+        <v>1</v>
+      </c>
+      <c r="E129" s="145">
+        <v>1</v>
+      </c>
+      <c r="F129" s="145" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G129" s="145" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C130" s="145" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D130" s="145">
+        <v>2</v>
+      </c>
+      <c r="E130" s="145">
+        <v>1</v>
+      </c>
+      <c r="F130" s="145" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G130" s="145" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C131" s="145" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D131" s="145">
+        <v>1.5</v>
+      </c>
+      <c r="E131" s="145">
+        <v>1</v>
+      </c>
+      <c r="F131" s="145" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G131" s="145" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="145" t="s">
-        <v>855</v>
-      </c>
       <c r="C132" s="145" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D132" s="145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E132" s="145">
         <v>1</v>
       </c>
       <c r="F132" s="145" t="s">
-        <v>43</v>
+        <v>1266</v>
       </c>
       <c r="G132" s="145" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C133" s="145" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D133" s="145">
-        <v>1</v>
+        <v>1257</v>
       </c>
       <c r="E133" s="145">
         <v>1</v>
-      </c>
-      <c r="F133" s="145" t="s">
-        <v>43</v>
-      </c>
-      <c r="G133" s="145" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C134" s="145" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D134" s="145">
-        <v>1</v>
-      </c>
-      <c r="E134" s="145">
-        <v>1</v>
-      </c>
-      <c r="F134" s="145" t="s">
-        <v>43</v>
-      </c>
-      <c r="G134" s="145" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="145" t="s">
-        <v>744</v>
+        <v>855</v>
       </c>
       <c r="C137" s="145" t="s">
-        <v>1280</v>
+        <v>1253</v>
       </c>
       <c r="D137" s="145">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="E137" s="145">
+        <v>1</v>
       </c>
       <c r="F137" s="145" t="s">
-        <v>1270</v>
+        <v>43</v>
       </c>
       <c r="G137" s="145" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C138" s="145" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="D138" s="145">
         <v>1</v>
       </c>
+      <c r="E138" s="145">
+        <v>1</v>
+      </c>
       <c r="F138" s="145" t="s">
-        <v>1275</v>
+        <v>43</v>
       </c>
       <c r="G138" s="145" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C139" s="145" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D139" s="145">
+        <v>1</v>
+      </c>
+      <c r="E139" s="145">
+        <v>1</v>
+      </c>
+      <c r="F139" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G139" s="145" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="C142" s="145" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D142" s="145">
+        <v>18</v>
+      </c>
+      <c r="F142" s="145" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G142" s="145" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C143" s="145" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D143" s="145">
+        <v>1</v>
+      </c>
+      <c r="F143" s="145" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G143" s="145" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C144" s="145" t="s">
         <v>1272</v>
       </c>
-      <c r="D139" s="145">
+      <c r="D144" s="145">
         <v>0.5</v>
       </c>
-      <c r="F139" s="145" t="s">
+      <c r="F144" s="145" t="s">
         <v>1275</v>
       </c>
-      <c r="G139" s="145" t="s">
+      <c r="G144" s="145" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C140" s="145" t="s">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C145" s="145" t="s">
         <v>1273</v>
       </c>
-      <c r="D140" s="145">
+      <c r="D145" s="145">
         <v>0.5</v>
       </c>
-      <c r="F140" s="145" t="s">
+      <c r="F145" s="145" t="s">
         <v>1275</v>
       </c>
-      <c r="G140" s="145" t="s">
+      <c r="G145" s="145" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C141" s="145" t="s">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C146" s="145" t="s">
         <v>1274</v>
       </c>
-      <c r="D141" s="145">
+      <c r="D146" s="145">
         <v>0.5</v>
       </c>
-      <c r="F141" s="145" t="s">
+      <c r="F146" s="145" t="s">
         <v>1275</v>
       </c>
-      <c r="G141" s="145" t="s">
+      <c r="G146" s="145" t="s">
         <v>1276</v>
       </c>
     </row>
@@ -17994,11 +18126,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31:H32"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18454,15 +18586,119 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="145" t="s">
         <v>744</v>
       </c>
       <c r="D34" s="145" t="s">
-        <v>1331</v>
+        <v>1340</v>
+      </c>
+      <c r="E34" s="145">
+        <v>0.5</v>
       </c>
       <c r="G34" s="145" t="s">
-        <v>1332</v>
+        <v>1335</v>
+      </c>
+      <c r="H34" s="145" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="145" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E35" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="145" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H35" s="145" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="145" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E36" s="145">
+        <v>1</v>
+      </c>
+      <c r="G36" s="145" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H36" s="145" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="145" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E37" s="145">
+        <v>0.4</v>
+      </c>
+      <c r="G37" s="145" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H37" s="145" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="145" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E38" s="145">
+        <v>0.4</v>
+      </c>
+      <c r="G38" s="145" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H38" s="145" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="145" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E39" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="145" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H39" s="145" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="145" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E40" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="145" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H40" s="145" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="145" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E41" s="145">
+        <v>6</v>
+      </c>
+      <c r="G41" s="145" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H41" s="145" t="s">
+        <v>1348</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42020" yWindow="580" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="42020" yWindow="580" windowWidth="31440" windowHeight="19580" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="对局" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1381">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -127,7 +127,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -137,44 +137,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -184,7 +184,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -197,14 +197,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -214,54 +214,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -271,47 +271,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -321,87 +321,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -417,58 +417,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -478,59 +478,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -540,157 +540,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -709,7 +709,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -731,7 +731,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -747,7 +747,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -763,7 +763,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -797,67 +797,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -894,7 +894,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -904,7 +904,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -926,21 +926,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -950,7 +950,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -969,11 +969,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -998,385 +998,385 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>文档反馈</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>文档分析</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>数值反馈</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>客户端开发</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>客户端缩减后</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>客户端分工</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>服务器开发</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>服务器缩减后</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>服务器分工</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>开发备注</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>配置</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>策划配置缩减后</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>配置bug修复</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>用例</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>测试分工</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>QA备注</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>模型</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物基础架构</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>主角属性，账号基础数据</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-伤害公式计算</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>包含补充开发内容和添加log</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗流程（进程，战斗）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-AI</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-UI</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>不包括ui动画效果(后面的ui都不包括ui特效)</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-换宠</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
   </si>
   <si>
     <t>核心战斗-照妖镜</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>核心战斗-道具使用</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>目前看来被抓宠封妖完全包括了</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>只包含抓宠的道具使用</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>抓宠、封妖</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>服务器时间算在结算了</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>对局，技能动画表现</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>用例和测试放到每个本和怪身上具体测试</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>技能系统（服务器计算？对局内操作？）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>按照xw说的非常简单的技能逻辑</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>技能-大招操作*6</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>文档分析和用例只考虑了文档修改部分</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>副本基础逻辑</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>非同步pve</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>副本-照妖镜</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>副本结算功能</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落表现</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -1386,565 +1386,565 @@
   </si>
   <si>
     <t>副本星级评价</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>副本托管</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>ts，雷神</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>任务系统功能</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>村落</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>村落功能（UI表现）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>不确定服务器什么功能</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宠物阵型</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面（包括上阵宠物选择）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物升星</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能升级</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>0..25</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成（炼妖）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物繁殖（交互）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>疲劳值</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>角色界面</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物是否有额外服务器功能？</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>称号系统--vip，竞技场</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>道具-宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>玩家装备套装系统</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>是否和装备功能重合？</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>不包含套装配置测试</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>不包含装备内容配置测试</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备进阶</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备宝石</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备洗炼</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>不包括支付、渠道等</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>NPC商店</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>VIP</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>充值返利</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>月卡</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>拍卖行</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>邮箱-主要用于系统发信</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>好友</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础管理，任务（放在任务界面），商店</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>创建角色</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>账号，登录，注册，切换账号</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>我们内部测试帐号，不包括各个渠道</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>主流程</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>断线处理</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>服务器选择，服务器分流，公告</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
   </si>
   <si>
     <t>系统设置</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>指引界面-活动</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>新手引导</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>版本检测，更新功能</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>loading界面</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>消息推送功能（百度推送？）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>通知--家园、大冒险、邮箱</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>敏感词、屏蔽词</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>抽卡</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>活动功能框架</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>答题</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>竞技场</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>BossRush</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>稀有探索玩法</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>狩猎场</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>擂台</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>文生</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>公会战</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>公会副本</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>缺少副本内容条目，时间估算在这里</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>家园</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>世界boss</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>同步玩法重新写</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>地藏宫殿</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>基于同步玩法</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>激活码-邀请福利等运营相关活动</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>支付功能（各SDK接入）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>zz，文生</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>不是太清楚，接入量未知</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>测试时间不可预估</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
   </si>
   <si>
     <t>运营工具</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>是否是gm工具？</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美术资源需求模板</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>文档规范</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>程序开发规范和约定</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>发布流程</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>关卡编辑器</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>也许可以不用测试</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>导表工具</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>几种表格未知</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>版本自动打包、发布工具</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>开发工具</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>测试工具</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>兼容性测试，性能测试</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1960,7 +1960,7 @@
       </rPr>
       <t>（角色、宠物）</t>
     </r>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1985,11 +1985,11 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>雷神，ts</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2014,71 +2014,71 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>AI</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>10套（勤奋5+倾向5）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>物攻*6</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>法攻*15</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>buff or debuff*14</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>大招*23 （操作表现几套？）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>其他*2</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>队长+友情*36</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>boss技能*16</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>被动技能*30（怪物倾向性设计）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>CP技能（待设计第一期不强需求）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2103,7 +2103,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2128,7 +2128,7 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2153,233 +2153,233 @@
       </rPr>
       <t>个</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>公会任务*20个</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>特殊进化任务32个</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>Avatar</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宠物表现、技能、数值</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>村落配置</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>宝箱，钥匙，体力，双倍</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>装备内容包括属性（进化等）100-200件</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>角色装备10套以下</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>高阶人型*15（3D、动作、特效）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>普通兽型*30（3D、动作、特效）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>纯材料*3（3D、动作、特效）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>xw</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>boss*8（3D、动作、特效）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>boss进化*3（3D、动作、特效）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>高阶兽型*7（3D、动作、特效）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>进化配方设计*8（3D、动作、特效）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>NPC</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>妲己</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>男身体</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>男头（免费）*3</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>男头（付费）*3</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>女身体</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>女头（免费）*3</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>女头（付费）*3</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个（8个建筑物）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>宠物-100-200件</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>角色10套以下</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>人天*1.5，debug时间，和很多不确定因素，包括一些卡点，未知的文档，以及文档反馈修改</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>文档分析时间为基础时间*1.5（与策划反馈修改）
 用例时间为基础时间*1.3（走读修改）
 测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>策划时间</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减前</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>程序时间-缩减后</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美术原画</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美术外包</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
@@ -2395,7 +2395,7 @@
   </si>
   <si>
     <t>总人天</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
@@ -2420,23 +2420,23 @@
   </si>
   <si>
     <t>纯材料</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>角色*2性别</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>角色套装4套*2性别</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>角色-头6*2性别</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>角色-NPC-妲己</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
@@ -2449,98 +2449,98 @@
   </si>
   <si>
     <t>图标-技能</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>图标-道具120-160</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>怪物头像</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
   </si>
   <si>
     <t>副本*6组</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>对局*10个</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>活动*1个</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>村落*1个</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>摆UI</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>配置验收</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">任务配置、数据结构 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>统计数据&amp;任务目标映射</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务交付</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">每日任务刷新 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">活动、商城相关数据统计&amp;任务更新 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>其他待拆</t>
@@ -2553,31 +2553,31 @@
     <rPh sb="3" eb="4">
       <t>chai</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-676</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-677</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-678</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务初始化</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务更新框架</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>角色、宠物相关数据统计&amp;任务更新</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>原预期时间</t>
@@ -2593,7 +2593,7 @@
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -2603,7 +2603,7 @@
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2619,7 +2619,7 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务还没有拆完</t>
@@ -2632,179 +2632,179 @@
     <rPh sb="5" eb="6">
       <t>chai'wan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>6月1日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月6日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>6月30日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局表现</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>相机运动</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>动画范围-新增mesh、光照变化</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>另外，策划需要0.2天测试光照</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>转向</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>轴锁定、Attach</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-血条动画</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-掉血弹数字动画</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff图标替代规则修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-ui挂特效-如大招</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-集火UI能挂在弱点上</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-buff去掉图标</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-ui增加能量条</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局换宠-换怪特效</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点受击特效</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-弱点死亡表现</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜数据表配置（弱点类别，属性介绍，文字介绍，提示信息）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局照妖镜-照妖镜对隐藏小怪处理</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-进程动画具体设计</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-开战动画</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局动画-胜利失败动画</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局动画- 前置动画删除了</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-取消集火逻辑</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-加速</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-服务器客户端上阵宠物数据同步</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-切换条件判定、对局成功失败条件判定</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局流程-副本对局配置拆大表</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>多语言</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>副本对局配置拆大表</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>5月27日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>1. 对局-集火敌人ui提示</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2. 集火弱点功能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>3. Boss进程调整</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>4. 换宠ui</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
@@ -2814,29 +2814,29 @@
     <rPh sb="2" eb="3">
       <t>cha</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'cha</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>时间差</t>
     <rPh sb="0" eb="1">
       <t>shi'jain'cha</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>速度计算调整</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>多个怪物同时死亡的死亡表现</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>法术大招升格时机调整 与ZZ联调</t>
@@ -2846,19 +2846,19 @@
   </si>
   <si>
     <t>照妖镜基本操作修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜提示信息方式及内容修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月13日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>战后回血</t>
@@ -2871,7 +2871,7 @@
     <rPh sb="3" eb="4">
       <t>xue</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>暴击动画调整</t>
@@ -2884,7 +2884,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜特效层级修改（待确认需求)</t>
@@ -2897,11 +2897,11 @@
     <rPh sb="13" eb="14">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>弱点加入是否可打断（待确认需求)</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>物理大招添加combo</t>
@@ -2911,31 +2911,31 @@
     <rPh sb="2" eb="3">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-726</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>升格动画加入到动画配置</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-727</t>
@@ -2954,23 +2954,23 @@
   </si>
   <si>
     <t>MG-733</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>区分物理大招、法术大招聚气、爆气，修改为事件动画</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">区分物理大招、法术大招幕布 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-734</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大招统计数据UI修改</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-735</t>
@@ -2986,89 +2986,89 @@
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>对局战后回血特效</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>集火UI、开战动画改为英文版“Fight”、托管和手动的UI</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>被动换怪（怪物死亡）的怪物消失特效</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>对应程序任务</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2、3、4、6</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>5、7</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>物理大招聚气与爆气</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>物理大招，法术大招幕布</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>法术大招特写释放特效</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>物理大招特写释放特效</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>物理大招combo提示</t>
   </si>
   <si>
     <t>对应工时（单位d）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>5,6</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>法术，物理大招特写特效配置</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务 对应程序任务</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>对局-弱点碰撞组功能</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-783</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2015年07月21日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
@@ -3078,7 +3078,7 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>buff并存、替代规则</t>
@@ -3091,7 +3091,7 @@
     <rPh sb="9" eb="10">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>区分对局一开始释放一次被动，换上阵不释放</t>
@@ -3122,7 +3122,7 @@
     <rPh sb="17" eb="18">
       <t>bu'shi'fang</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>换上也生效类处理或换下或者死亡移除（光环类）</t>
@@ -3162,7 +3162,7 @@
     <rPh sb="20" eb="21">
       <t>lei</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>驱散功能</t>
@@ -3172,7 +3172,7 @@
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>行动累积</t>
@@ -3182,14 +3182,14 @@
     <rPh sb="2" eb="3">
       <t>lei'ji</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽</t>
     <rPh sb="0" eb="1">
       <t>chao'feng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>减伤护盾</t>
@@ -3199,7 +3199,7 @@
     <rPh sb="2" eb="3">
       <t>hu'dun</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>击晕，打断，表现</t>
@@ -3212,7 +3212,7 @@
     <rPh sb="6" eb="7">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>触发条件配置表</t>
@@ -3225,7 +3225,7 @@
     <rPh sb="4" eb="5">
       <t>pei'zhi'biao</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>血量置数</t>
@@ -3241,27 +3241,27 @@
     <rPh sb="8" eb="9">
       <t>biao'xianxue'liangzhishu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-806</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>技能配置表，buff配置表修改</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>增加buff伤害反应，技能释放反应，死亡反应，致死反应</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">先置技能ui显示 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>被动技能的反应会导致当前行动的时间被延长</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>被动技能开场释放</t>
@@ -3271,18 +3271,18 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>新增buff可提升的属性</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-846</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-847</t>
@@ -3349,38 +3349,38 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>配置表读取</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>UI音效组件</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>背景音乐，音效播放</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>伤害公式，3D受击表现</t>
@@ -3396,23 +3396,23 @@
     <rPh sb="9" eb="10">
       <t>biao'xian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>吸收护盾UI表现</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-862</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效管理器</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-915</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-913</t>
@@ -3431,30 +3431,30 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>13、14、15、16、17</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-703</t>
   </si>
   <si>
     <t>MG-703</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-730</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
@@ -3464,93 +3464,93 @@
     <rPh sb="2" eb="3">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-704</t>
   </si>
   <si>
     <t>MG-704</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-705</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-455</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-457</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-456</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-476</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-517</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-基础框架，包括装备，包括货币，消耗道具（宝箱、钥匙，体力，双倍等）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-396</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-397</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-408</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-304 MG-453 MG-514</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MG-303 </t>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-effect增加命中关联</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-反伤</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-触发一个行动</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-917</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-918</t>
@@ -3560,11 +3560,11 @@
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>等待验收&amp;测试</t>
@@ -3577,21 +3577,21 @@
     <rPh sb="5" eb="6">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-967</t>
   </si>
   <si>
     <t>MG-967</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大招美术需求</t>
@@ -3604,11 +3604,11 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-410</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面基本布局</t>
@@ -3624,37 +3624,37 @@
   </si>
   <si>
     <t>数据结构+初始化+配置表</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">看信+收取+全部收取 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>发信</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
     <rPh sb="0" eb="1">
       <t>you'xiang</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月10日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-972</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-971</t>
@@ -3685,40 +3685,40 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面所有内容</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>杨雪</t>
     <rPh sb="0" eb="1">
       <t>yagn'xue</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月21日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1050</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI调整</t>
@@ -3728,7 +3728,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>受击动作（触发条件，触发事件）</t>
@@ -3750,22 +3750,22 @@
     <rPh sb="12" eb="13">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-987</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月15日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，被动技能tips</t>
@@ -3778,47 +3778,47 @@
     <rPh sb="9" eb="10">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1016</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月20日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1055</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2015年08月26日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>slotIcon封装</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">装备弹出UI封装 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>非装备道具Tips（ 包含位置自动调整）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1058</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1056</t>
@@ -3843,23 +3843,23 @@
     <rPh sb="9" eb="10">
       <t>lie'b</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>装备属性界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>装备列表ui</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>同步客户端装备信息</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1098</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1097</t>
@@ -3869,11 +3869,11 @@
   </si>
   <si>
     <t>宠物详情界面、装备列表、装备详情界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1100</t>
@@ -3892,19 +3892,19 @@
     <rPh sb="7" eb="8">
       <t>bao'shi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>强化进阶界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>开孔和镶嵌界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1145</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1146</t>
@@ -3917,153 +3917,153 @@
   </si>
   <si>
     <t>宝石属性及合成表，接口部分</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宝石选择列表界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化进阶、宝石镶嵌、宝石列表界面</t>
   </si>
   <si>
     <t>MG-1160</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ui </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>输入框超出像左移动,最多输入限制</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>玩家发言间隔</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>切换聊天频道</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>聊天频道划分</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hd'uuan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'wu'qi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器-IM-公共频道，公会频道</t>
   </si>
   <si>
     <t>MG-1022</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1176</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1177</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1178</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽功能</t>
     <rPh sb="2" eb="3">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年09月16日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店物品购买和刷新  </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商城                  </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">月卡和钻石兑换金币      </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>IM翻译功能（新版API变复杂了）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务端http库的升级与扩展，IM翻译功能 -网络功能</t>
     <rPh sb="25" eb="26">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>Im功能补充 -增加公告、走马灯等系统消息</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>玩家发消息,显示服务器消息解析</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商店配置和数据格式设计</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1180</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1181</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1182</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>聊天信息显示排版</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>最多可查看50行消息</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>手指滑动聊天框一系列功能</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>走马灯,系统公告,提示信息</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1183</t>
@@ -4076,29 +4076,29 @@
   </si>
   <si>
     <t>MG-1186</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1187</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1122</t>
   </si>
   <si>
     <t>MG-1188</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1189</t>
   </si>
   <si>
     <t>MG-1113</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1190</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1191</t>
@@ -4117,18 +4117,18 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'h'd</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1217</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1218</t>
@@ -4144,53 +4144,53 @@
   </si>
   <si>
     <t>商店商城与服务器联调</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商城UI与数据</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商店弹出框开发</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商店UI与逻辑开发</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">商店数据封装 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>IM界面、玩家菜单、走马灯、系统提示、系统公告UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1239</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商店（普通、公会）+商城UI制作美术需求</t>
   </si>
   <si>
     <t>MG-1238</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1246</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1247</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商城-支付服务器</t>
@@ -4203,7 +4203,7 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>点玩家名弹出界面</t>
@@ -4219,46 +4219,46 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1243</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本结算，复活</t>
   </si>
   <si>
     <t>2015年09月23日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">结算，复活ui </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>怪物走出来功能</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>复活逻辑</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物进阶材料修改，UI修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>宠物列表项，装备显示（无，已装备）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表，技能图标</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>宠物技能列表-描述超长换行</t>
@@ -4271,7 +4271,7 @@
     <rPh sb="11" eb="12">
       <t>huan'hang</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面UI替换</t>
@@ -4284,15 +4284,15 @@
     <rPh sb="6" eb="7">
       <t>ti'huan</t>
     </rPh>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>MG-1194</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1259</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1260</t>
@@ -4305,7 +4305,7 @@
   </si>
   <si>
     <t>MG-1287</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1288</t>
@@ -4315,19 +4315,19 @@
   </si>
   <si>
     <t>掉落修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>结算修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>复活</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1295</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1296</t>
@@ -4352,11 +4352,11 @@
   </si>
   <si>
     <t>2015年09月30日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>结算逻辑（一些流程修改）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>宠物升级功能</t>
@@ -4369,36 +4369,36 @@
     <rPh sb="4" eb="5">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1331</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1332</t>
   </si>
   <si>
     <t>结算联调</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz 小珍</t>
     <rPh sb="3" eb="4">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1294</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1333</t>
   </si>
   <si>
     <t>MG-1334</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1335</t>
@@ -4408,68 +4408,68 @@
   </si>
   <si>
     <t>MG-1342</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
     <rPh sb="0" eb="1">
       <t>shang'dian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
     <rPh sb="0" eb="1">
       <t>bei'b</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月10日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>背包主UI开发</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>开宝箱</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>消耗品使用（双倍经验，三倍经验，疲劳药）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>出售功能</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>与服务器联调</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>批量开宝箱</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>批量卖</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>双倍、三倍经验</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'sh</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1369</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1367</t>
@@ -4494,22 +4494,22 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>s'f</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1375</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月23日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>道具合成分解</t>
@@ -4522,42 +4522,42 @@
     <rPh sb="4" eb="5">
       <t>fen'jie</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'h'duan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成界面UI  </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成结果UI  </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>分解界面UI</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">分解的筛选方式   </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合成分解服务器联调   </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1480</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1481</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1482</t>
@@ -4576,19 +4576,19 @@
     <rPh sb="0" eb="1">
       <t>f'w'q</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器-分解</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器-连调</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1489</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1487</t>
@@ -4601,11 +4601,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年10月28日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本选择大地图（选择章节）</t>
@@ -4621,7 +4621,7 @@
     <rPh sb="1" eb="2">
       <t>zhen</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>纯2D画的方式</t>
@@ -4640,7 +4640,7 @@
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
@@ -4650,14 +4650,14 @@
     <rPh sb="0" eb="1">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>主界面，村落，角色升级</t>
@@ -4676,7 +4676,7 @@
     <rPh sb="9" eb="10">
       <t>sheng'ji</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">主界面UI </t>
@@ -4689,30 +4689,30 @@
     <rPh sb="0" eb="1">
       <t>ke'h'dua</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>镜头调整</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>场景编辑，选中效果</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>配置+验收</t>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>村落场景添加到流程</t>
@@ -4722,11 +4722,11 @@
     <rPh sb="2" eb="3">
       <t>chang'jing</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>方案1</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>章节选择</t>
@@ -4736,7 +4736,7 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
@@ -4746,19 +4746,19 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>配置修改</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1503</t>
@@ -4774,7 +4774,7 @@
   </si>
   <si>
     <t>副本选择（选择副本）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1498</t>
@@ -4793,25 +4793,25 @@
   </si>
   <si>
     <t>MG-1496</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1495</t>
   </si>
   <si>
     <t>MG-1495</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月02日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>活力值</t>
     <rPh sb="0" eb="1">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>活力值自动恢复 0.5d</t>
@@ -4827,19 +4827,19 @@
   </si>
   <si>
     <t>活力值系统开发与联调</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1550</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1547</t>
@@ -4852,22 +4852,22 @@
   </si>
   <si>
     <t>MG-1546</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>UI-活力值</t>
     <rPh sb="3" eb="4">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1551</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴</t>
@@ -4877,7 +4877,7 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>客户端宠物图鉴UI</t>
@@ -4890,11 +4890,11 @@
   </si>
   <si>
     <t>召唤获取宠物界面(视需要添加的情况)</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务器联调 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物合成</t>
@@ -4904,7 +4904,7 @@
     <rPh sb="2" eb="3">
       <t>he'cheng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>图鉴功能修改</t>
@@ -4917,7 +4917,7 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴-UI</t>
@@ -4927,18 +4927,18 @@
     <rPh sb="2" eb="3">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>新需求</t>
     <rPh sb="0" eb="1">
       <t>xin'xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月04日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>场地buff添加</t>
@@ -4951,7 +4951,7 @@
     <rPh sb="6" eb="7">
       <t>tian'jia</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>buff消失事件触发</t>
@@ -4964,7 +4964,7 @@
     <rPh sb="8" eb="9">
       <t>chu'fa</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>攻击为0的情况处理</t>
@@ -4983,7 +4983,7 @@
     <rPh sb="7" eb="8">
       <t>chu'li</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>物理免疫法术免疫</t>
@@ -4999,34 +4999,34 @@
     <rPh sb="6" eb="7">
       <t>mian'yi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">无法回复buff </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>switch添加检测目标功能</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宝石属性配置修改，添加到技能，伤害公式修改</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1618</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1596</t>
@@ -5039,21 +5039,21 @@
   </si>
   <si>
     <t>MG-1599</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1595</t>
   </si>
   <si>
     <t>MG-1621</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1620</t>
   </si>
   <si>
     <t>MG-1587</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1588</t>
@@ -5078,91 +5078,91 @@
   </si>
   <si>
     <t>2015年11月13日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-配置数据结构添加</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-村落切特写镜头</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔特写镜头ui提示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-流程添加 结算</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔(经验,金币)+通天塔BOSS UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔刷新</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-开启时间+奖励展示</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">通天塔-通天塔(经验,金币)入口+难度选择 </t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-阶段奖励 + 副本状态</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-通天塔界面动画</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>k'hu'd</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-配置</t>
@@ -5175,7 +5175,7 @@
     <rPh sb="8" eb="9">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-两种入口</t>
@@ -5191,7 +5191,7 @@
     <rPh sb="10" eb="11">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-服务器-刷新</t>
@@ -5204,19 +5204,19 @@
     <rPh sb="8" eb="9">
       <t>shua'xin</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1669</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1666</t>
@@ -5262,11 +5262,11 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月14日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整</t>
@@ -5279,14 +5279,14 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'sh</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择调整-服务器</t>
@@ -5302,15 +5302,15 @@
     <rPh sb="7" eb="8">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-659</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>队伍选择-UI</t>
@@ -5320,29 +5320,29 @@
     <rPh sb="2" eb="3">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'f</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1679</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>通天塔-UI</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月18日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜</t>
@@ -5352,7 +5352,7 @@
     <rPh sb="3" eb="4">
       <t>zhao'yao'jing</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>集火逻辑修改</t>
@@ -5374,19 +5374,19 @@
   </si>
   <si>
     <t>照妖镜 鉴定弱点过程修改（鉴定表现，完成表现，ui选择表现）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>弱点配置结果修改</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>其它：</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1683</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1684</t>
@@ -5399,36 +5399,36 @@
   </si>
   <si>
     <t>弱点对应UI的显示（根据弱点状态）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
     <rPh sb="0" eb="1">
       <t>te'xiao</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1681</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>对局-大招&amp;其他修改</t>
@@ -5444,27 +5444,27 @@
     <rPh sb="8" eb="9">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月20日</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能名称提示，伤害数字显示规则调整 大招飞进来 </t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>取消开战，副本进度 ，对局ui出现消失规则</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>特性显示，加速响应调整</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>大招幕布技能名</t>
@@ -5480,19 +5480,19 @@
     <rPh sb="6" eb="7">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1713</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1744</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>MG-1745</t>
@@ -5505,11 +5505,11 @@
     <rPh sb="2" eb="3">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>掉落指引-修改界面接入的方式</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>道具tips，宠物图鉴掉落指引</t>
@@ -5528,15 +5528,15 @@
     <rPh sb="13" eb="14">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月25日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1747</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1748</t>
@@ -5549,49 +5549,49 @@
   </si>
   <si>
     <t xml:space="preserve">掉落指引-道具tips与宠物合成界面tips </t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">掉落指引-途径的事件管理 </t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="50" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
     <rPh sb="0" eb="1">
       <t>gong'hui</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年11月27日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会静态数据结构</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会系统 数据及 UI结构搭建，根据数据跳转到公会相应界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>创建公会</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会成员列表，成员管理 ，赠送体力</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1806</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1807</t>
   </si>
   <si>
     <t>MG-1808</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1809</t>
@@ -5601,46 +5601,46 @@
   </si>
   <si>
     <t>公会祈福UI</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会祈福联调</t>
     <rPh sb="4" eb="5">
       <t>lian'tiao</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会列表，搜索，申请公会</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>工会科技ui</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>工会科技升级消耗联调</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>工会科技影响到结算</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1815</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1813</t>
@@ -5653,11 +5653,11 @@
   </si>
   <si>
     <t>公会信息（基础信息，领奖，修改公告，）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1817</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1818</t>
@@ -5670,7 +5670,7 @@
   </si>
   <si>
     <t>MG-1746</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器-基础，祈福、任务、科技</t>
@@ -5680,7 +5680,7 @@
     <rPh sb="4" eb="5">
       <t>ji'chu</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>美术资源</t>
@@ -5690,25 +5690,25 @@
     <rPh sb="2" eb="3">
       <t>zi'yuan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1823</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>列表界面排版/可装备'+'配置</t>
   </si>
   <si>
     <t>经验药水界面（调整左侧界面关联）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面重做</t>
   </si>
   <si>
     <t>2015年12月02日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>战力计算</t>
@@ -5718,27 +5718,27 @@
     <rPh sb="2" eb="3">
       <t>ji'suan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1825</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物详情左侧界面及右侧控制逻辑</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>装备信息强化/镶嵌界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>装备弹出列表</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>装备tips和获取途径</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1826</t>
@@ -5766,22 +5766,22 @@
   </si>
   <si>
     <t>宝石列表（逻辑相对复杂）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>待排期</t>
     <rPh sb="0" eb="1">
       <t>dai'pai'qi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>宠物强化进阶</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>IM  世界频道支持公会招募 及跳转  公会频道支持 公会任务发布 及跳转</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>IM 超链接功能</t>
@@ -5791,11 +5791,11 @@
     <rPh sb="6" eb="7">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年12月03日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>IM、邮箱调整</t>
@@ -5805,7 +5805,7 @@
     <rPh sb="5" eb="6">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>做删除动画</t>
@@ -5818,7 +5818,7 @@
   </si>
   <si>
     <t>MG-1879</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1878</t>
@@ -5828,41 +5828,41 @@
     <rPh sb="5" eb="6">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>UI-邮箱修改</t>
     <rPh sb="5" eb="6">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1797</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1798</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>罗阳</t>
     <rPh sb="0" eb="1">
       <t>luo'yang</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>IM UI更改和动画</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>查看工会,系统公告更改</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>基础聊天框显示规则</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>优化发送消息（卡顿感觉）</t>
@@ -5872,11 +5872,11 @@
     <rPh sb="9" eb="10">
       <t>gan'jue</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1881</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1880</t>
@@ -5892,26 +5892,26 @@
   </si>
   <si>
     <t>发言间隔点击done发送</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>技能界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>检测装备升级</t>
   </si>
   <si>
     <t>MG-1888</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1887</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2015年12月11日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商店商城修改</t>
@@ -5924,7 +5924,7 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商店修改，换UI</t>
@@ -5937,7 +5937,7 @@
     <rPh sb="5" eb="6">
       <t>huan</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商城新功能</t>
@@ -5950,7 +5950,7 @@
     <rPh sb="3" eb="4">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>商店、商城修改</t>
@@ -5963,41 +5963,41 @@
     <rPh sb="5" eb="6">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1944</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1943</t>
   </si>
   <si>
     <t>MG-1942</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>其它公会</t>
   </si>
   <si>
     <t>公会任务-与服务器联调</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会任务-其它队伍展示，加入任务</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会任务-开启任务</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会任务-我的小队，任务展示，提交任务，奖励展示 放弃任务</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1953</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1949</t>
@@ -6013,7 +6013,7 @@
   </si>
   <si>
     <t>2015年12月16日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>登录流程</t>
@@ -6023,43 +6023,43 @@
     <rPh sb="2" eb="3">
       <t>liu'cheng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>登录注册</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务器UI </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公告</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器列表功能+联调</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>异常情况处理</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器列表状态</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>sessionkey验证</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>绑定昵称</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
@@ -6078,7 +6078,7 @@
     <rPh sb="13" eb="14">
       <t>chai'fen</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>创建角色未拆分</t>
@@ -6094,11 +6094,11 @@
     <rPh sb="5" eb="6">
       <t>chai'fen</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1956</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1954</t>
@@ -6117,14 +6117,14 @@
   </si>
   <si>
     <t>资源更新界面</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>孔瑱</t>
     <rPh sb="0" eb="1">
       <t>kong'zhen</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1960</t>
@@ -6140,7 +6140,7 @@
     <rPh sb="0" eb="1">
       <t>dou'dou</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>服务器界面</t>
@@ -6150,7 +6150,7 @@
     <rPh sb="3" eb="4">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>登录界面更新界面UI</t>
@@ -6166,7 +6166,7 @@
     <rPh sb="6" eb="7">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公告界面</t>
@@ -6176,7 +6176,7 @@
     <rPh sb="2" eb="3">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>动画演示</t>
@@ -6186,18 +6186,18 @@
     <rPh sb="2" eb="3">
       <t>yan'shi</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>铁马</t>
     <rPh sb="0" eb="1">
       <t>tie'ma</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1965</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1963</t>
@@ -6207,15 +6207,15 @@
   </si>
   <si>
     <t>MG-1931</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>登录界面底图</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1966</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
@@ -6252,7 +6252,7 @@
   </si>
   <si>
     <t>2016年01月04日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务新增功能</t>
@@ -6265,34 +6265,34 @@
     <rPh sb="4" eb="5">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-1986</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2064</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2065</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2066</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
     <rPh sb="0" eb="1">
       <t>da'mao'xian</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>2016年01月13日</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>任务选择界面(包含时间和状态部分处理)</t>
@@ -6311,50 +6311,50 @@
   </si>
   <si>
     <t>布置阵容界面（感觉筛选、条件及更新比较复杂两天做不完）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">领取奖励界面  </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">配置及数据 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">同步、变更次数、筛选、雇佣、进入、领奖、小队管理 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">工会派兵 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>工会基地奖励</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大冒险接口</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">小龙 </t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会基地开发</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会基地联调</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2168</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2164</t>
@@ -6403,54 +6403,54 @@
     <rPh sb="2" eb="3">
       <t>ji'di</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>云祥</t>
     <rPh sb="0" eb="1">
       <t>yun'xiang</t>
     </rPh>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会基地玩家列表 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会基地选择宠物</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会基地二级  </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>云祥</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大冒险对阵界面  调ui和动画 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大冒险奖励界面  调ui和动画和特效</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>九张图 每个档位需要有一个底图 共9张图  </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大冒险主界面    调ui和动画 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2236</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2234</t>
@@ -6475,34 +6475,201 @@
   </si>
   <si>
     <t>大冒险队伍界面  调ui和动画</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大冒险二级界面  调ui和动画</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>大冒险对阵界面完成度宝箱动画 （需宝箱ok）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>主界面完成冒险特效动画      （需原画ok）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2229</t>
   </si>
   <si>
     <t>MG-2229</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>公会基地主界面 （需3d）调ui和3d动画加特效 </t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>MG-2242</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年01月21日</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2307</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>MG-2308</t>
+  </si>
+  <si>
+    <t>MG-2309</t>
+  </si>
+  <si>
+    <t>MG-2310</t>
+  </si>
+  <si>
+    <t>MG-2311</t>
+  </si>
+  <si>
+    <t>MG-2313</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <rPh sb="0" eb="1">
+      <t>tie'm</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2224</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2261</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2279</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋动作（外包）</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wai'bao</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋-拼UI</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pin</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋-UI逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋服务器协议逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu'w'q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xie'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋UI动画&amp;结果展示逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋-宠物展示</t>
+    <rPh sb="0" eb="1">
+      <t>chou'da</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhan'shi</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋服务器</t>
+    <rPh sb="0" eb="1">
+      <t>chou'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>f'w'q</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-抽蛋</t>
+    <rPh sb="0" eb="5">
+      <t>daichai'fen</t>
+    </rPh>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-抽蛋界面  抽蛋二级 0.5</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-抽蛋主界面两大按钮动画+特效</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-抽蛋3d鬼脸+特效</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6512,7 +6679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6520,6 +6687,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7137,555 +7311,555 @@
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="48" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="68" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="69" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="51" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="65" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="66" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -10756,7 +10930,7 @@
       <c r="J139" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 G139:J139 H67:H71 B70:E71 F2:H6 B44:H45 B57:H58 B46:B56 D46:H56 B62:H63 B59:B61 D59:H61 B67:B69 D67:E69">
     <cfRule type="cellIs" dxfId="76" priority="11" operator="equal">
       <formula>"未完成"</formula>
@@ -12084,7 +12258,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="B2:H8">
     <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
       <formula>"未完成"</formula>
@@ -13278,7 +13452,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="B2:I3 B4:G4 I4:I5 B13:I18 D12:H12 D6:I11 D5:G5 B5:C12">
     <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"未完成"</formula>
@@ -14004,7 +14178,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1 J2:J5 B2:I28">
     <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
       <formula>"未完成"</formula>
@@ -15121,7 +15295,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -16419,7 +16593,7 @@
       <c r="M87" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="E1:H2">
     <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -16438,7 +16612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
     </sheetView>
@@ -18109,7 +18283,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="C34">
     <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"未完成"</formula>
@@ -18126,11 +18300,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18586,7 +18760,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="145" t="s">
         <v>744</v>
       </c>
@@ -18603,7 +18777,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="145" t="s">
         <v>1337</v>
       </c>
@@ -18617,7 +18791,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="145" t="s">
         <v>1338</v>
       </c>
@@ -18631,7 +18805,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37" s="145" t="s">
         <v>1349</v>
       </c>
@@ -18645,7 +18819,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="145" t="s">
         <v>1350</v>
       </c>
@@ -18659,7 +18833,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39" s="145" t="s">
         <v>1351</v>
       </c>
@@ -18673,7 +18847,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D40" s="145" t="s">
         <v>1352</v>
       </c>
@@ -18687,7 +18861,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" s="145" t="s">
         <v>1339</v>
       </c>
@@ -18701,8 +18875,173 @@
         <v>1348</v>
       </c>
     </row>
+    <row r="43" spans="1:8" s="177" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="177" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D43" s="177" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="145" t="s">
+        <v>856</v>
+      </c>
+      <c r="D44" s="145" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E44" s="145">
+        <v>1</v>
+      </c>
+      <c r="G44" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="H44" s="145" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="145" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E45" s="145">
+        <v>1</v>
+      </c>
+      <c r="G45" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="H45" s="145" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="145" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E46" s="145">
+        <v>1</v>
+      </c>
+      <c r="G46" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="H46" s="145" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="145" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E47" s="145">
+        <v>3</v>
+      </c>
+      <c r="G47" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="H47" s="145" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="145" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E48" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="145" t="s">
+        <v>696</v>
+      </c>
+      <c r="H48" s="145" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="145" t="s">
+        <v>855</v>
+      </c>
+      <c r="D50" s="145" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E50" s="145">
+        <v>2.5</v>
+      </c>
+      <c r="G50" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="145" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="145" t="s">
+        <v>744</v>
+      </c>
+      <c r="D52" s="145" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E52" s="145">
+        <v>1</v>
+      </c>
+      <c r="G52" s="145" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H52" s="145" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="145" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E53" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="145" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H53" s="145" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="145" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E54" s="145">
+        <v>1.5</v>
+      </c>
+      <c r="G54" s="145" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H54" s="145" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="145" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E55" s="145">
+        <v>1</v>
+      </c>
+      <c r="G55" s="145" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H55" s="145" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="145" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G56" s="145" t="s">
+        <v>768</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="E1:H1">
     <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"未完成"</formula>
@@ -29962,7 +30301,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AH189"/>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <conditionalFormatting sqref="AB4:AH18 B102:C104 D103:G104 B101:AH101 B133:G133 C134:G137 H88:H93 D102:AH102 I87:N93 P90:AB94 B94:N94 B124:I132 P4:Y18 B105:G114 B134:B139 C138:I139 H103:AH114 B183:C183 E183:AH183 E185:AH185 B185:C185 J184:AH184 J186:AH186 B187:C187 B145:C145 E187:AH187 H145:AH145 J158:AH158 J161:AH161 J164:AH164 J167:AH167 J170:AH170 J177:AH182 B157:AH157 B159:C160 E159:AH160 B162:C163 E162:AH163 B165:C166 E165:AH166 B168:C169 E168:AH169 J172:AH172 B171:C171 E171:AH171 B173:C173 J174:AH174 E173:AH173 B175:C176 E175:AH176 H133:I137 B122:AH123 J155:AH156 J25:AH25 B19:AH22 O71 AB71:AH84 B70:AH70 E154:AH154 B154:C154 B87:G93 AC86:AH94 AB86:AB89 P86:Y89 B86:N86 B98:N100 P98:AH100 AB51:AH64 J150:AH153 J115:AH121 J96:AH96 B36 I26:AH26 C26:G26 E65:E69 B4:N18 B65:B69 P71:Y84 B39:AH50 B35:AH35 B71:N84 B51:Y64 C27:AH34 C23:AH24 B23:B34 J124:AH144 N146 A3:AH3">
     <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>"TBD"</formula>

--- a/项目管理/进度计划/任务拆分汇总.xlsx
+++ b/项目管理/进度计划/任务拆分汇总.xlsx
@@ -111,13 +111,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="1453">
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>对局修改</t>
@@ -127,7 +127,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本入口</t>
@@ -137,44 +137,44 @@
     <rPh sb="2" eb="3">
       <t>ru'kou</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本战斗信息参数传递</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong'ji</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本入口-阵容调整</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性弹出框</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>阵容有效性弹出框</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本信息</t>
@@ -184,7 +184,7 @@
     <rPh sb="2" eb="3">
       <t>xin'xi</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本列表（临时）</t>
@@ -197,14 +197,14 @@
     <rPh sb="5" eb="6">
       <t>lin'shi</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
     <rPh sb="0" eb="1">
       <t>you'xian'ji</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>任务编号</t>
@@ -214,54 +214,54 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-624</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-625</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-652</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-653</t>
   </si>
   <si>
     <t>MG-566</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-567</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>开始副本记录好友</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>重置次数（接口、消费）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-656</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-655</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-657</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>扫荡次数（待定）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-658</t>
@@ -271,47 +271,47 @@
   </si>
   <si>
     <t>副本入口相关 UI设计 大板设计细化</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>通用大按钮</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>装备图标 5个</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>数字一套</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本地图</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面相关样式设计</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>怪物选择边框及宠物界面相关补漏</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>字体一套 颜色大小调整</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>通用小界面</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>普通大小按钮</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>头像 头像相关</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面</t>
@@ -321,87 +321,87 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>美术UI</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>进阶页面</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
     <rPh sb="0" eb="1">
       <t>ke'hu'duan</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>动画模块增加切换弱点状态功能</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-632</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>切进程（事件）条件收集</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-633</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>对局配置表拆分</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-627</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落信息是否同步确认</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-634</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>对局进度+技能search修改+清buff</t>
     <rPh sb="16" eb="17">
       <t>qing</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-635</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>副本对局间过渡</t>
@@ -417,58 +417,58 @@
     <rPh sb="5" eb="6">
       <t>guo'du</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-626</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>弱点状态切换功能</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-636</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>弱点检测方式修改</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-637</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>弱点表现修改</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-638</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>弱点相关属性修改为状态相关</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-639</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>弱点碰撞测试</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-640</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>召唤小怪</t>
@@ -478,59 +478,59 @@
     <rPh sb="2" eb="3">
       <t>xiao'guai</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-641</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>对局切换遮挡效果</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-642</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>双方怪物跑入场表现</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-643</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>产生掉落物品的组件（随机的掉落曲线，掉落间隔）</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-644</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>掉落物品组件（可点击，消失功能，消失特效）</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-645</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>掉落宠物的3d展示</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-646</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜-材质的shader</t>
@@ -540,157 +540,157 @@
     <rPh sb="4" eb="5">
       <t>cai'zhi</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-647</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>单位:d</t>
     <rPh sb="0" eb="1">
       <t>dan'wei</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-654</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>服务器</t>
     <rPh sb="0" eb="1">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>副本开启条件</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本开始数据结构配置表</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-592</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>扫荡（接口、额外奖励配置、奖励计算）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>好友助战（待定）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>体力购买（待定）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>UI粗细边框细化</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>大小标题栏和抬头切页</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>技能icon包括边框 5个</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>进度条两种</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>副本入口相关补漏（vs加号特效等）</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宠物包裹界面</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-玩家宠物背包分页签</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">技能页面 </t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>进阶材料宠物选择页面</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">宠物进阶材料需求配置表 </t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
       <t>ren'yuan</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-629</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-630</t>
   </si>
   <si>
     <t>宠物详情页面基本布局</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>3D模型与动画</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>详情页面翻页动画</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-663</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-662</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-661</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-660</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-664</t>
@@ -709,7 +709,7 @@
     <rPh sb="2" eb="3">
       <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-界面部分交互设计</t>
@@ -731,7 +731,7 @@
     <rPh sb="11" eb="12">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-任务奖励项规则</t>
@@ -747,7 +747,7 @@
     <rPh sb="10" eb="11">
       <t>gui'ze</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-根据排序规则排序</t>
@@ -763,7 +763,7 @@
     <rPh sb="11" eb="12">
       <t>pai'xu</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>任务系统-添加任务部分的数据结构、数据绑定和更新</t>
@@ -797,67 +797,67 @@
     <rPh sb="22" eb="23">
       <t>geng'x</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>策划</t>
     <rPh sb="0" eb="1">
       <t>ce'hua</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>对应工时</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-648</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>1、5、6、7、8、9、10</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-649</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-650</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>MG-651</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>2、3</t>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务，对应程序任务编号</t>
     <rPh sb="16" eb="17">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="45" type="noConversion"/>
+    <phoneticPr fontId="47" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
     <rPh sb="0" eb="1">
       <t>da'zhao</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>client</t>
@@ -894,7 +894,7 @@
   </si>
   <si>
     <t>npc释放大招逻辑</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>原计划是6个表现，目前是2个大招表现</t>
@@ -904,7 +904,7 @@
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>道具配置表</t>
@@ -926,21 +926,21 @@
     <rPh sb="12" eb="13">
       <t>pai'ban</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>装备比较功能</t>
   </si>
   <si>
     <t>道具链接到相关界面功能</t>
-    <phoneticPr fontId="50" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>道具操作界面按钮功能</t>
   </si>
   <si>
     <t>置灰内容不做后统计时间</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>server</t>
@@ -950,7 +950,7 @@
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>道具系统-服务端基础结构和配置</t>
@@ -969,11 +969,11 @@
     <rPh sb="7" eb="8">
       <t>zu</t>
     </rPh>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>MG-675</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
@@ -998,385 +998,385 @@
   </si>
   <si>
     <t>2015年06月12日</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2015年06月1日</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="53" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="53" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="50" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="53" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="53" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="53" type="noConversion"/>
+    <phoneticPr fontId="55" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="50" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>策划分工</t>
-    <phoneticPr fontId="53" type="noConversion"/